--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Актив" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>ВСЕГО обязательств</t>
   </si>
@@ -231,18 +231,50 @@
   </si>
   <si>
     <t>Текущие обязательства по расчетам по оплате труда</t>
+  </si>
+  <si>
+    <t>Основные средства</t>
+  </si>
+  <si>
+    <t>всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прочие необоротные материальные активы </t>
+  </si>
+  <si>
+    <t>Нематериальные активы</t>
+  </si>
+  <si>
+    <t>ВСЕГО необоротных активов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запасы (П(С)БО–9) </t>
+  </si>
+  <si>
+    <t>Денежные средства</t>
+  </si>
+  <si>
+    <t>Всего оборотных активов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,8 +403,31 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,8 +446,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -566,182 +627,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,79 +1265,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G9:O18"/>
+  <dimension ref="C2:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="7:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="1">
+    <row r="2" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+    </row>
+    <row r="3" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="75">
+        <v>1</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="72">
         <v>199020</v>
       </c>
-      <c r="J10" s="1">
+    </row>
+    <row r="4" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="76">
+        <v>2</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="72">
+        <v>69550</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="76">
+        <v>3</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="73">
+        <v>-160500</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="76">
+        <v>4</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="72">
+        <v>102720</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="76">
+        <v>10</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="72">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="76">
+        <v>11</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="72">
+        <v>28890</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="76">
+        <v>17</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="72">
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="77">
+        <v>21</v>
+      </c>
+      <c r="I10" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="72">
+        <v>57780</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H11" s="78">
+        <v>36</v>
+      </c>
+      <c r="I11" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="72">
+        <v>36060</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H12" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="J12" s="74">
+        <f>SUM(J3:J11)</f>
+        <v>392370</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+    </row>
+    <row r="16" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="75">
+        <v>39</v>
+      </c>
+      <c r="I16" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="66">
         <v>15300</v>
       </c>
     </row>
-    <row r="11" spans="7:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="2">
+    <row r="17" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="77">
+        <v>25</v>
+      </c>
+      <c r="I17" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="81">
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="H18" s="84">
+        <v>22</v>
+      </c>
+      <c r="I18" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="83">
+        <v>-8560</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="94"/>
+      <c r="J19" s="16">
+        <f>SUM(J16:J18)</f>
+        <v>113740</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+    </row>
+    <row r="23" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="75">
+        <v>7</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="66">
+        <v>19260</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="86">
+        <v>34</v>
+      </c>
+      <c r="I24" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="100">
+        <v>-3210</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="93"/>
+      <c r="J25" s="16">
+        <f>SUM(J23:J24)</f>
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C29" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="74">
+        <f>J25+J19+J12</f>
+        <v>522160</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+    </row>
+    <row r="33" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="75">
+        <v>6</v>
+      </c>
+      <c r="I33" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="66">
+        <v>84670</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="76">
+        <v>13</v>
+      </c>
+      <c r="I34" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="67">
+        <v>23540</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="76">
+        <v>8</v>
+      </c>
+      <c r="I35" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="67">
+        <v>41880</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="75">
+        <v>20</v>
+      </c>
+      <c r="I36" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="66">
+        <v>155150</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="76">
+        <v>30</v>
+      </c>
+      <c r="I37" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="67">
+        <v>80250</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="76">
+        <v>32</v>
+      </c>
+      <c r="I38" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="67">
         <v>69550</v>
       </c>
-      <c r="J11" s="3">
-        <v>107000</v>
-      </c>
-    </row>
-    <row r="12" spans="7:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="2">
-        <v>102720</v>
-      </c>
-      <c r="J12">
-        <f>SUM(J10:J11)</f>
-        <v>122300</v>
-      </c>
-      <c r="L12" s="4">
-        <v>19260</v>
-      </c>
-      <c r="O12">
-        <f>G18+J12+L12</f>
-        <v>694430</v>
-      </c>
-    </row>
-    <row r="13" spans="7:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="2">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="14" spans="7:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="2">
-        <v>28890</v>
-      </c>
-    </row>
-    <row r="15" spans="7:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="2">
-        <v>16050</v>
-      </c>
-    </row>
-    <row r="16" spans="7:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="2">
-        <v>57780</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G17" s="3">
-        <v>36060</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <f>SUM(G10:G17)</f>
-        <v>552870</v>
+    </row>
+    <row r="39" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="76">
+        <v>33</v>
+      </c>
+      <c r="I39" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="67">
+        <v>96300</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H40" s="77">
+        <v>38</v>
+      </c>
+      <c r="I40" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="68">
+        <v>235400</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="92"/>
+      <c r="J41" s="90">
+        <f>SUM(J33:J40)</f>
+        <v>786740</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+    </row>
+    <row r="45" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="75">
+        <v>12</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="66">
+        <v>149800</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H46" s="77">
+        <v>37</v>
+      </c>
+      <c r="I46" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="68">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="H47" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="92"/>
+      <c r="J47" s="90">
+        <f>SUM(J45:J46)</f>
+        <v>150870</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+    </row>
+    <row r="50" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="75">
+        <v>23</v>
+      </c>
+      <c r="I50" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="66">
+        <v>12840</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="H51" s="77">
+        <v>26</v>
+      </c>
+      <c r="I51" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="68">
+        <v>99220</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="H52" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" s="92"/>
+      <c r="J52" s="90">
+        <f>SUM(J50:J51)</f>
+        <v>112060</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C56" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="74">
+        <f>J52+J47+J41</f>
+        <v>1049670</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C58" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="74">
+        <f>J56+J29</f>
+        <v>1571830</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C15:J15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
 </worksheet>
@@ -1365,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
@@ -1726,22 +2369,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="42"/>
-    <col min="4" max="4" width="8" style="42" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="16" style="42" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="42" customWidth="1"/>
-    <col min="10" max="10" width="21" style="42" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="3" width="9.140625" style="37"/>
+    <col min="4" max="4" width="8" style="37" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="16" style="37" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="21" style="37" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="37" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1757,7 +2400,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="58" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1769,16 +2412,16 @@
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="57"/>
-      <c r="K7" s="38"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="63" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="33" t="s">
@@ -1793,14 +2436,14 @@
       <c r="J8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="4:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="33" t="s">
         <v>51</v>
       </c>
@@ -1813,19 +2456,19 @@
       <c r="J9" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="41"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="34">
@@ -1834,7 +2477,7 @@
       <c r="E11" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -1850,7 +2493,7 @@
       <c r="E12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -1860,45 +2503,45 @@
       </c>
     </row>
     <row r="13" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="44">
+      <c r="D13" s="39">
         <v>3</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="63"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="46">
+      <c r="K13" s="41">
         <v>17120</v>
       </c>
     </row>
     <row r="14" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="44">
+      <c r="D14" s="39">
         <v>4</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="64"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
-      <c r="K14" s="46">
+      <c r="K14" s="41">
         <v>29960</v>
       </c>
     </row>
     <row r="15" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="47">
+      <c r="D15" s="42">
         <v>5</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="51">
         <v>4</v>
       </c>
       <c r="G15" s="36" t="s">
@@ -1907,167 +2550,167 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="49">
+      <c r="K15" s="44">
         <v>29960</v>
       </c>
     </row>
     <row r="16" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="47">
+      <c r="D16" s="42">
         <v>6</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
-      <c r="K16" s="49">
+      <c r="K16" s="44">
         <v>21400</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="47">
+      <c r="D17" s="42">
         <v>7</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
-      <c r="K17" s="49">
+      <c r="K17" s="44">
         <v>68480</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="50">
+      <c r="D18" s="45">
         <v>8</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="49">
+      <c r="K18" s="44">
         <v>38520</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="47">
+      <c r="D19" s="42">
         <v>9</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="49">
+      <c r="K19" s="44">
         <v>14450</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="47">
+      <c r="D20" s="42">
         <v>10</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
-      <c r="K20" s="49">
+      <c r="K20" s="44">
         <v>6160</v>
       </c>
     </row>
     <row r="21" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="47">
+      <c r="D21" s="42">
         <v>11</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="49">
+      <c r="K21" s="44">
         <v>830</v>
       </c>
     </row>
     <row r="22" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="50">
+      <c r="D22" s="45">
         <v>12</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
-      <c r="K22" s="51">
+      <c r="K22" s="46">
         <v>14980</v>
       </c>
     </row>
     <row r="23" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="47">
+      <c r="D23" s="42">
         <v>13</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
-      <c r="K23" s="49">
+      <c r="K23" s="44">
         <v>13370</v>
       </c>
     </row>
     <row r="24" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="47">
+      <c r="D24" s="42">
         <v>14</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
-      <c r="K24" s="49">
+      <c r="K24" s="44">
         <v>26750</v>
       </c>
     </row>
     <row r="25" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="47">
+      <c r="D25" s="42">
         <v>15</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="49">
+      <c r="K25" s="44">
         <v>64200</v>
       </c>
     </row>

--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Актив" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Пасив" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
   <si>
     <t>ВСЕГО обязательств</t>
   </si>
@@ -255,13 +255,40 @@
   </si>
   <si>
     <t>Всего оборотных активов</t>
+  </si>
+  <si>
+    <t>Состав капитала предприятия</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Состав обязательств предприятия</t>
+  </si>
+  <si>
+    <t>Долгосрочные</t>
+  </si>
+  <si>
+    <t>Текущие</t>
+  </si>
+  <si>
+    <t>Обеспечения</t>
+  </si>
+  <si>
+    <t>Актив</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Капитал + оязательство</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,21 +343,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,6 +438,28 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -514,21 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -686,11 +705,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -698,196 +728,183 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -897,53 +914,60 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -955,14 +979,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="B39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,464 +1352,464 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="75">
+      <c r="H3" s="68">
         <v>1</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="65">
         <v>199020</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="76">
+      <c r="H4" s="69">
         <v>2</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="65">
         <v>69550</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="76">
+      <c r="H5" s="69">
         <v>3</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="66">
         <v>-160500</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="76">
+      <c r="H6" s="69">
         <v>4</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="65">
         <v>102720</v>
       </c>
     </row>
     <row r="7" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="76">
+      <c r="H7" s="69">
         <v>10</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="65">
         <v>42800</v>
       </c>
     </row>
     <row r="8" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="76">
+      <c r="H8" s="69">
         <v>11</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="65">
         <v>28890</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="76">
+      <c r="H9" s="69">
         <v>17</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="65">
         <v>16050</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="77">
+      <c r="H10" s="70">
         <v>21</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="65">
         <v>57780</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H11" s="78">
+      <c r="H11" s="72">
         <v>36</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="65">
         <v>36060</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="94"/>
-      <c r="J12" s="74">
+      <c r="I12" s="90"/>
+      <c r="J12" s="67">
         <f>SUM(J3:J11)</f>
         <v>392370</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
     </row>
     <row r="16" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="75">
+      <c r="H16" s="68">
         <v>39</v>
       </c>
-      <c r="I16" s="79" t="s">
+      <c r="I16" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="59">
         <v>15300</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="77">
+      <c r="H17" s="70">
         <v>25</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="I17" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="75">
         <v>107000</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="H18" s="84">
+      <c r="H18" s="78">
         <v>22</v>
       </c>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="83">
+      <c r="J18" s="77">
         <v>-8560</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H19" s="94" t="s">
+      <c r="H19" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="94"/>
-      <c r="J19" s="16">
+      <c r="I19" s="90"/>
+      <c r="J19" s="9">
         <f>SUM(J16:J18)</f>
         <v>113740</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
     </row>
     <row r="23" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="75">
+      <c r="H23" s="68">
         <v>7</v>
       </c>
-      <c r="I23" s="79" t="s">
+      <c r="I23" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="59">
         <v>19260</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="86">
+      <c r="H24" s="81">
         <v>34</v>
       </c>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="100">
+      <c r="J24" s="96">
         <v>-3210</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H25" s="93" t="s">
+      <c r="H25" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="93"/>
-      <c r="J25" s="16">
+      <c r="I25" s="89"/>
+      <c r="J25" s="9">
         <f>SUM(J23:J24)</f>
         <v>16050</v>
       </c>
     </row>
     <row r="29" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="74">
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="67">
         <f>J25+J19+J12</f>
         <v>522160</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
     </row>
     <row r="33" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="75">
+      <c r="H33" s="68">
         <v>6</v>
       </c>
-      <c r="I33" s="79" t="s">
+      <c r="I33" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="66">
+      <c r="J33" s="59">
         <v>84670</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="76">
+      <c r="H34" s="69">
         <v>13</v>
       </c>
-      <c r="I34" s="85" t="s">
+      <c r="I34" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="67">
+      <c r="J34" s="60">
         <v>23540</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="76">
+      <c r="H35" s="69">
         <v>8</v>
       </c>
-      <c r="I35" s="85" t="s">
+      <c r="I35" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="67">
+      <c r="J35" s="60">
         <v>41880</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="75">
+      <c r="H36" s="68">
         <v>20</v>
       </c>
-      <c r="I36" s="79" t="s">
+      <c r="I36" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="66">
+      <c r="J36" s="59">
         <v>155150</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="76">
+      <c r="H37" s="69">
         <v>30</v>
       </c>
-      <c r="I37" s="85" t="s">
+      <c r="I37" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="J37" s="67">
+      <c r="J37" s="60">
         <v>80250</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="76">
+      <c r="H38" s="69">
         <v>32</v>
       </c>
-      <c r="I38" s="85" t="s">
+      <c r="I38" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="67">
+      <c r="J38" s="60">
         <v>69550</v>
       </c>
     </row>
     <row r="39" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="76">
+      <c r="H39" s="69">
         <v>33</v>
       </c>
-      <c r="I39" s="85" t="s">
+      <c r="I39" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="67">
+      <c r="J39" s="60">
         <v>96300</v>
       </c>
     </row>
     <row r="40" spans="3:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="H40" s="77">
+      <c r="H40" s="70">
         <v>38</v>
       </c>
-      <c r="I40" s="80" t="s">
+      <c r="I40" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="61">
         <v>235400</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H41" s="91" t="s">
+      <c r="H41" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="92"/>
-      <c r="J41" s="90">
+      <c r="I41" s="88"/>
+      <c r="J41" s="86">
         <f>SUM(J33:J40)</f>
         <v>786740</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="95" t="s">
+      <c r="C44" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
     </row>
     <row r="45" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="75">
+      <c r="H45" s="68">
         <v>12</v>
       </c>
-      <c r="I45" s="79" t="s">
+      <c r="I45" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="66">
+      <c r="J45" s="59">
         <v>149800</v>
       </c>
     </row>
     <row r="46" spans="3:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="H46" s="77">
+      <c r="H46" s="70">
         <v>37</v>
       </c>
-      <c r="I46" s="80" t="s">
+      <c r="I46" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="68">
+      <c r="J46" s="61">
         <v>1070</v>
       </c>
     </row>
     <row r="47" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H47" s="91" t="s">
+      <c r="H47" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="I47" s="92"/>
-      <c r="J47" s="90">
+      <c r="I47" s="88"/>
+      <c r="J47" s="86">
         <f>SUM(J45:J46)</f>
         <v>150870</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="96" t="s">
+      <c r="C49" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
     </row>
     <row r="50" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H50" s="75">
+      <c r="H50" s="68">
         <v>23</v>
       </c>
-      <c r="I50" s="79" t="s">
+      <c r="I50" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="66">
+      <c r="J50" s="59">
         <v>12840</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="H51" s="77">
+      <c r="H51" s="70">
         <v>26</v>
       </c>
-      <c r="I51" s="80" t="s">
+      <c r="I51" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="68">
+      <c r="J51" s="61">
         <v>99220</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H52" s="91" t="s">
+      <c r="H52" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="92"/>
-      <c r="J52" s="90">
+      <c r="I52" s="88"/>
+      <c r="J52" s="86">
         <f>SUM(J50:J51)</f>
         <v>112060</v>
       </c>
     </row>
     <row r="56" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C56" s="98" t="s">
+      <c r="C56" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="74">
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="67">
         <f>J52+J47+J41</f>
         <v>1049670</v>
       </c>
     </row>
     <row r="58" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C58" s="99" t="s">
+      <c r="C58" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="74">
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="67">
         <f>J56+J29</f>
         <v>1571830</v>
       </c>
@@ -1767,117 +1839,346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O20"/>
+  <dimension ref="B3:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1">
-        <v>84670</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
-        <v>23540</v>
-      </c>
-      <c r="F4" s="9">
-        <v>149800</v>
-      </c>
-      <c r="I4" s="1">
-        <v>12840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="2">
-        <v>41880</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1070</v>
-      </c>
-      <c r="I5" s="2">
-        <v>99220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
-        <v>155150</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
-        <v>80250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="2">
-        <v>69550</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="2">
-        <v>96300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
-        <v>235400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8">
-        <f>SUM(C3:C10)</f>
-        <v>786740</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8">
-        <f>SUM(F4:F10)</f>
-        <v>150870</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6">
-        <f>SUM(I4:I10)</f>
-        <v>112060</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7">
-        <f>SUM(C11:L11)</f>
-        <v>1049670</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="20" spans="6:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F20" s="4">
-        <v>694430</v>
-      </c>
-      <c r="H20" s="11">
-        <v>1049670</v>
-      </c>
-      <c r="M20" s="12">
-        <f>F20+H20</f>
-        <v>1744100</v>
+    <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+    </row>
+    <row r="4" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="97">
+        <v>9</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="99">
+        <v>695500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="100">
+        <v>14</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="103">
+        <v>113420</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="97">
+        <v>27</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="99">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="100">
+        <v>24</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="103">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="D14" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="90"/>
+      <c r="F14" s="86">
+        <f>SUM(F4:F13)</f>
+        <v>883820</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+    </row>
+    <row r="19" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="68">
+        <v>15</v>
+      </c>
+      <c r="E19" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="59">
+        <v>288900</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="D20" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="90"/>
+      <c r="F20" s="85">
+        <f>SUM(F19)</f>
+        <v>288900</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="68">
+        <v>5</v>
+      </c>
+      <c r="E24" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="59">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="69">
+        <v>18</v>
+      </c>
+      <c r="E25" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="60">
+        <v>49220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="108">
+        <v>19</v>
+      </c>
+      <c r="E26" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="60">
+        <v>102720</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="69">
+        <v>28</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="60">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="69">
+        <v>31</v>
+      </c>
+      <c r="E28" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="60">
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="69">
+        <v>29</v>
+      </c>
+      <c r="E29" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="60">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="79">
+        <v>35</v>
+      </c>
+      <c r="E30" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="60">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="D31" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="90"/>
+      <c r="F31" s="85">
+        <f>SUM(F24:F30)</f>
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="68">
+        <v>16</v>
+      </c>
+      <c r="E35" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="65">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="D36" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="87"/>
+      <c r="F36" s="85">
+        <f>SUM(F35)</f>
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B38" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="10">
+        <f>F36+F31+F20</f>
+        <v>688010</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C46" s="67">
+        <v>1571830</v>
+      </c>
+      <c r="D46" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="9">
+        <f>F38+F14</f>
+        <v>1571830</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D36:E36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1901,60 +2202,60 @@
   <sheetData>
     <row r="7" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="18">
+      <c r="C8" s="11">
         <v>288900</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="6">
         <v>695500</v>
       </c>
       <c r="L8" s="1">
         <v>117700</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="13">
         <v>3210</v>
       </c>
     </row>
     <row r="9" spans="3:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>343470</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="7"/>
       <c r="L9" s="2">
         <v>49220</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="13">
         <v>21400</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>44940</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="7"/>
       <c r="L10" s="2">
         <v>102720</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="13">
         <v>8560</v>
       </c>
     </row>
     <row r="11" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="14"/>
+      <c r="H11" s="7"/>
       <c r="L11" s="2">
         <v>14980</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="13">
         <v>160500</v>
       </c>
     </row>
     <row r="12" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="14"/>
+      <c r="H12" s="7"/>
       <c r="L12" s="2">
         <v>16050</v>
       </c>
     </row>
     <row r="13" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="15">
+      <c r="H13" s="8">
         <v>113420</v>
       </c>
       <c r="L13" s="2">
@@ -1962,20 +2263,20 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>53500</v>
       </c>
     </row>
     <row r="16" spans="3:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C16" s="16">
+      <c r="C16" s="9">
         <f>SUM(C8:C15)</f>
         <v>677310</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <f>SUM(H8:H15)</f>
         <v>862420</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="10">
         <f>SUM(L8:L13)</f>
         <v>343470</v>
       </c>
@@ -1983,17 +2284,17 @@
         <f>SUM(O8:O15)</f>
         <v>193670</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="12">
         <f>862420+677310</f>
         <v>1539730</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="20">
+      <c r="C24" s="13">
         <f>3488200-C16</f>
         <v>2810890</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="13">
         <f>3488200-P16-O16</f>
         <v>1754800</v>
       </c>
@@ -2021,333 +2322,333 @@
   <sheetData>
     <row r="2" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="21">
         <v>1070</v>
       </c>
     </row>
     <row r="4" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="18">
         <v>677310</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="22">
         <v>3210</v>
       </c>
     </row>
     <row r="5" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="24"/>
-      <c r="L5" s="30" t="s">
+      <c r="E5" s="17"/>
+      <c r="L5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="22">
         <v>8560</v>
       </c>
     </row>
     <row r="6" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="19">
         <v>862420</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="22">
         <v>10700</v>
       </c>
     </row>
     <row r="7" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="22">
         <v>12840</v>
       </c>
     </row>
     <row r="8" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="16">
         <v>1744100</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="22">
         <v>14980</v>
       </c>
     </row>
     <row r="9" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="22">
         <v>15300</v>
       </c>
     </row>
     <row r="10" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="22">
         <v>16050</v>
       </c>
     </row>
     <row r="11" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="22">
         <v>16050</v>
       </c>
     </row>
     <row r="12" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="22">
         <v>19260</v>
       </c>
     </row>
     <row r="13" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="22">
         <v>21400</v>
       </c>
     </row>
     <row r="14" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="22">
         <v>23540</v>
       </c>
     </row>
     <row r="15" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="22">
         <v>28890</v>
       </c>
     </row>
     <row r="16" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="22">
         <v>36060</v>
       </c>
     </row>
     <row r="17" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="22">
         <v>41880</v>
       </c>
     </row>
     <row r="18" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="22">
         <v>42800</v>
       </c>
     </row>
     <row r="19" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="21">
         <v>42800</v>
       </c>
     </row>
     <row r="20" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="22">
         <v>44940</v>
       </c>
     </row>
     <row r="21" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="22">
         <v>49220</v>
       </c>
     </row>
     <row r="22" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="22">
         <v>53500</v>
       </c>
     </row>
     <row r="23" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="22">
         <v>57780</v>
       </c>
     </row>
     <row r="24" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="22">
         <v>69550</v>
       </c>
     </row>
     <row r="25" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="22">
         <v>69550</v>
       </c>
     </row>
     <row r="26" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="22">
         <v>80250</v>
       </c>
     </row>
     <row r="27" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="22">
         <v>84670</v>
       </c>
     </row>
     <row r="28" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="22">
         <v>96300</v>
       </c>
     </row>
     <row r="29" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M29" s="22">
         <v>99220</v>
       </c>
     </row>
     <row r="30" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="22">
         <v>102720</v>
       </c>
     </row>
     <row r="31" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="22">
         <v>102720</v>
       </c>
     </row>
     <row r="32" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="22">
         <v>107000</v>
       </c>
     </row>
     <row r="33" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M33" s="22">
         <v>113420</v>
       </c>
     </row>
     <row r="34" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="29">
+      <c r="M34" s="22">
         <v>117700</v>
       </c>
     </row>
     <row r="35" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="22">
         <v>149800</v>
       </c>
     </row>
     <row r="36" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="29">
+      <c r="M36" s="22">
         <v>155150</v>
       </c>
     </row>
     <row r="37" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M37" s="29">
+      <c r="M37" s="22">
         <v>160500</v>
       </c>
     </row>
     <row r="38" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="14" t="s">
+      <c r="L38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="22">
         <v>199020</v>
       </c>
     </row>
     <row r="39" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="22">
         <v>235400</v>
       </c>
     </row>
     <row r="40" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M40" s="29">
+      <c r="M40" s="22">
         <v>288900</v>
       </c>
     </row>
     <row r="41" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="29">
+      <c r="M41" s="22">
         <v>695500</v>
       </c>
     </row>
@@ -2375,342 +2676,342 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="37"/>
-    <col min="4" max="4" width="8" style="37" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="16" style="37" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="37" customWidth="1"/>
-    <col min="10" max="10" width="21" style="37" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="37" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="3" width="9.140625" style="30"/>
+    <col min="4" max="4" width="8" style="30" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="16" style="30" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="21" style="30" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="52" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="58" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="51" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="59"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="33" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="61"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="10" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="62"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="34">
+      <c r="D11" s="27">
         <v>1</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36">
+      <c r="F11" s="41"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29">
         <v>41300</v>
       </c>
     </row>
     <row r="12" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="34">
+      <c r="D12" s="27">
         <v>2</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36">
+      <c r="F12" s="41"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29">
         <v>3640</v>
       </c>
     </row>
     <row r="13" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="39">
+      <c r="D13" s="32">
         <v>3</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="41">
+      <c r="F13" s="42"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="34">
         <v>17120</v>
       </c>
     </row>
     <row r="14" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="39">
+      <c r="D14" s="32">
         <v>4</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="41">
+      <c r="F14" s="43"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="34">
         <v>29960</v>
       </c>
     </row>
     <row r="15" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="42">
+      <c r="D15" s="35">
         <v>5</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="44">
         <v>4</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="44">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="37">
         <v>29960</v>
       </c>
     </row>
     <row r="16" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="42">
+      <c r="D16" s="35">
         <v>6</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="44">
+      <c r="F16" s="41"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="37">
         <v>21400</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="42">
+      <c r="D17" s="35">
         <v>7</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="44">
+      <c r="F17" s="41"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="37">
         <v>68480</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="45">
+      <c r="D18" s="38">
         <v>8</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="44">
+      <c r="F18" s="41"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="37">
         <v>38520</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="42">
+      <c r="D19" s="35">
         <v>9</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="44">
+      <c r="F19" s="41"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="37">
         <v>14450</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="42">
+      <c r="D20" s="35">
         <v>10</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="44">
+      <c r="F20" s="41"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="37">
         <v>6160</v>
       </c>
     </row>
     <row r="21" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="42">
+      <c r="D21" s="35">
         <v>11</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="44">
+      <c r="F21" s="41"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="37">
         <v>830</v>
       </c>
     </row>
     <row r="22" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="45">
+      <c r="D22" s="38">
         <v>12</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="46">
+      <c r="F22" s="41"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="39">
         <v>14980</v>
       </c>
     </row>
     <row r="23" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="42">
+      <c r="D23" s="35">
         <v>13</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="44">
+      <c r="F23" s="41"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="37">
         <v>13370</v>
       </c>
     </row>
     <row r="24" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="42">
+      <c r="D24" s="35">
         <v>14</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="44">
+      <c r="F24" s="41"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="37">
         <v>26750</v>
       </c>
     </row>
     <row r="25" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="42">
+      <c r="D25" s="35">
         <v>15</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="44">
+      <c r="F25" s="41"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="37">
         <v>64200</v>
       </c>
     </row>

--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Актив" sheetId="1" r:id="rId1"/>
     <sheet name="Пасив" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="укрп баланс" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>ВСЕГО обязательств</t>
   </si>
@@ -282,34 +282,30 @@
   </si>
   <si>
     <t>Капитал + оязательство</t>
+  </si>
+  <si>
+    <t>Активы</t>
+  </si>
+  <si>
+    <t>Капитал, обязательства</t>
+  </si>
+  <si>
+    <t>ВСЕГО необоротные активы</t>
+  </si>
+  <si>
+    <t>ВСЕГО оборотные активы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,15 +331,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -377,14 +364,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -720,254 +699,240 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -976,65 +941,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1339,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="B39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,464 +1324,464 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="68">
+      <c r="H3" s="60">
         <v>1</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="57">
         <v>199020</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="69">
+      <c r="H4" s="61">
         <v>2</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="57">
         <v>69550</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="69">
+      <c r="H5" s="61">
         <v>3</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="58">
         <v>-160500</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="69">
+      <c r="H6" s="61">
         <v>4</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="57">
         <v>102720</v>
       </c>
     </row>
     <row r="7" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="69">
+      <c r="H7" s="61">
         <v>10</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="57">
         <v>42800</v>
       </c>
     </row>
     <row r="8" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="69">
+      <c r="H8" s="61">
         <v>11</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="57">
         <v>28890</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="69">
+      <c r="H9" s="61">
         <v>17</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="57">
         <v>16050</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="70">
+      <c r="H10" s="62">
         <v>21</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="57">
         <v>57780</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H11" s="72">
+      <c r="H11" s="64">
         <v>36</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="57">
         <v>36060</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H12" s="90" t="s">
+      <c r="H12" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="67">
+      <c r="I12" s="82"/>
+      <c r="J12" s="59">
         <f>SUM(J3:J11)</f>
         <v>392370</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
     </row>
     <row r="16" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="68">
+      <c r="H16" s="60">
         <v>39</v>
       </c>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="51">
         <v>15300</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="70">
+      <c r="H17" s="62">
         <v>25</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="75">
+      <c r="J17" s="67">
         <v>107000</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="H18" s="78">
+      <c r="H18" s="70">
         <v>22</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="69">
         <v>-8560</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H19" s="90" t="s">
+      <c r="H19" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="90"/>
-      <c r="J19" s="9">
+      <c r="I19" s="82"/>
+      <c r="J19" s="4">
         <f>SUM(J16:J18)</f>
         <v>113740</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
     </row>
     <row r="23" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="68">
+      <c r="H23" s="60">
         <v>7</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="51">
         <v>19260</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="81">
+      <c r="H24" s="73">
         <v>34</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="96">
+      <c r="J24" s="88">
         <v>-3210</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="89"/>
-      <c r="J25" s="9">
+      <c r="I25" s="81"/>
+      <c r="J25" s="4">
         <f>SUM(J23:J24)</f>
         <v>16050</v>
       </c>
     </row>
     <row r="29" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="67">
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="59">
         <f>J25+J19+J12</f>
         <v>522160</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
     </row>
     <row r="33" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="68">
+      <c r="H33" s="60">
         <v>6</v>
       </c>
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="59">
+      <c r="J33" s="51">
         <v>84670</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="69">
+      <c r="H34" s="61">
         <v>13</v>
       </c>
-      <c r="I34" s="80" t="s">
+      <c r="I34" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="60">
+      <c r="J34" s="52">
         <v>23540</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="69">
+      <c r="H35" s="61">
         <v>8</v>
       </c>
-      <c r="I35" s="80" t="s">
+      <c r="I35" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="60">
+      <c r="J35" s="52">
         <v>41880</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="68">
+      <c r="H36" s="60">
         <v>20</v>
       </c>
-      <c r="I36" s="73" t="s">
+      <c r="I36" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="59">
+      <c r="J36" s="51">
         <v>155150</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="69">
+      <c r="H37" s="61">
         <v>30</v>
       </c>
-      <c r="I37" s="80" t="s">
+      <c r="I37" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="J37" s="60">
+      <c r="J37" s="52">
         <v>80250</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="69">
+      <c r="H38" s="61">
         <v>32</v>
       </c>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="60">
+      <c r="J38" s="52">
         <v>69550</v>
       </c>
     </row>
     <row r="39" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="69">
+      <c r="H39" s="61">
         <v>33</v>
       </c>
-      <c r="I39" s="80" t="s">
+      <c r="I39" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="60">
+      <c r="J39" s="52">
         <v>96300</v>
       </c>
     </row>
     <row r="40" spans="3:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="H40" s="70">
+      <c r="H40" s="62">
         <v>38</v>
       </c>
-      <c r="I40" s="74" t="s">
+      <c r="I40" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="61">
+      <c r="J40" s="53">
         <v>235400</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H41" s="87" t="s">
+      <c r="H41" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="88"/>
-      <c r="J41" s="86">
+      <c r="I41" s="80"/>
+      <c r="J41" s="78">
         <f>SUM(J33:J40)</f>
         <v>786740</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="91" t="s">
+      <c r="C44" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
     </row>
     <row r="45" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="68">
+      <c r="H45" s="60">
         <v>12</v>
       </c>
-      <c r="I45" s="73" t="s">
+      <c r="I45" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="59">
+      <c r="J45" s="51">
         <v>149800</v>
       </c>
     </row>
     <row r="46" spans="3:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="H46" s="70">
+      <c r="H46" s="62">
         <v>37</v>
       </c>
-      <c r="I46" s="74" t="s">
+      <c r="I46" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="61">
+      <c r="J46" s="53">
         <v>1070</v>
       </c>
     </row>
     <row r="47" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H47" s="87" t="s">
+      <c r="H47" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="I47" s="88"/>
-      <c r="J47" s="86">
+      <c r="I47" s="80"/>
+      <c r="J47" s="78">
         <f>SUM(J45:J46)</f>
         <v>150870</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="92" t="s">
+      <c r="C49" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
     </row>
     <row r="50" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H50" s="68">
+      <c r="H50" s="60">
         <v>23</v>
       </c>
-      <c r="I50" s="73" t="s">
+      <c r="I50" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="59">
+      <c r="J50" s="51">
         <v>12840</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="H51" s="70">
+      <c r="H51" s="62">
         <v>26</v>
       </c>
-      <c r="I51" s="74" t="s">
+      <c r="I51" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="53">
         <v>99220</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H52" s="87" t="s">
+      <c r="H52" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="88"/>
-      <c r="J52" s="86">
+      <c r="I52" s="80"/>
+      <c r="J52" s="78">
         <f>SUM(J50:J51)</f>
         <v>112060</v>
       </c>
     </row>
     <row r="56" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C56" s="94" t="s">
+      <c r="C56" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="67">
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="59">
         <f>J52+J47+J41</f>
         <v>1049670</v>
       </c>
     </row>
     <row r="58" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C58" s="95" t="s">
+      <c r="C58" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="95"/>
-      <c r="J58" s="67">
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="59">
         <f>J56+J29</f>
         <v>1571830</v>
       </c>
@@ -1841,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,315 +1828,315 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="97">
+      <c r="D4" s="89">
         <v>9</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="99">
+      <c r="F4" s="91">
         <v>695500</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="93" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="93" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="93" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="93" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="100">
+      <c r="D9" s="92">
         <v>14</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="103">
+      <c r="F9" s="95">
         <v>113420</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="97">
+      <c r="D10" s="89">
         <v>27</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="91">
         <v>53500</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="100">
+      <c r="D11" s="92">
         <v>24</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="95">
         <v>21400</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="101" t="s">
+      <c r="F12" s="93" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="96" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="86">
+      <c r="E14" s="82"/>
+      <c r="F14" s="78">
         <f>SUM(F4:F13)</f>
         <v>883820</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
     </row>
     <row r="19" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="60">
         <v>15</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="51">
         <v>288900</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="85">
+      <c r="E20" s="82"/>
+      <c r="F20" s="77">
         <f>SUM(F19)</f>
         <v>288900</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="60">
         <v>5</v>
       </c>
-      <c r="E24" s="106" t="s">
+      <c r="E24" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="51">
         <v>117700</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="69">
+      <c r="D25" s="61">
         <v>18</v>
       </c>
-      <c r="E25" s="107" t="s">
+      <c r="E25" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="52">
         <v>49220</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="108">
+      <c r="D26" s="100">
         <v>19</v>
       </c>
-      <c r="E26" s="107" t="s">
+      <c r="E26" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="52">
         <v>102720</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="69">
+      <c r="D27" s="61">
         <v>28</v>
       </c>
-      <c r="E27" s="107" t="s">
+      <c r="E27" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="52">
         <v>14980</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="69">
+      <c r="D28" s="61">
         <v>31</v>
       </c>
-      <c r="E28" s="107" t="s">
+      <c r="E28" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="52">
         <v>16050</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="69">
+      <c r="D29" s="61">
         <v>29</v>
       </c>
-      <c r="E29" s="107" t="s">
+      <c r="E29" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="52">
         <v>42800</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="79">
+      <c r="D30" s="71">
         <v>35</v>
       </c>
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="52">
         <v>10700</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D31" s="90" t="s">
+      <c r="D31" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="90"/>
-      <c r="F31" s="85">
+      <c r="E31" s="82"/>
+      <c r="F31" s="78">
         <f>SUM(F24:F30)</f>
         <v>354170</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="68">
+      <c r="D35" s="60">
         <v>16</v>
       </c>
-      <c r="E35" s="111" t="s">
+      <c r="E35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="57">
         <v>44940</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="85">
+      <c r="E36" s="79"/>
+      <c r="F36" s="77">
         <f>SUM(F35)</f>
         <v>44940</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B38" s="112" t="s">
+      <c r="B38" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="10">
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="5">
         <f>F36+F31+F20</f>
         <v>688010</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="63" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C46" s="67">
+      <c r="C46" s="59">
         <v>1571830</v>
       </c>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="4">
         <f>F38+F14</f>
         <v>1571830</v>
       </c>
@@ -2185,118 +2157,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:P24"/>
+  <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="11">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>392370</v>
+      </c>
+      <c r="E3" s="106">
+        <v>883820</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <f>SUM(B3:B5)</f>
+        <v>522160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>113740</v>
+      </c>
+      <c r="E4" s="107">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>16050</v>
+      </c>
+      <c r="E5" s="107">
         <v>288900</v>
       </c>
-      <c r="H8" s="6">
-        <v>695500</v>
-      </c>
-      <c r="L8" s="1">
-        <v>117700</v>
-      </c>
-      <c r="O8" s="13">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="5">
-        <v>343470</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="L9" s="2">
-        <v>49220</v>
-      </c>
-      <c r="O9" s="13">
-        <v>21400</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="5">
-        <v>44940</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="L10" s="2">
-        <v>102720</v>
-      </c>
-      <c r="O10" s="13">
-        <v>8560</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="7"/>
-      <c r="L11" s="2">
-        <v>14980</v>
-      </c>
-      <c r="O11" s="13">
-        <v>160500</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="7"/>
-      <c r="L12" s="2">
-        <v>16050</v>
-      </c>
-    </row>
-    <row r="13" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="8">
-        <v>113420</v>
-      </c>
-      <c r="L13" s="2">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="3">
-        <v>53500</v>
-      </c>
-    </row>
-    <row r="16" spans="3:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C16" s="9">
-        <f>SUM(C8:C15)</f>
-        <v>677310</v>
-      </c>
-      <c r="H16" s="4">
-        <f>SUM(H8:H15)</f>
-        <v>862420</v>
-      </c>
-      <c r="L16" s="10">
-        <f>SUM(L8:L13)</f>
-        <v>343470</v>
-      </c>
-      <c r="O16">
-        <f>SUM(O8:O15)</f>
-        <v>193670</v>
-      </c>
-      <c r="P16" s="12">
-        <f>862420+677310</f>
-        <v>1539730</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="13">
-        <f>3488200-C16</f>
-        <v>2810890</v>
-      </c>
-      <c r="H24" s="13">
-        <f>3488200-P16-O16</f>
-        <v>1754800</v>
+      <c r="H5" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5">
+        <f>SUM(B7:B9)</f>
+        <v>1049670</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="E6" s="107">
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>786740</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>150870</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>112060</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="5">
+        <f>SUM(B3:B9)</f>
+        <v>1571830</v>
+      </c>
+      <c r="E10" s="5">
+        <f>SUM(E3:E9)</f>
+        <v>1571830</v>
       </c>
     </row>
   </sheetData>
@@ -2322,333 +2273,333 @@
   <sheetData>
     <row r="2" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="13">
         <v>1070</v>
       </c>
     </row>
     <row r="4" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="10">
         <v>677310</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="14">
         <v>3210</v>
       </c>
     </row>
     <row r="5" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="17"/>
-      <c r="L5" s="23" t="s">
+      <c r="E5" s="9"/>
+      <c r="L5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="14">
         <v>8560</v>
       </c>
     </row>
     <row r="6" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="11">
         <v>862420</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="14">
         <v>10700</v>
       </c>
     </row>
     <row r="7" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="14">
         <v>12840</v>
       </c>
     </row>
     <row r="8" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="8">
         <v>1744100</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="14">
         <v>14980</v>
       </c>
     </row>
     <row r="9" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="14">
         <v>15300</v>
       </c>
     </row>
     <row r="10" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="14">
         <v>16050</v>
       </c>
     </row>
     <row r="11" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="14">
         <v>16050</v>
       </c>
     </row>
     <row r="12" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="14">
         <v>19260</v>
       </c>
     </row>
     <row r="13" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="14">
         <v>21400</v>
       </c>
     </row>
     <row r="14" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="14">
         <v>23540</v>
       </c>
     </row>
     <row r="15" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="14">
         <v>28890</v>
       </c>
     </row>
     <row r="16" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="14">
         <v>36060</v>
       </c>
     </row>
     <row r="17" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="14">
         <v>41880</v>
       </c>
     </row>
     <row r="18" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="14">
         <v>42800</v>
       </c>
     </row>
     <row r="19" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="13">
         <v>42800</v>
       </c>
     </row>
     <row r="20" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="14">
         <v>44940</v>
       </c>
     </row>
     <row r="21" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="14">
         <v>49220</v>
       </c>
     </row>
     <row r="22" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="14">
         <v>53500</v>
       </c>
     </row>
     <row r="23" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="14">
         <v>57780</v>
       </c>
     </row>
     <row r="24" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="14">
         <v>69550</v>
       </c>
     </row>
     <row r="25" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="14">
         <v>69550</v>
       </c>
     </row>
     <row r="26" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="14">
         <v>80250</v>
       </c>
     </row>
     <row r="27" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="14">
         <v>84670</v>
       </c>
     </row>
     <row r="28" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="14">
         <v>96300</v>
       </c>
     </row>
     <row r="29" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="14">
         <v>99220</v>
       </c>
     </row>
     <row r="30" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="14">
         <v>102720</v>
       </c>
     </row>
     <row r="31" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="14">
         <v>102720</v>
       </c>
     </row>
     <row r="32" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="14">
         <v>107000</v>
       </c>
     </row>
     <row r="33" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="14">
         <v>113420</v>
       </c>
     </row>
     <row r="34" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="14">
         <v>117700</v>
       </c>
     </row>
     <row r="35" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="14">
         <v>149800</v>
       </c>
     </row>
     <row r="36" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="14">
         <v>155150</v>
       </c>
     </row>
     <row r="37" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="14">
         <v>160500</v>
       </c>
     </row>
     <row r="38" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="14">
         <v>199020</v>
       </c>
     </row>
     <row r="39" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="14">
         <v>235400</v>
       </c>
     </row>
     <row r="40" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="14">
         <v>288900</v>
       </c>
     </row>
     <row r="41" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="14">
         <v>695500</v>
       </c>
     </row>
@@ -2676,342 +2627,342 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="30"/>
-    <col min="4" max="4" width="8" style="30" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="16" style="30" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="30" customWidth="1"/>
-    <col min="10" max="10" width="21" style="30" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="3" width="9.140625" style="22"/>
+    <col min="4" max="4" width="8" style="22" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="16" style="22" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="21" style="22" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="45" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="51" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="52"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="54"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="26" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="54"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="55"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="27">
+      <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29">
+      <c r="F11" s="33"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21">
         <v>41300</v>
       </c>
     </row>
     <row r="12" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="27">
+      <c r="D12" s="19">
         <v>2</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29">
+      <c r="F12" s="33"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21">
         <v>3640</v>
       </c>
     </row>
     <row r="13" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="32">
+      <c r="D13" s="24">
         <v>3</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="34">
+      <c r="F13" s="34"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="26">
         <v>17120</v>
       </c>
     </row>
     <row r="14" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="32">
+      <c r="D14" s="24">
         <v>4</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="34">
+      <c r="F14" s="35"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="26">
         <v>29960</v>
       </c>
     </row>
     <row r="15" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="35">
+      <c r="D15" s="27">
         <v>5</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="36">
         <v>4</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="37">
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="29">
         <v>29960</v>
       </c>
     </row>
     <row r="16" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="35">
+      <c r="D16" s="27">
         <v>6</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="37">
+      <c r="F16" s="33"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="29">
         <v>21400</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="35">
+      <c r="D17" s="27">
         <v>7</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="37">
+      <c r="F17" s="33"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="29">
         <v>68480</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="38">
+      <c r="D18" s="30">
         <v>8</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="37">
+      <c r="F18" s="33"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="29">
         <v>38520</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="35">
+      <c r="D19" s="27">
         <v>9</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="37">
+      <c r="F19" s="33"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="29">
         <v>14450</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="35">
+      <c r="D20" s="27">
         <v>10</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="37">
+      <c r="F20" s="33"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="29">
         <v>6160</v>
       </c>
     </row>
     <row r="21" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="35">
+      <c r="D21" s="27">
         <v>11</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="37">
+      <c r="F21" s="33"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="29">
         <v>830</v>
       </c>
     </row>
     <row r="22" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="38">
+      <c r="D22" s="30">
         <v>12</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="39">
+      <c r="F22" s="33"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="31">
         <v>14980</v>
       </c>
     </row>
     <row r="23" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="35">
+      <c r="D23" s="27">
         <v>13</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="37">
+      <c r="F23" s="33"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="29">
         <v>13370</v>
       </c>
     </row>
     <row r="24" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="35">
+      <c r="D24" s="27">
         <v>14</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="37">
+      <c r="F24" s="33"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="29">
         <v>26750</v>
       </c>
     </row>
     <row r="25" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="35">
+      <c r="D25" s="27">
         <v>15</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="37">
+      <c r="F25" s="33"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="29">
         <v>64200</v>
       </c>
     </row>

--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Актив" sheetId="1" r:id="rId1"/>
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,6 +2247,10 @@
       </c>
       <c r="E10" s="5">
         <f>SUM(E3:E9)</f>
+        <v>1571830</v>
+      </c>
+      <c r="K10">
+        <f>K3+K5</f>
         <v>1571830</v>
       </c>
     </row>

--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Актив" sheetId="1" r:id="rId1"/>
     <sheet name="Пасив" sheetId="2" r:id="rId2"/>
     <sheet name="укрп баланс" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
-    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="баланс 2" sheetId="4" r:id="rId4"/>
+    <sheet name="баланс 2 (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="баланс 2 (3)" sheetId="7" r:id="rId6"/>
+    <sheet name="баланс 2 (4)" sheetId="8" r:id="rId7"/>
+    <sheet name="баланс 2 (5)" sheetId="9" r:id="rId8"/>
+    <sheet name="баланс 2 (6)" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="118">
   <si>
     <t>ВСЕГО обязательств</t>
   </si>
   <si>
-    <t>ВСЕГО капитала</t>
-  </si>
-  <si>
     <t>ВСЕГО АКТИВОВ</t>
   </si>
   <si>
@@ -224,15 +225,9 @@
     <t>Начислен и отнесен на расходы производства износ  основных средств</t>
   </si>
   <si>
-    <t>На текучий сет поступили средства  краткосрочного кредита</t>
-  </si>
-  <si>
     <t>Оприходована на склад готовая продукция</t>
   </si>
   <si>
-    <t>Текущие обязательства по расчетам по оплате труда</t>
-  </si>
-  <si>
     <t>Основные средства</t>
   </si>
   <si>
@@ -294,13 +289,100 @@
   </si>
   <si>
     <t>ВСЕГО оборотные активы</t>
+  </si>
+  <si>
+    <t>ДС</t>
+  </si>
+  <si>
+    <t>ТО</t>
+  </si>
+  <si>
+    <t>З</t>
+  </si>
+  <si>
+    <t>ДЗ</t>
+  </si>
+  <si>
+    <t>ОС</t>
+  </si>
+  <si>
+    <t>Прочие необоротные материальные активы</t>
+  </si>
+  <si>
+    <t>ПHMA</t>
+  </si>
+  <si>
+    <t>НА</t>
+  </si>
+  <si>
+    <t>Запасы</t>
+  </si>
+  <si>
+    <t>Собственный капитал</t>
+  </si>
+  <si>
+    <t>СК</t>
+  </si>
+  <si>
+    <t>ОБЕС</t>
+  </si>
+  <si>
+    <t>Долгосрочные обязательства</t>
+  </si>
+  <si>
+    <t>ДО</t>
+  </si>
+  <si>
+    <t>Текущие обязательства</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Было</t>
+  </si>
+  <si>
+    <t>Стало</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Обозначение</t>
+  </si>
+  <si>
+    <t>Расходы будущих периодов</t>
+  </si>
+  <si>
+    <t>РБП</t>
+  </si>
+  <si>
+    <t>Баланс</t>
+  </si>
+  <si>
+    <t>Сума</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доходы будущих периодов </t>
+  </si>
+  <si>
+    <t>ДБП</t>
+  </si>
+  <si>
+    <t>На текучий счет поступили средства  краткосрочного кредита</t>
+  </si>
+  <si>
+    <t>Сумма активов</t>
+  </si>
+  <si>
+    <t>Сумма пассивов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,8 +521,39 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,8 +578,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -686,6 +835,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -695,155 +855,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -912,6 +975,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -995,7 +1059,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1007,6 +1071,253 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -1324,464 +1635,464 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
+      <c r="C2" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="60">
+      <c r="H3" s="19">
         <v>1</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="16">
+        <v>199020</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="20">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="57">
-        <v>199020</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="61">
-        <v>2</v>
-      </c>
-      <c r="I4" s="55" t="s">
+      <c r="J4" s="16">
+        <v>69550</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="20">
+        <v>3</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="57">
-        <v>69550</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="61">
-        <v>3</v>
-      </c>
-      <c r="I5" s="55" t="s">
+      <c r="J5" s="17">
+        <v>-160500</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="20">
+        <v>4</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="58">
-        <v>-160500</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="61">
-        <v>4</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="57">
+      <c r="J6" s="16">
         <v>102720</v>
       </c>
     </row>
     <row r="7" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="61">
+      <c r="H7" s="20">
         <v>10</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="16">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="20">
+        <v>11</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="57">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="61">
-        <v>11</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="57">
+      <c r="J8" s="16">
         <v>28890</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="61">
+      <c r="H9" s="20">
         <v>17</v>
       </c>
-      <c r="I9" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="57">
+      <c r="I9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="16">
         <v>16050</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="62">
+      <c r="H10" s="21">
         <v>21</v>
       </c>
-      <c r="I10" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="57">
+      <c r="I10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="16">
         <v>57780</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="H11" s="64">
+      <c r="H11" s="23">
         <v>36</v>
       </c>
-      <c r="I11" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="57">
+      <c r="I11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="16">
         <v>36060</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H12" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="82"/>
-      <c r="J12" s="59">
+      <c r="H12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="18">
         <f>SUM(J3:J11)</f>
         <v>392370</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
+      <c r="C15" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="60">
+      <c r="H16" s="19">
         <v>39</v>
       </c>
-      <c r="I16" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="51">
+      <c r="I16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="10">
         <v>15300</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="62">
+      <c r="H17" s="21">
         <v>25</v>
       </c>
-      <c r="I17" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="67">
+      <c r="I17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="26">
         <v>107000</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="H18" s="70">
+      <c r="H18" s="29">
         <v>22</v>
       </c>
-      <c r="I18" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="69">
+      <c r="I18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="28">
         <v>-8560</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H19" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="82"/>
-      <c r="J19" s="4">
+      <c r="H19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="3">
         <f>SUM(J16:J18)</f>
         <v>113740</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
+      <c r="C22" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="60">
+      <c r="H23" s="19">
         <v>7</v>
       </c>
-      <c r="I23" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="51">
+      <c r="I23" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="10">
         <v>19260</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="73">
+      <c r="H24" s="32">
         <v>34</v>
       </c>
-      <c r="I24" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="88">
+      <c r="I24" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="48">
         <v>-3210</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H25" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" s="81"/>
-      <c r="J25" s="4">
+      <c r="H25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="3">
         <f>SUM(J23:J24)</f>
         <v>16050</v>
       </c>
     </row>
     <row r="29" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C29" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="59">
+      <c r="C29" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="18">
         <f>J25+J19+J12</f>
         <v>522160</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
+      <c r="C32" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
     </row>
     <row r="33" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="60">
+      <c r="H33" s="19">
         <v>6</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="10">
+        <v>84670</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="20">
+        <v>13</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="11">
+        <v>23540</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="20">
         <v>8</v>
       </c>
-      <c r="J33" s="51">
-        <v>84670</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="61">
-        <v>13</v>
-      </c>
-      <c r="I34" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="52">
-        <v>23540</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="61">
-        <v>8</v>
-      </c>
-      <c r="I35" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="52">
+      <c r="I35" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="11">
         <v>41880</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="60">
+      <c r="H36" s="19">
         <v>20</v>
       </c>
-      <c r="I36" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="51">
+      <c r="I36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="10">
         <v>155150</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="61">
+      <c r="H37" s="20">
         <v>30</v>
       </c>
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="11">
+        <v>80250</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="20">
         <v>32</v>
       </c>
-      <c r="J37" s="52">
-        <v>80250</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="61">
-        <v>32</v>
-      </c>
-      <c r="I38" s="72" t="s">
+      <c r="I38" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="11">
+        <v>69550</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="20">
+        <v>33</v>
+      </c>
+      <c r="I39" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="52">
-        <v>69550</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="61">
-        <v>33</v>
-      </c>
-      <c r="I39" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="J39" s="52">
+      <c r="J39" s="11">
         <v>96300</v>
       </c>
     </row>
     <row r="40" spans="3:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="H40" s="62">
+      <c r="H40" s="21">
         <v>38</v>
       </c>
-      <c r="I40" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="53">
+      <c r="I40" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="12">
         <v>235400</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H41" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="I41" s="80"/>
-      <c r="J41" s="78">
+      <c r="H41" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="40"/>
+      <c r="J41" s="38">
         <f>SUM(J33:J40)</f>
         <v>786740</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
+      <c r="C44" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="60">
+      <c r="H45" s="19">
         <v>12</v>
       </c>
-      <c r="I45" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="51">
+      <c r="I45" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="10">
         <v>149800</v>
       </c>
     </row>
     <row r="46" spans="3:10" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="H46" s="62">
+      <c r="H46" s="21">
         <v>37</v>
       </c>
-      <c r="I46" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J46" s="53">
+      <c r="I46" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="12">
         <v>1070</v>
       </c>
     </row>
     <row r="47" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H47" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="I47" s="80"/>
-      <c r="J47" s="78">
+      <c r="H47" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="40"/>
+      <c r="J47" s="38">
         <f>SUM(J45:J46)</f>
         <v>150870</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
+      <c r="C49" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
     </row>
     <row r="50" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H50" s="60">
+      <c r="H50" s="19">
         <v>23</v>
       </c>
-      <c r="I50" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" s="51">
+      <c r="I50" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="10">
         <v>12840</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="H51" s="62">
+      <c r="H51" s="21">
         <v>26</v>
       </c>
-      <c r="I51" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="53">
+      <c r="I51" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="12">
         <v>99220</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H52" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="I52" s="80"/>
-      <c r="J52" s="78">
+      <c r="H52" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" s="40"/>
+      <c r="J52" s="38">
         <f>SUM(J50:J51)</f>
         <v>112060</v>
       </c>
     </row>
     <row r="56" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C56" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="59">
+      <c r="C56" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="18">
         <f>J52+J47+J41</f>
         <v>1049670</v>
       </c>
     </row>
     <row r="58" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C58" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="59">
+      <c r="C58" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="18">
         <f>J56+J29</f>
         <v>1571830</v>
       </c>
@@ -1828,315 +2139,315 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="B3" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="89">
+      <c r="D4" s="49">
         <v>9</v>
       </c>
-      <c r="E4" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="91">
+      <c r="E4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="51">
         <v>695500</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="93" t="s">
-        <v>80</v>
+      <c r="D5" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>80</v>
+      <c r="D6" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="93" t="s">
-        <v>80</v>
+      <c r="D7" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>80</v>
+      <c r="D8" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="92">
+      <c r="D9" s="52">
         <v>14</v>
       </c>
-      <c r="E9" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="95">
+      <c r="E9" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="55">
         <v>113420</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="89">
+      <c r="D10" s="49">
         <v>27</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="91">
+      <c r="E10" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="51">
         <v>53500</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="92">
+      <c r="D11" s="52">
         <v>24</v>
       </c>
-      <c r="E11" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="95">
+      <c r="E11" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="55">
         <v>21400</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>80</v>
+      <c r="D12" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="96" t="s">
-        <v>80</v>
+      <c r="D13" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D14" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="78">
+      <c r="D14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="38">
         <f>SUM(F4:F13)</f>
         <v>883820</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
+      <c r="B18" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="60">
+      <c r="C19" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="19">
         <v>15</v>
       </c>
-      <c r="E19" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="51">
+      <c r="E19" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="10">
         <v>288900</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D20" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="77">
+      <c r="D20" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="37">
         <f>SUM(F19)</f>
         <v>288900</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="60">
+      <c r="C24" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="19">
         <v>5</v>
       </c>
-      <c r="E24" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="51">
+      <c r="E24" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="10">
         <v>117700</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="61">
+      <c r="D25" s="20">
         <v>18</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="11">
+        <v>49220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="60">
+        <v>19</v>
+      </c>
+      <c r="E26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="52">
-        <v>49220</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="100">
-        <v>19</v>
-      </c>
-      <c r="E26" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="52">
+      <c r="F26" s="11">
         <v>102720</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="61">
+      <c r="D27" s="20">
         <v>28</v>
       </c>
-      <c r="E27" s="99" t="s">
+      <c r="E27" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="11">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="20">
+        <v>31</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="11">
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="20">
+        <v>29</v>
+      </c>
+      <c r="E29" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="52">
-        <v>14980</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="61">
-        <v>31</v>
-      </c>
-      <c r="E28" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="52">
-        <v>16050</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="61">
-        <v>29</v>
-      </c>
-      <c r="E29" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="52">
+      <c r="F29" s="11">
         <v>42800</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="71">
+      <c r="D30" s="30">
         <v>35</v>
       </c>
-      <c r="E30" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="52">
+      <c r="E30" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="11">
         <v>10700</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D31" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="82"/>
-      <c r="F31" s="78">
+      <c r="D31" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="38">
         <f>SUM(F24:F30)</f>
         <v>354170</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="60">
+      <c r="C35" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="19">
         <v>16</v>
       </c>
-      <c r="E35" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="57">
+      <c r="E35" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="16">
         <v>44940</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D36" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="77">
+      <c r="D36" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="37">
         <f>SUM(F35)</f>
         <v>44940</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="5">
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="4">
         <f>F36+F31+F20</f>
         <v>688010</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="63" t="s">
-        <v>87</v>
+      <c r="C45" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C46" s="59">
+      <c r="C46" s="18">
         <v>1571830</v>
       </c>
-      <c r="D46" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D46" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="3">
         <f>F38+F14</f>
         <v>1571830</v>
       </c>
@@ -2174,22 +2485,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="105" t="s">
-        <v>89</v>
+      <c r="B2" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>392370</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="66">
         <v>883820</v>
       </c>
-      <c r="H3" s="105" t="s">
-        <v>90</v>
+      <c r="H3" s="65" t="s">
+        <v>87</v>
       </c>
       <c r="K3">
         <f>SUM(B3:B5)</f>
@@ -2200,7 +2511,7 @@
       <c r="B4" s="2">
         <v>113740</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="67">
         <v>44940</v>
       </c>
     </row>
@@ -2208,11 +2519,11 @@
       <c r="B5" s="2">
         <v>16050</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="67">
         <v>288900</v>
       </c>
-      <c r="H5" s="105" t="s">
-        <v>91</v>
+      <c r="H5" s="65" t="s">
+        <v>88</v>
       </c>
       <c r="K5">
         <f>SUM(B7:B9)</f>
@@ -2221,7 +2532,7 @@
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="E6" s="107">
+      <c r="E6" s="67">
         <v>354170</v>
       </c>
     </row>
@@ -2241,11 +2552,11 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f>SUM(B3:B9)</f>
         <v>1571830</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f>SUM(E3:E9)</f>
         <v>1571830</v>
       </c>
@@ -2262,722 +2573,5980 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:M45"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="13">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="4" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="6" t="s">
+    <row r="1" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109"/>
+      <c r="B1" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="115"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
+    </row>
+    <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="110">
+        <v>1</v>
+      </c>
+      <c r="B2" s="111">
+        <v>2</v>
+      </c>
+      <c r="C2" s="112">
+        <v>3</v>
+      </c>
+      <c r="D2" s="112">
+        <v>4</v>
+      </c>
+      <c r="E2" s="124">
+        <v>6</v>
+      </c>
+      <c r="F2" s="70">
+        <v>7</v>
+      </c>
+      <c r="G2" s="77">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="O2" s="7">
         <v>677310</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="14">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="5" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="9"/>
-      <c r="L5" s="15" t="s">
+    </row>
+    <row r="3" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="114">
+        <v>36892</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="71">
+        <v>392370</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="73">
+        <v>883820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="114">
+        <v>37257</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="71">
+        <v>113740</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="73">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="71">
+        <v>16050</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="73">
+        <v>288900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="125">
+        <v>522160</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="73">
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="71">
+        <v>786740</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="71">
+        <v>150870</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="14">
-        <v>8560</v>
-      </c>
-    </row>
-    <row r="6" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="7" t="s">
+      <c r="C10" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="71">
+        <v>112060</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="126">
+        <v>1049670</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69">
+        <v>3</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="127">
+        <f>SUM(D4:D6,D8:D10)</f>
+        <v>1571830</v>
+      </c>
+      <c r="E13" s="128">
+        <f>SUM(G4:G8)</f>
+        <v>1571830</v>
+      </c>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+    </row>
+    <row r="16" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="141"/>
+      <c r="L16" s="33">
+        <f>SUM(K17,D5,D6,L17,M17,N17)</f>
+        <v>1571830</v>
+      </c>
+      <c r="N16" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="141"/>
+      <c r="P16" s="33">
+        <f>SUM(O17,G5,G6,P17)</f>
+        <v>1571830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="139">
+        <f>D4</f>
+        <v>392370</v>
+      </c>
+      <c r="L17" s="139">
+        <f>D8</f>
+        <v>786740</v>
+      </c>
+      <c r="M17" s="139">
+        <f>D9</f>
+        <v>150870</v>
+      </c>
+      <c r="N17" s="139">
+        <f>D10</f>
+        <v>112060</v>
+      </c>
+      <c r="O17" s="139">
+        <f>G4</f>
+        <v>883820</v>
+      </c>
+      <c r="P17" s="139">
+        <f>G7</f>
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="98"/>
+      <c r="J19" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="71">
+        <v>392370</v>
+      </c>
+      <c r="L19" s="71">
+        <v>786740</v>
+      </c>
+      <c r="M19" s="71">
+        <f>M17+H22+H23-H24</f>
+        <v>178690</v>
+      </c>
+      <c r="N19" s="71">
+        <f>N17-H22-H23</f>
+        <v>67120</v>
+      </c>
+      <c r="O19" s="73">
+        <v>883820</v>
+      </c>
+      <c r="P19" s="73">
+        <f>P17-H24</f>
+        <v>337050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="98"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="98"/>
+      <c r="J20" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="141"/>
+      <c r="L20" s="33">
+        <f>SUM(K19,D5,D6,L19,M19,N19)</f>
+        <v>1554710</v>
+      </c>
+      <c r="N20" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="141"/>
+      <c r="P20" s="33">
+        <f>SUM(O19,G5,G6,P19)</f>
+        <v>1554710</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="99"/>
+    </row>
+    <row r="22" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="137">
         <v>1</v>
       </c>
-      <c r="E6" s="11">
-        <v>862420</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="14">
-        <v>10700</v>
-      </c>
-    </row>
-    <row r="7" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="14">
-        <v>12840</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="12" t="s">
+      <c r="B22" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="77">
+        <v>1</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="73">
+        <v>41300</v>
+      </c>
+      <c r="M22" s="142">
+        <f>M17+H22</f>
+        <v>192170</v>
+      </c>
+      <c r="N22" s="142">
+        <f>N17-H22</f>
+        <v>70760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="137">
         <v>2</v>
       </c>
-      <c r="E8" s="8">
-        <v>1744100</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="14">
+      <c r="B23" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="77">
+        <v>1</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="73">
+        <v>3640</v>
+      </c>
+      <c r="M23">
+        <v>195810</v>
+      </c>
+      <c r="N23">
+        <v>67120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="137">
+        <v>3</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="77">
+        <v>4</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="73">
+        <v>17120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="137">
+        <v>4</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="77">
+        <v>1</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="73">
+        <v>29960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="137">
+        <v>5</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="77">
+        <v>4</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="73">
+        <v>29960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="137">
+        <v>6</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="77">
+        <v>2</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="73">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="137">
+        <v>7</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="77">
+        <v>1</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="73">
+        <v>68480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="137">
+        <v>8</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="132">
+        <v>4</v>
+      </c>
+      <c r="D29" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="72">
+        <v>38520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="137">
+        <v>9</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="77">
+        <v>4</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="73">
+        <v>14450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="137">
+        <v>10</v>
+      </c>
+      <c r="B31" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="77">
+        <v>2</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="73">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="137">
+        <v>11</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="77">
+        <v>2</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="73">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="137">
+        <v>12</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="77">
+        <v>3</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="73">
         <v>14980</v>
       </c>
     </row>
-    <row r="9" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="14">
-        <v>15300</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="14">
-        <v>16050</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="14">
-        <v>16050</v>
-      </c>
-    </row>
-    <row r="12" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="14">
-        <v>19260</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="14">
-        <v>21400</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L14" s="3" t="s">
+    <row r="34" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="137">
+        <v>13</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="77">
+        <v>2</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="73">
+        <v>13370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="137">
+        <v>14</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="77">
+        <v>3</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="73">
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="137">
         <v>15</v>
       </c>
-      <c r="M14" s="14">
-        <v>23540</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="14">
-        <v>28890</v>
-      </c>
-    </row>
-    <row r="16" spans="4:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="14">
-        <v>36060</v>
-      </c>
-    </row>
-    <row r="17" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="14">
-        <v>41880</v>
-      </c>
-    </row>
-    <row r="18" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="14">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="19" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="13">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="20" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="14">
-        <v>44940</v>
-      </c>
-    </row>
-    <row r="21" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="14">
-        <v>49220</v>
-      </c>
-    </row>
-    <row r="22" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="14">
-        <v>53500</v>
-      </c>
-    </row>
-    <row r="23" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="14">
-        <v>57780</v>
-      </c>
-    </row>
-    <row r="24" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="14">
-        <v>69550</v>
-      </c>
-    </row>
-    <row r="25" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="14">
-        <v>69550</v>
-      </c>
-    </row>
-    <row r="26" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="14">
-        <v>80250</v>
-      </c>
-    </row>
-    <row r="27" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="14">
-        <v>84670</v>
-      </c>
-    </row>
-    <row r="28" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M28" s="14">
-        <v>96300</v>
-      </c>
-    </row>
-    <row r="29" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="14">
-        <v>99220</v>
-      </c>
-    </row>
-    <row r="30" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M30" s="14">
-        <v>102720</v>
-      </c>
-    </row>
-    <row r="31" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="14">
-        <v>102720</v>
-      </c>
-    </row>
-    <row r="32" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="14">
-        <v>107000</v>
-      </c>
-    </row>
-    <row r="33" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="14">
-        <v>113420</v>
-      </c>
-    </row>
-    <row r="34" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="14">
-        <v>117700</v>
-      </c>
-    </row>
-    <row r="35" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="14">
-        <v>149800</v>
-      </c>
-    </row>
-    <row r="36" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="14">
-        <v>155150</v>
-      </c>
-    </row>
-    <row r="37" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L37" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M37" s="14">
-        <v>160500</v>
-      </c>
-    </row>
-    <row r="38" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="14">
-        <v>199020</v>
-      </c>
-    </row>
-    <row r="39" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="14">
-        <v>235400</v>
-      </c>
-    </row>
-    <row r="40" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="14">
-        <v>288900</v>
-      </c>
-    </row>
-    <row r="41" spans="12:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="14">
-        <v>695500</v>
-      </c>
-    </row>
-    <row r="45" spans="12:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M45">
-        <f>SUM(M3:M44)</f>
-        <v>3488200</v>
+      <c r="B36" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="77">
+        <v>1</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="73">
+        <v>64200</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="L3:M41">
-    <sortCondition ref="M3:M41"/>
-  </sortState>
+  <mergeCells count="16">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:K25"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="C17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="22"/>
-    <col min="4" max="4" width="8" style="22" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="16" style="22" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="21" style="22" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="37" t="s">
+    <row r="1" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109"/>
+      <c r="B1" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="115"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
+    </row>
+    <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="110">
+        <v>1</v>
+      </c>
+      <c r="B2" s="111">
+        <v>2</v>
+      </c>
+      <c r="C2" s="112">
+        <v>3</v>
+      </c>
+      <c r="D2" s="112">
+        <v>4</v>
+      </c>
+      <c r="E2" s="124">
+        <v>6</v>
+      </c>
+      <c r="F2" s="70">
+        <v>7</v>
+      </c>
+      <c r="G2" s="77">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>677310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="114">
+        <v>36892</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="71">
+        <v>392370</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="73">
+        <v>883820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="114">
+        <v>37257</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="71">
+        <v>113740</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="73">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="71">
+        <v>16050</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="73">
+        <v>288900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="125">
+        <v>522160</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="73">
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="71">
+        <v>786740</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="71">
+        <v>150870</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="71">
+        <v>112060</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="126">
+        <v>1049670</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69">
+        <v>3</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="127">
+        <f>SUM(D4:D6,D8:D10)</f>
+        <v>1571830</v>
+      </c>
+      <c r="E13" s="128">
+        <f>SUM(G4:G8)</f>
+        <v>1571830</v>
+      </c>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+    </row>
+    <row r="16" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="141"/>
+      <c r="L16" s="33">
+        <f>SUM(K17,D5,D6,L17,M17,N17)</f>
+        <v>1571830</v>
+      </c>
+      <c r="N16" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="141"/>
+      <c r="P16" s="33">
+        <f>SUM(O17,G5,G6,P17)</f>
+        <v>1571830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="37" t="s">
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="43" t="s">
+      <c r="J17" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="139">
+        <f>D4</f>
+        <v>392370</v>
+      </c>
+      <c r="L17" s="139">
+        <f>D8</f>
+        <v>786740</v>
+      </c>
+      <c r="M17" s="139">
+        <f>D9</f>
+        <v>150870</v>
+      </c>
+      <c r="N17" s="139">
+        <f>D10</f>
+        <v>112060</v>
+      </c>
+      <c r="O17" s="139">
+        <f>G4</f>
+        <v>883820</v>
+      </c>
+      <c r="P17" s="139">
+        <f>G7</f>
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="16" t="s">
+      <c r="B19" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="98"/>
+      <c r="J19" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="71">
+        <v>392370</v>
+      </c>
+      <c r="L19" s="71">
+        <v>786740</v>
+      </c>
+      <c r="M19" s="71">
+        <f>M17+H22+H23-H24+H25-H25-H26-H29</f>
+        <v>110210</v>
+      </c>
+      <c r="N19" s="71">
+        <f>N17-H22-H23</f>
+        <v>67120</v>
+      </c>
+      <c r="O19" s="73">
+        <v>883820</v>
+      </c>
+      <c r="P19" s="73">
+        <f>P17-H24-H26-H29</f>
+        <v>268570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="98"/>
+      <c r="J20" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144">
+        <f>SUM(K19,D5,D6,L19,M19,N19)</f>
+        <v>1486230</v>
+      </c>
+      <c r="N20" s="145" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="143"/>
+      <c r="P20" s="144">
+        <f>SUM(O19,G5,G6,P19)</f>
+        <v>1486230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="99"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="137">
+        <v>1</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="77">
+        <v>1</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="73">
+        <v>41300</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="147">
+        <f>M17+H22</f>
+        <v>192170</v>
+      </c>
+      <c r="N22" s="147">
+        <f>N17-H22</f>
+        <v>70760</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+    </row>
+    <row r="23" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="137">
+        <v>2</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="77">
+        <v>1</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="73">
+        <v>3640</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="146">
+        <v>195810</v>
+      </c>
+      <c r="N23" s="146">
+        <v>67120</v>
+      </c>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+    </row>
+    <row r="24" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="137">
+        <v>3</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="77">
+        <v>4</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="73">
+        <v>17120</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="146">
+        <v>178690</v>
+      </c>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="146">
+        <v>337050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="137">
+        <v>4</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="77">
+        <v>1</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="73">
+        <v>29960</v>
+      </c>
+      <c r="K25" s="33">
+        <v>392370</v>
+      </c>
+      <c r="L25" s="33">
+        <v>786740</v>
+      </c>
+      <c r="M25" s="146">
+        <v>178690</v>
+      </c>
+      <c r="N25" s="33">
+        <v>67120</v>
+      </c>
+      <c r="O25" s="33">
+        <v>883820</v>
+      </c>
+      <c r="P25" s="33">
+        <v>337050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="137">
+        <v>5</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="77">
+        <v>4</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="73">
+        <v>29960</v>
+      </c>
+      <c r="M26">
+        <v>148730</v>
+      </c>
+      <c r="P26">
+        <v>307090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="137">
+        <v>6</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="77">
+        <v>2</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="73">
+        <v>21400</v>
+      </c>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+    </row>
+    <row r="28" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="137">
+        <v>7</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="77">
+        <v>1</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="73">
+        <v>68480</v>
+      </c>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+    </row>
+    <row r="29" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="137">
+        <v>8</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="132">
+        <v>4</v>
+      </c>
+      <c r="D29" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="72">
+        <v>38520</v>
+      </c>
+      <c r="M29">
+        <v>110210</v>
+      </c>
+      <c r="P29">
+        <v>268570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="137">
+        <v>9</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="77">
+        <v>4</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="73">
+        <v>14450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="137">
+        <v>10</v>
+      </c>
+      <c r="B31" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="77">
+        <v>2</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="73">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="137">
+        <v>11</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="77">
+        <v>2</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="73">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="137">
+        <v>12</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="77">
+        <v>3</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="73">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="137">
+        <v>13</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="77">
+        <v>2</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="73">
+        <v>13370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="137">
+        <v>14</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="77">
+        <v>3</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="73">
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="137">
+        <v>15</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="77">
+        <v>1</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="73">
+        <v>64200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView topLeftCell="C18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109"/>
+      <c r="B1" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="115"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
+    </row>
+    <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="110">
+        <v>1</v>
+      </c>
+      <c r="B2" s="111">
+        <v>2</v>
+      </c>
+      <c r="C2" s="112">
+        <v>3</v>
+      </c>
+      <c r="D2" s="112">
+        <v>4</v>
+      </c>
+      <c r="E2" s="124">
+        <v>6</v>
+      </c>
+      <c r="F2" s="70">
+        <v>7</v>
+      </c>
+      <c r="G2" s="77">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>677310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="114">
+        <v>36892</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="71">
+        <v>392370</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="73">
+        <v>883820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="114">
+        <v>37257</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="71">
+        <v>113740</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="73">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="71">
+        <v>16050</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="73">
+        <v>288900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="125">
+        <v>522160</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="73">
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="71">
+        <v>786740</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="71">
+        <v>150870</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="71">
+        <v>112060</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="126">
+        <v>1049670</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69">
+        <v>3</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="127">
+        <f>SUM(D4:D6,D8:D10)</f>
+        <v>1571830</v>
+      </c>
+      <c r="E13" s="128">
+        <f>SUM(G4:G8)</f>
+        <v>1571830</v>
+      </c>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+    </row>
+    <row r="16" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="141"/>
+      <c r="L16" s="33">
+        <f>SUM(K17,D5,D6,L17,M17,N17)</f>
+        <v>1571830</v>
+      </c>
+      <c r="N16" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="141"/>
+      <c r="P16" s="33">
+        <f>SUM(O17,G5,G6,P17)</f>
+        <v>1571830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="139">
+        <f>D4</f>
+        <v>392370</v>
+      </c>
+      <c r="L17" s="139">
+        <f>D8</f>
+        <v>786740</v>
+      </c>
+      <c r="M17" s="139">
+        <f>D9</f>
+        <v>150870</v>
+      </c>
+      <c r="N17" s="139">
+        <f>D10</f>
+        <v>112060</v>
+      </c>
+      <c r="O17" s="139">
+        <f>G4</f>
+        <v>883820</v>
+      </c>
+      <c r="P17" s="139">
+        <f>G7</f>
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="D19" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="E19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="98"/>
+      <c r="J19" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="71">
+        <v>392370</v>
+      </c>
+      <c r="L19" s="71">
+        <v>786740</v>
+      </c>
+      <c r="M19" s="71">
+        <f>M17+H22+H23-H24+H25-H25-H26-H29</f>
+        <v>110210</v>
+      </c>
+      <c r="N19" s="71">
+        <f>N17-H22-H23</f>
+        <v>67120</v>
+      </c>
+      <c r="O19" s="73">
+        <v>883820</v>
+      </c>
+      <c r="P19" s="73">
+        <f>P17-H24-H26-H29</f>
+        <v>268570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="98"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="E20" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="F20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="98"/>
+      <c r="I20" s="151" t="str">
+        <f>IF(L20=P20,"верно","!!!!!!!!!!!!!")</f>
+        <v>верно</v>
+      </c>
+      <c r="J20" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144">
+        <f>SUM(K19,D5,D6,L19,M19,N19)</f>
+        <v>1486230</v>
+      </c>
+      <c r="N20" s="145" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="143"/>
+      <c r="P20" s="144">
+        <f>SUM(O19,G5,G6,P19)</f>
+        <v>1486230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+    </row>
+    <row r="22" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="137">
+        <v>1</v>
+      </c>
+      <c r="B22" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="C22" s="77">
+        <v>1</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="73">
+        <v>41300</v>
+      </c>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="149">
+        <f>M17+H22</f>
+        <v>192170</v>
+      </c>
+      <c r="N22" s="149">
+        <f>N17-H22</f>
+        <v>70760</v>
+      </c>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146"/>
+    </row>
+    <row r="23" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="137">
+        <v>2</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="77">
+        <v>1</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="73">
+        <v>3640</v>
+      </c>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="150">
+        <v>195810</v>
+      </c>
+      <c r="N23" s="150">
+        <v>67120</v>
+      </c>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+    </row>
+    <row r="24" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="137">
+        <v>3</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="77">
+        <v>4</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="73">
+        <v>17120</v>
+      </c>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="150">
+        <v>178690</v>
+      </c>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="150">
+        <v>337050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="137">
+        <v>4</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="77">
+        <v>1</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="73">
+        <v>29960</v>
+      </c>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="150">
+        <v>178690</v>
+      </c>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="146"/>
+    </row>
+    <row r="26" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="137">
+        <v>5</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="77">
+        <v>4</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="73">
+        <v>29960</v>
+      </c>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="33">
+        <v>148730</v>
+      </c>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="33">
+        <v>307090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="137">
+        <v>6</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="77">
+        <v>2</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="73">
+        <v>21400</v>
+      </c>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+    </row>
+    <row r="28" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="137">
+        <v>7</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="77">
+        <v>1</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="73">
+        <v>68480</v>
+      </c>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+    </row>
+    <row r="29" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="137">
+        <v>8</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="132">
+        <v>4</v>
+      </c>
+      <c r="D29" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="72">
+        <v>38520</v>
+      </c>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="33">
+        <v>110210</v>
+      </c>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="33">
+        <v>268570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="137">
+        <v>9</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="77">
+        <v>4</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="73">
+        <v>14450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="137">
+        <v>10</v>
+      </c>
+      <c r="B31" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="77">
+        <v>2</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="73">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="137">
+        <v>11</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="77">
+        <v>2</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="73">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="137">
+        <v>12</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="77">
+        <v>3</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="73">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="137">
+        <v>13</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="77">
+        <v>2</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="73">
+        <v>13370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="137">
+        <v>14</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="77">
+        <v>3</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="73">
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="137">
+        <v>15</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="77">
+        <v>1</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="73">
+        <v>64200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109"/>
+      <c r="B1" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="115"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
+    </row>
+    <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="110">
+        <v>1</v>
+      </c>
+      <c r="B2" s="111">
+        <v>2</v>
+      </c>
+      <c r="C2" s="112">
+        <v>3</v>
+      </c>
+      <c r="D2" s="112">
+        <v>4</v>
+      </c>
+      <c r="E2" s="124">
+        <v>6</v>
+      </c>
+      <c r="F2" s="70">
+        <v>7</v>
+      </c>
+      <c r="G2" s="77">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>677310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="114">
+        <v>36892</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="71">
+        <v>392370</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="73">
+        <v>883820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="114">
+        <v>37257</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="71">
+        <v>113740</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="73">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="71">
+        <v>16050</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="73">
+        <v>288900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="125">
+        <v>522160</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="73">
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="71">
+        <v>786740</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="71">
+        <v>150870</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="71">
+        <v>112060</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="126">
+        <v>1049670</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69">
+        <v>3</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="127">
+        <f>SUM(D4:D6,D8:D10)</f>
+        <v>1571830</v>
+      </c>
+      <c r="E13" s="128">
+        <f>SUM(G4:G8)</f>
+        <v>1571830</v>
+      </c>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+    </row>
+    <row r="16" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="141"/>
+      <c r="L16" s="33">
+        <f>SUM(K17,D5,D6,L17,M17,N17)</f>
+        <v>1571830</v>
+      </c>
+      <c r="N16" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="141"/>
+      <c r="P16" s="33">
+        <f>SUM(O17,G5,G6,P17)</f>
+        <v>1571830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="139">
+        <f>D4</f>
+        <v>392370</v>
+      </c>
+      <c r="L17" s="139">
+        <f>D8</f>
+        <v>786740</v>
+      </c>
+      <c r="M17" s="139">
+        <f>D9</f>
+        <v>150870</v>
+      </c>
+      <c r="N17" s="139">
+        <f>D10</f>
+        <v>112060</v>
+      </c>
+      <c r="O17" s="139">
+        <f>G4</f>
+        <v>883820</v>
+      </c>
+      <c r="P17" s="139">
+        <f>G7</f>
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="98"/>
+      <c r="J19" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="71">
+        <v>392370</v>
+      </c>
+      <c r="L19" s="71">
+        <v>786740</v>
+      </c>
+      <c r="M19" s="71">
+        <f>M17+H22+H23-H24+H25-H25-H26-H29-H30</f>
+        <v>95760</v>
+      </c>
+      <c r="N19" s="71">
+        <f>N17-H22-H23</f>
+        <v>67120</v>
+      </c>
+      <c r="O19" s="73">
+        <v>883820</v>
+      </c>
+      <c r="P19" s="73">
+        <f>P17-H24-H26-H29-H30</f>
+        <v>254120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="98"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="46"/>
-    </row>
-    <row r="9" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="16" t="s">
+      <c r="F20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="98"/>
+      <c r="I20" s="151" t="str">
+        <f>IF(L20=P20,"верно","!!!!!!!!!!!!!")</f>
+        <v>верно</v>
+      </c>
+      <c r="J20" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144">
+        <f>SUM(K19,D5,D6,L19,M19,N19)</f>
+        <v>1471780</v>
+      </c>
+      <c r="N20" s="145" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="143"/>
+      <c r="P20" s="144">
+        <f>SUM(O19,G5,G6,P19)</f>
+        <v>1471780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="18" t="s">
+      <c r="B21" s="99"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+    </row>
+    <row r="22" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="137">
+        <v>1</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="77">
+        <v>1</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="73">
+        <v>41300</v>
+      </c>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="149">
+        <f>M17+H22</f>
+        <v>192170</v>
+      </c>
+      <c r="N22" s="149">
+        <f>N17-H22</f>
+        <v>70760</v>
+      </c>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146"/>
+    </row>
+    <row r="23" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="137">
+        <v>2</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="77">
+        <v>1</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="73">
+        <v>3640</v>
+      </c>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="150">
+        <v>195810</v>
+      </c>
+      <c r="N23" s="150">
+        <v>67120</v>
+      </c>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+    </row>
+    <row r="24" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="137">
+        <v>3</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="77">
+        <v>4</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="73">
+        <v>17120</v>
+      </c>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="150">
+        <v>178690</v>
+      </c>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="150">
+        <v>337050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="137">
+        <v>4</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="77">
+        <v>1</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="73">
+        <v>29960</v>
+      </c>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="150">
+        <v>178690</v>
+      </c>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="146"/>
+    </row>
+    <row r="26" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="137">
+        <v>5</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="77">
+        <v>4</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="73">
+        <v>29960</v>
+      </c>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="33">
+        <v>148730</v>
+      </c>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="33">
+        <v>307090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="137">
+        <v>6</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="77">
+        <v>2</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="73">
+        <v>21400</v>
+      </c>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+    </row>
+    <row r="28" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="137">
+        <v>7</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="77">
+        <v>1</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="73">
+        <v>68480</v>
+      </c>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+    </row>
+    <row r="29" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="137">
+        <v>8</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="132">
+        <v>4</v>
+      </c>
+      <c r="D29" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="72">
+        <v>38520</v>
+      </c>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="33">
+        <v>110210</v>
+      </c>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="33">
+        <v>268570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="137">
+        <v>9</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="77">
+        <v>4</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="73">
+        <v>14450</v>
+      </c>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="33">
+        <v>95760</v>
+      </c>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="33">
+        <v>254120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="137">
+        <v>10</v>
+      </c>
+      <c r="B31" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="77">
+        <v>2</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="73">
+        <v>6160</v>
+      </c>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+    </row>
+    <row r="32" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="137">
+        <v>11</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="77">
+        <v>2</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="73">
+        <v>830</v>
+      </c>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+    </row>
+    <row r="33" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="137">
+        <v>12</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="77">
+        <v>3</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="73">
+        <v>14980</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+    </row>
+    <row r="34" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="137">
+        <v>13</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="77">
+        <v>2</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="73">
+        <v>13370</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+    </row>
+    <row r="35" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="137">
+        <v>14</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="77">
+        <v>3</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="73">
+        <v>26750</v>
+      </c>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+    </row>
+    <row r="36" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="137">
+        <v>15</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="77">
+        <v>1</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="73">
+        <v>64200</v>
+      </c>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109"/>
+      <c r="B1" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="115"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
+    </row>
+    <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="110">
+        <v>1</v>
+      </c>
+      <c r="B2" s="111">
+        <v>2</v>
+      </c>
+      <c r="C2" s="112">
+        <v>3</v>
+      </c>
+      <c r="D2" s="112">
+        <v>4</v>
+      </c>
+      <c r="E2" s="124">
+        <v>6</v>
+      </c>
+      <c r="F2" s="70">
+        <v>7</v>
+      </c>
+      <c r="G2" s="77">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>677310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="114">
+        <v>36892</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="71">
+        <v>392370</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="73">
+        <v>883820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="114">
+        <v>37257</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="71">
+        <v>113740</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="73">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="71">
+        <v>16050</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="73">
+        <v>288900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="125">
+        <v>522160</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="73">
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="71">
+        <v>786740</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="71">
+        <v>150870</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="71">
+        <v>112060</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="126">
+        <v>1049670</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69">
+        <v>3</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="127">
+        <f>SUM(D4:D6,D8:D10)</f>
+        <v>1571830</v>
+      </c>
+      <c r="E13" s="128">
+        <f>SUM(G4:G8)</f>
+        <v>1571830</v>
+      </c>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+    </row>
+    <row r="16" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="141"/>
+      <c r="L16" s="33">
+        <f>SUM(K17,D5,D6,L17,M17,N17)</f>
+        <v>1571830</v>
+      </c>
+      <c r="N16" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="141"/>
+      <c r="P16" s="33">
+        <f>SUM(O17,G5,G6,P17)</f>
+        <v>1571830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="139">
+        <f>D4</f>
+        <v>392370</v>
+      </c>
+      <c r="L17" s="139">
+        <f>D8</f>
+        <v>786740</v>
+      </c>
+      <c r="M17" s="139">
+        <f>D9</f>
+        <v>150870</v>
+      </c>
+      <c r="N17" s="139">
+        <f>D10</f>
+        <v>112060</v>
+      </c>
+      <c r="O17" s="139">
+        <f>G4</f>
+        <v>883820</v>
+      </c>
+      <c r="P17" s="139">
+        <f>G7</f>
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="F19" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="G19" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="H19" s="98"/>
+      <c r="J19" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="71">
+        <v>392370</v>
+      </c>
+      <c r="L19" s="71">
+        <f>L17+H33</f>
+        <v>801720</v>
+      </c>
+      <c r="M19" s="71">
+        <f>M17+H22+H23-H24+H25-H25-H26-H29-H30</f>
+        <v>95760</v>
+      </c>
+      <c r="N19" s="71">
+        <f>N17-H22-H23</f>
+        <v>67120</v>
+      </c>
+      <c r="O19" s="73">
+        <v>883820</v>
+      </c>
+      <c r="P19" s="73">
+        <f>P17-H24-H26-H29-H30+H33</f>
+        <v>269100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="98"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="98"/>
+      <c r="I20" s="151" t="str">
+        <f>IF(L20=P20,"верно","!!!!!!!!!!!!!")</f>
+        <v>верно</v>
+      </c>
+      <c r="J20" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144">
+        <f>SUM(K19,D5,D6,L19,M19,N19)</f>
+        <v>1486760</v>
+      </c>
+      <c r="N20" s="145" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="143"/>
+      <c r="P20" s="144">
+        <f>SUM(O19,G5,G6,P19)</f>
+        <v>1486760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+    </row>
+    <row r="22" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="137">
+        <v>1</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="77">
+        <v>1</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="73">
+        <v>41300</v>
+      </c>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="149">
+        <f>M17+H22</f>
+        <v>192170</v>
+      </c>
+      <c r="N22" s="149">
+        <f>N17-H22</f>
+        <v>70760</v>
+      </c>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146"/>
+    </row>
+    <row r="23" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="137">
+        <v>2</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="77">
+        <v>1</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="73">
+        <v>3640</v>
+      </c>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="150">
+        <v>195810</v>
+      </c>
+      <c r="N23" s="150">
+        <v>67120</v>
+      </c>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+    </row>
+    <row r="24" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="137">
+        <v>3</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="77">
+        <v>4</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="73">
+        <v>17120</v>
+      </c>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="150">
+        <v>178690</v>
+      </c>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="150">
+        <v>337050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="137">
+        <v>4</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="77">
+        <v>1</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="73">
+        <v>29960</v>
+      </c>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="150">
+        <v>178690</v>
+      </c>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="146"/>
+    </row>
+    <row r="26" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="137">
+        <v>5</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="77">
+        <v>4</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="73">
+        <v>29960</v>
+      </c>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="33">
+        <v>148730</v>
+      </c>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="33">
+        <v>307090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="137">
+        <v>6</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="77">
+        <v>2</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="73">
+        <v>21400</v>
+      </c>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+    </row>
+    <row r="28" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="137">
+        <v>7</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="77">
+        <v>1</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="73">
+        <v>68480</v>
+      </c>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+    </row>
+    <row r="29" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="137">
+        <v>8</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="132">
+        <v>4</v>
+      </c>
+      <c r="D29" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="72">
+        <v>38520</v>
+      </c>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="33">
+        <v>110210</v>
+      </c>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="33">
+        <v>268570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="137">
+        <v>9</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="77">
+        <v>4</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="73">
+        <v>14450</v>
+      </c>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="33">
+        <v>95760</v>
+      </c>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="33">
+        <v>254120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="137">
+        <v>10</v>
+      </c>
+      <c r="B31" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="77">
+        <v>2</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="73">
+        <v>6160</v>
+      </c>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+    </row>
+    <row r="32" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="137">
+        <v>11</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="77">
+        <v>2</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="73">
+        <v>830</v>
+      </c>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+    </row>
+    <row r="33" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="137">
+        <v>12</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="77">
+        <v>3</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="73">
+        <v>14980</v>
+      </c>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="33">
+        <v>801720</v>
+      </c>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="33">
+        <v>269100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="137">
+        <v>13</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="77">
+        <v>2</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="73">
+        <v>13370</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+    </row>
+    <row r="35" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="137">
+        <v>14</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="77">
+        <v>3</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="73">
+        <v>26750</v>
+      </c>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+    </row>
+    <row r="36" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="137">
+        <v>15</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="77">
+        <v>1</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="73">
+        <v>64200</v>
+      </c>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109"/>
+      <c r="B1" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="115"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
+    </row>
+    <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="110">
+        <v>1</v>
+      </c>
+      <c r="B2" s="111">
+        <v>2</v>
+      </c>
+      <c r="C2" s="112">
+        <v>3</v>
+      </c>
+      <c r="D2" s="112">
+        <v>4</v>
+      </c>
+      <c r="E2" s="124">
+        <v>6</v>
+      </c>
+      <c r="F2" s="70">
+        <v>7</v>
+      </c>
+      <c r="G2" s="77">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>677310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="114">
+        <v>36892</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="71">
+        <v>392370</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="73">
+        <v>883820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="114">
+        <v>37257</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="71">
+        <v>113740</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="73">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="71">
+        <v>16050</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="73">
+        <v>288900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="125">
+        <v>522160</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="73">
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="71">
+        <v>786740</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="71">
+        <v>150870</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="71">
+        <v>112060</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="126">
+        <v>1049670</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69">
+        <v>3</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="127">
+        <f>SUM(D4:D6,D8:D10)</f>
+        <v>1571830</v>
+      </c>
+      <c r="E13" s="128">
+        <f>SUM(G4:G8)</f>
+        <v>1571830</v>
+      </c>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+    </row>
+    <row r="16" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="141"/>
+      <c r="L16" s="33">
+        <f>SUM(K17,D5,D6,L17,M17,N17)</f>
+        <v>1571830</v>
+      </c>
+      <c r="N16" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="141"/>
+      <c r="P16" s="33">
+        <f>SUM(O17,G5,G6,P17)</f>
+        <v>1571830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="139">
+        <f>D4</f>
+        <v>392370</v>
+      </c>
+      <c r="L17" s="139">
+        <f>D8</f>
+        <v>786740</v>
+      </c>
+      <c r="M17" s="139">
+        <f>D9</f>
+        <v>150870</v>
+      </c>
+      <c r="N17" s="139">
+        <f>D10</f>
+        <v>112060</v>
+      </c>
+      <c r="O17" s="139">
+        <f>G4</f>
+        <v>883820</v>
+      </c>
+      <c r="P17" s="139">
+        <f>G7</f>
+        <v>354170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="46"/>
-    </row>
-    <row r="10" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="47"/>
-    </row>
-    <row r="11" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="19">
+      <c r="G19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="98"/>
+      <c r="J19" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="71">
+        <f>K17+H34</f>
+        <v>405740</v>
+      </c>
+      <c r="L19" s="71">
+        <f>L17+H33</f>
+        <v>801720</v>
+      </c>
+      <c r="M19" s="71">
+        <f>M17+H22+H23-H24+H25-H25-H26-H29-H30-H34+H35</f>
+        <v>109140</v>
+      </c>
+      <c r="N19" s="71">
+        <f>N17-H22-H23</f>
+        <v>67120</v>
+      </c>
+      <c r="O19" s="73">
+        <v>883820</v>
+      </c>
+      <c r="P19" s="73">
+        <f>P17-H24-H26-H29-H30+H33+H35</f>
+        <v>295850</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="98"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="98"/>
+      <c r="I20" s="151" t="str">
+        <f>IF(L20=P20,"верно","!!!!!!!!!!!!!")</f>
+        <v>верно</v>
+      </c>
+      <c r="J20" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144">
+        <f>SUM(K19,D5,D6,L19,M19,N19)</f>
+        <v>1513510</v>
+      </c>
+      <c r="N20" s="145" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="143"/>
+      <c r="P20" s="144">
+        <f>SUM(O19,G5,G6,P19)</f>
+        <v>1513510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+    </row>
+    <row r="22" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="137">
         <v>1</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="B22" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="77">
+        <v>1</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="73">
+        <v>41300</v>
+      </c>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="149">
+        <f>M17+H22</f>
+        <v>192170</v>
+      </c>
+      <c r="N22" s="149">
+        <f>N17-H22</f>
+        <v>70760</v>
+      </c>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146"/>
+    </row>
+    <row r="23" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="137">
+        <v>2</v>
+      </c>
+      <c r="B23" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21">
-        <v>41300</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="19">
+      <c r="C23" s="77">
+        <v>1</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="73">
+        <v>3640</v>
+      </c>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="150">
+        <v>195810</v>
+      </c>
+      <c r="N23" s="150">
+        <v>67120</v>
+      </c>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+    </row>
+    <row r="24" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="137">
+        <v>3</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="77">
+        <v>4</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="73">
+        <v>17120</v>
+      </c>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="150">
+        <v>178690</v>
+      </c>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="150">
+        <v>337050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="137">
+        <v>4</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="77">
+        <v>1</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="73">
+        <v>29960</v>
+      </c>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="150">
+        <v>178690</v>
+      </c>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="146"/>
+    </row>
+    <row r="26" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="137">
+        <v>5</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="77">
+        <v>4</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="73">
+        <v>29960</v>
+      </c>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="33">
+        <v>148730</v>
+      </c>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="33">
+        <v>307090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="137">
+        <v>6</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="77">
         <v>2</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="13" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="24">
+      <c r="D27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="73">
+        <v>21400</v>
+      </c>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+    </row>
+    <row r="28" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="137">
+        <v>7</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="77">
+        <v>1</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="73">
+        <v>68480</v>
+      </c>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+    </row>
+    <row r="29" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="137">
+        <v>8</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="132">
+        <v>4</v>
+      </c>
+      <c r="D29" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="72">
+        <v>38520</v>
+      </c>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="33">
+        <v>110210</v>
+      </c>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="33">
+        <v>268570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="137">
+        <v>9</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="77">
+        <v>4</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="73">
+        <v>14450</v>
+      </c>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="33">
+        <v>95760</v>
+      </c>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="33">
+        <v>254120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="137">
+        <v>10</v>
+      </c>
+      <c r="B31" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="77">
+        <v>2</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="73">
+        <v>6160</v>
+      </c>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+    </row>
+    <row r="32" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="137">
+        <v>11</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="77">
+        <v>2</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="73">
+        <v>830</v>
+      </c>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+    </row>
+    <row r="33" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="137">
+        <v>12</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="77">
         <v>3</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="26">
-        <v>17120</v>
-      </c>
-    </row>
-    <row r="14" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="24">
-        <v>4</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="26">
-        <v>29960</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="27">
-        <v>5</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="36">
-        <v>4</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="29">
-        <v>29960</v>
-      </c>
-    </row>
-    <row r="16" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="27">
-        <v>6</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="29">
-        <v>21400</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="27">
-        <v>7</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="29">
-        <v>68480</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="30">
-        <v>8</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="29">
-        <v>38520</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="27">
-        <v>9</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="29">
-        <v>14450</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="27">
-        <v>10</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="29">
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="27">
-        <v>11</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="29">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="30">
-        <v>12</v>
-      </c>
-      <c r="E22" s="28" t="s">
+      <c r="D33" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="73">
+        <v>14980</v>
+      </c>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="33">
+        <v>801720</v>
+      </c>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="33">
+        <v>269100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="137">
+        <v>13</v>
+      </c>
+      <c r="B34" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="31">
-        <v>14980</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="27">
-        <v>13</v>
-      </c>
-      <c r="E23" s="28" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="152" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="73">
+        <v>13370</v>
+      </c>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="33">
+        <v>405740</v>
+      </c>
+      <c r="L34" s="146"/>
+      <c r="M34" s="33">
+        <v>82390</v>
+      </c>
+      <c r="N34" s="146"/>
+      <c r="O34" s="146"/>
+      <c r="P34" s="146"/>
+    </row>
+    <row r="35" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="137">
+        <v>14</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="77">
+        <v>3</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="73">
+        <v>26750</v>
+      </c>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="33">
+        <v>109140</v>
+      </c>
+      <c r="N35" s="146"/>
+      <c r="O35" s="146"/>
+      <c r="P35" s="33">
+        <v>295850</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="137">
+        <v>15</v>
+      </c>
+      <c r="B36" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="29">
-        <v>13370</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="27">
-        <v>14</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="29">
-        <v>26750</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="27">
-        <v>15</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="29">
+      <c r="C36" s="77">
+        <v>1</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="73">
         <v>64200</v>
       </c>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="146"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="146"/>
+    </row>
+    <row r="37" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>405740</v>
+      </c>
+      <c r="L37">
+        <v>801720</v>
+      </c>
+      <c r="M37">
+        <v>109140</v>
+      </c>
+      <c r="N37">
+        <v>67120</v>
+      </c>
+      <c r="O37">
+        <v>883820</v>
+      </c>
+      <c r="P37">
+        <v>295850</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D6:F7"/>
-    <mergeCell ref="G6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="K8:K10"/>
+  <mergeCells count="16">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -11,14 +11,18 @@
     <sheet name="Пасив" sheetId="2" r:id="rId2"/>
     <sheet name="укрп баланс" sheetId="3" r:id="rId3"/>
     <sheet name="баланс 2 (6)" sheetId="10" r:id="rId4"/>
-    <sheet name="Лист6" sheetId="11" r:id="rId5"/>
+    <sheet name="Счета актива" sheetId="11" r:id="rId5"/>
+    <sheet name="Счета пассива" sheetId="12" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="Сальдо_начальное">'Счета актива'!$K$17,'Счета актива'!$C$6,'Счета актива'!$C$17,'Счета актива'!$C$28,'Счета актива'!$C$39,'Счета актива'!$K$50,'Счета актива'!$C$50,'Счета актива'!$C$72,'Счета актива'!$C$83,'Счета актива'!$C$94,'Счета актива'!$C$105,'Счета актива'!$C$116,'Счета актива'!$C$127,'Счета актива'!$C$138,'Счета актива'!$C$149,'Счета актива'!$C$160,'Счета актива'!$C$171,'Счета актива'!$C$181,'Счета актива'!$C$192,'Счета актива'!$C$203,'Счета актива'!$C$214,'Счета актива'!$C$225,'Счета актива'!$C$236,'Счета актива'!$C$247,'Счета актива'!$C$258</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="157">
   <si>
     <t>ВСЕГО обязательств</t>
   </si>
@@ -375,6 +379,120 @@
   </si>
   <si>
     <t>Сн=</t>
+  </si>
+  <si>
+    <t>Актив табл. 1.1</t>
+  </si>
+  <si>
+    <t>Пассив табл. 1.2 - 1.3</t>
+  </si>
+  <si>
+    <t>Дебет</t>
+  </si>
+  <si>
+    <t>Кредит</t>
+  </si>
+  <si>
+    <t>сооружения</t>
+  </si>
+  <si>
+    <t>здания</t>
+  </si>
+  <si>
+    <t>машины и оборудывание</t>
+  </si>
+  <si>
+    <t>земельные участки</t>
+  </si>
+  <si>
+    <t>износ осн. Средств</t>
+  </si>
+  <si>
+    <t>инстр и приспособления</t>
+  </si>
+  <si>
+    <t>хоз. Инвентарь</t>
+  </si>
+  <si>
+    <t>транспортные средства</t>
+  </si>
+  <si>
+    <t>малоцен. Необ. Мат активы</t>
+  </si>
+  <si>
+    <t>Тара и тарные матер.</t>
+  </si>
+  <si>
+    <t>износ малоцен. Мат акт.</t>
+  </si>
+  <si>
+    <t>немат. Активы</t>
+  </si>
+  <si>
+    <t>износ немат. Активов</t>
+  </si>
+  <si>
+    <t>топливо и смаз. Мат.</t>
+  </si>
+  <si>
+    <t>малоцен. Быстроизн. Предметы</t>
+  </si>
+  <si>
+    <t>незаверш. Производство</t>
+  </si>
+  <si>
+    <t>готовая прод. На складе</t>
+  </si>
+  <si>
+    <t>запас. Части</t>
+  </si>
+  <si>
+    <t>строит. Мат.</t>
+  </si>
+  <si>
+    <t>покупные полуфабр.</t>
+  </si>
+  <si>
+    <t>осн. Мат. На складе</t>
+  </si>
+  <si>
+    <t>сред.на тек. Сч.в банке в нац. Вал</t>
+  </si>
+  <si>
+    <t>наличка в кассе</t>
+  </si>
+  <si>
+    <t>дебиторская задолженность</t>
+  </si>
+  <si>
+    <t>задол. Пок. За реал. Прод.</t>
+  </si>
+  <si>
+    <t>Всего активов</t>
+  </si>
+  <si>
+    <t>передаточные устройства</t>
+  </si>
+  <si>
+    <t>Всего осн. Средств</t>
+  </si>
+  <si>
+    <t>Всего проч необ мат</t>
+  </si>
+  <si>
+    <t>Всего немат. Акт.</t>
+  </si>
+  <si>
+    <t>Всего необоротных</t>
+  </si>
+  <si>
+    <t>всего запасов</t>
+  </si>
+  <si>
+    <t>Всего денедных ср.</t>
+  </si>
+  <si>
+    <t>Всего дебет. Задол.</t>
   </si>
 </sst>
 </file>
@@ -614,7 +732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -878,11 +996,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -975,44 +1221,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1040,9 +1250,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1060,9 +1267,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,190 +1323,82 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1315,6 +1411,214 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1618,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,16 +1935,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="19">
@@ -1742,26 +2046,26 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="112"/>
       <c r="J12" s="18">
         <f>SUM(J3:J11)</f>
         <v>392370</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
     </row>
     <row r="16" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="19">
@@ -1774,118 +2078,118 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="21">
-        <v>25</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="26">
-        <v>107000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="H18" s="29">
+    <row r="17" spans="3:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="H17" s="29">
         <v>22</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J17" s="28">
         <v>-8560</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H19" s="42" t="s">
+    <row r="18" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="3">
-        <f>SUM(J16:J18)</f>
-        <v>113740</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="44" t="s">
+      <c r="I18" s="112"/>
+      <c r="J18" s="3">
+        <f>SUM(J16:J17)</f>
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="19">
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+    </row>
+    <row r="22" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="19">
         <v>7</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I22" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J22" s="10">
         <v>19260</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="32">
+    <row r="23" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="32">
         <v>34</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J23" s="36">
         <v>-3210</v>
       </c>
     </row>
-    <row r="25" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H25" s="41" t="s">
+    <row r="24" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="3">
-        <f>SUM(J23:J24)</f>
+      <c r="I24" s="111"/>
+      <c r="J24" s="3">
+        <f>SUM(J22:J23)</f>
         <v>16050</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C29" s="34" t="s">
+    <row r="28" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C28" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="18">
-        <f>J25+J19+J12</f>
-        <v>522160</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="44" t="s">
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="18">
+        <f>J24+J18+J12</f>
+        <v>415160</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+    </row>
+    <row r="32" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="19">
+        <v>6</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="10">
+        <v>84670</v>
+      </c>
     </row>
     <row r="33" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="19">
-        <v>6</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="10">
-        <v>84670</v>
+      <c r="H33" s="20">
+        <v>8</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="11">
+        <v>41880</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
@@ -1900,25 +2204,25 @@
       </c>
     </row>
     <row r="35" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="20">
-        <v>8</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="11">
-        <v>41880</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="19">
+      <c r="H35" s="19">
         <v>20</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I35" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J35" s="10">
         <v>155150</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H36" s="21">
+        <v>25</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="26">
+        <v>107000</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1966,26 +2270,26 @@
       </c>
     </row>
     <row r="41" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="38">
-        <f>SUM(J33:J40)</f>
-        <v>786740</v>
+      <c r="I41" s="104"/>
+      <c r="J41" s="35">
+        <f>SUM(J32:J40)</f>
+        <v>893740</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
     </row>
     <row r="45" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H45" s="19">
@@ -2010,26 +2314,26 @@
       </c>
     </row>
     <row r="47" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H47" s="39" t="s">
+      <c r="H47" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="40"/>
-      <c r="J47" s="38">
+      <c r="I47" s="104"/>
+      <c r="J47" s="35">
         <f>SUM(J45:J46)</f>
         <v>150870</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
     </row>
     <row r="50" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H50" s="19">
@@ -2054,61 +2358,61 @@
       </c>
     </row>
     <row r="52" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H52" s="39" t="s">
+      <c r="H52" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="I52" s="40"/>
-      <c r="J52" s="38">
+      <c r="I52" s="104"/>
+      <c r="J52" s="35">
         <f>SUM(J50:J51)</f>
         <v>112060</v>
       </c>
     </row>
     <row r="56" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
       <c r="J56" s="18">
         <f>J52+J47+J41</f>
-        <v>1049670</v>
+        <v>1156670</v>
       </c>
     </row>
     <row r="58" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
       <c r="J58" s="18">
-        <f>J56+J29</f>
+        <f>J56+J28</f>
         <v>1571830</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C21:J21"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="C49:J49"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="C56:I56"/>
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H19:I19"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
     <mergeCell ref="C15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2135,152 +2439,152 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="49">
+      <c r="D4" s="37">
         <v>9</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="39">
         <v>695500</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="52">
+      <c r="D9" s="40">
         <v>14</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="43">
         <v>113420</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="49">
+      <c r="D10" s="37">
         <v>27</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="39">
         <v>53500</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="52">
+      <c r="D11" s="40">
         <v>24</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="43">
         <v>21400</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="38">
+      <c r="E14" s="112"/>
+      <c r="F14" s="35">
         <f>SUM(F4:F13)</f>
         <v>883820</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
     </row>
     <row r="19" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="48" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="19">
         <v>15</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="45" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="10">
@@ -2288,24 +2592,24 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="37">
+      <c r="E20" s="112"/>
+      <c r="F20" s="34">
         <f>SUM(F19)</f>
         <v>288900</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="49" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="19">
         <v>5</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="45" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="10">
@@ -2316,7 +2620,7 @@
       <c r="D25" s="20">
         <v>18</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="46" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="11">
@@ -2324,10 +2628,10 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="60">
+      <c r="D26" s="47">
         <v>19</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="46" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="11">
@@ -2338,7 +2642,7 @@
       <c r="D27" s="20">
         <v>28</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="46" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="11">
@@ -2349,7 +2653,7 @@
       <c r="D28" s="20">
         <v>31</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="46" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="11">
@@ -2360,7 +2664,7 @@
       <c r="D29" s="20">
         <v>29</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="46" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="11">
@@ -2379,24 +2683,24 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="38">
+      <c r="E31" s="112"/>
+      <c r="F31" s="35">
         <f>SUM(F24:F30)</f>
         <v>354170</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="49" t="s">
         <v>81</v>
       </c>
       <c r="D35" s="19">
         <v>16</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="50" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="16">
@@ -2404,22 +2708,22 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="37">
+      <c r="E36" s="103"/>
+      <c r="F36" s="34">
         <f>SUM(F35)</f>
         <v>44940</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
       <c r="F38" s="4">
         <f>F36+F31+F20</f>
         <v>688010</v>
@@ -2481,10 +2785,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2492,10 +2796,10 @@
       <c r="B3" s="1">
         <v>392370</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="52">
         <v>883820</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="51" t="s">
         <v>87</v>
       </c>
       <c r="K3">
@@ -2507,7 +2811,7 @@
       <c r="B4" s="2">
         <v>113740</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="53">
         <v>44940</v>
       </c>
     </row>
@@ -2515,10 +2819,10 @@
       <c r="B5" s="2">
         <v>16050</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="53">
         <v>288900</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="51" t="s">
         <v>88</v>
       </c>
       <c r="K5">
@@ -2528,7 +2832,7 @@
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="E6" s="67">
+      <c r="E6" s="53">
         <v>354170</v>
       </c>
     </row>
@@ -2591,38 +2895,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110"/>
-      <c r="B1" s="117" t="s">
+      <c r="A1" s="76"/>
+      <c r="B1" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119" t="s">
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="121"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
     </row>
     <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="111">
+      <c r="A2" s="77">
         <v>1</v>
       </c>
-      <c r="B2" s="112">
+      <c r="B2" s="78">
         <v>2</v>
       </c>
-      <c r="C2" s="113">
+      <c r="C2" s="79">
         <v>3</v>
       </c>
-      <c r="D2" s="113">
+      <c r="D2" s="79">
         <v>4</v>
       </c>
-      <c r="E2" s="125">
+      <c r="E2" s="82">
         <v>6</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="56">
         <v>7</v>
       </c>
-      <c r="G2" s="78">
+      <c r="G2" s="64">
         <v>8</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -2633,308 +2937,308 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="80" t="s">
         <v>112</v>
       </c>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115">
+      <c r="A4" s="81">
         <v>36892</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="57">
         <v>392370</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="60">
         <v>883820</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="115">
+      <c r="A5" s="81">
         <v>37257</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="57">
         <v>113740</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="60">
         <v>44940</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69">
+      <c r="A6" s="55">
         <v>1.2</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="57">
         <v>16050</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="60">
         <v>288900</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="126">
+      <c r="B7" s="144"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="83">
         <v>522160</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="106" t="s">
+      <c r="F7" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="60">
         <v>354170</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69">
+      <c r="A8" s="55">
         <v>2.1</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="57">
         <v>786740</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="64" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69">
+      <c r="A9" s="55">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="57">
         <v>150870</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="74"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69">
+      <c r="A10" s="55">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="57">
         <v>112060</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="74"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="127">
+      <c r="B11" s="144"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="84">
         <v>1049670</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="74"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="74"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="128">
+      <c r="B13" s="147"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="85">
         <f>SUM(D4:D6,D8:D10)</f>
         <v>1571830</v>
       </c>
-      <c r="E13" s="129">
+      <c r="E13" s="149">
         <f>SUM(G4:G8)</f>
         <v>1571830</v>
       </c>
-      <c r="F13" s="130"/>
-      <c r="G13" s="131"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="151"/>
     </row>
     <row r="16" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="141" t="s">
+      <c r="J16" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="142"/>
+      <c r="K16" s="117"/>
       <c r="L16" s="33">
         <f>SUM(K17,D5,D6,L17,M17,N17)</f>
         <v>1571830</v>
       </c>
-      <c r="N16" s="141" t="s">
+      <c r="N16" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="142"/>
+      <c r="O16" s="117"/>
       <c r="P16" s="33">
         <f>SUM(O17,G5,G6,P17)</f>
         <v>1571830</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="91" t="s">
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="96" t="s">
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="140">
+      <c r="K17" s="94">
         <f>D4</f>
         <v>392370</v>
       </c>
-      <c r="L17" s="140">
+      <c r="L17" s="94">
         <f>D8</f>
         <v>786740</v>
       </c>
-      <c r="M17" s="140">
+      <c r="M17" s="94">
         <f>D9</f>
         <v>150870</v>
       </c>
-      <c r="N17" s="140">
+      <c r="N17" s="94">
         <f>D10</f>
         <v>112060</v>
       </c>
-      <c r="O17" s="140">
+      <c r="O17" s="94">
         <f>G4</f>
         <v>883820</v>
       </c>
-      <c r="P17" s="140">
+      <c r="P17" s="94">
         <f>G7</f>
         <v>354170</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="97"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="139" t="s">
+      <c r="A18" s="121"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="131"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="L18" s="132" t="s">
+      <c r="L18" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="104" t="s">
+      <c r="M18" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="N18" s="105" t="s">
+      <c r="N18" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="O18" s="107" t="s">
+      <c r="O18" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="P18" s="106" t="s">
+      <c r="P18" s="72" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2942,48 +3246,48 @@
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="75" t="s">
+      <c r="G19" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="99"/>
-      <c r="J19" s="108" t="s">
+      <c r="H19" s="133"/>
+      <c r="J19" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K19" s="57">
         <f>K17+H34</f>
         <v>405740</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="57">
         <f>L17+H33</f>
         <v>801720</v>
       </c>
-      <c r="M19" s="71">
+      <c r="M19" s="57">
         <f>M17+H22+H23-H24+H25-H25-H26-H29-H30-H34+H35</f>
         <v>109140</v>
       </c>
-      <c r="N19" s="71">
+      <c r="N19" s="57">
         <f>N17-H22-H23</f>
         <v>67120</v>
       </c>
-      <c r="O19" s="74">
+      <c r="O19" s="60">
         <v>883820</v>
       </c>
-      <c r="P19" s="74">
+      <c r="P19" s="60">
         <f>P17-H24-H26-H29-H30+H33+H35</f>
         <v>295850</v>
       </c>
@@ -2992,38 +3296,38 @@
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="75" t="s">
+      <c r="B20" s="133"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="150" t="str">
+      <c r="H20" s="133"/>
+      <c r="I20" s="100" t="str">
         <f>IF(L20=P20,"верно","!!!!!!!!!!!!!")</f>
         <v>верно</v>
       </c>
-      <c r="J20" s="141" t="s">
+      <c r="J20" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="143"/>
-      <c r="L20" s="144">
+      <c r="K20" s="138"/>
+      <c r="L20" s="95">
         <f>SUM(K19,D5,D6,L19,M19,N19)</f>
         <v>1513510</v>
       </c>
-      <c r="N20" s="145" t="s">
+      <c r="N20" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="O20" s="143"/>
-      <c r="P20" s="144">
+      <c r="O20" s="138"/>
+      <c r="P20" s="95">
         <f>SUM(O19,G5,G6,P19)</f>
         <v>1513510</v>
       </c>
@@ -3032,569 +3336,569 @@
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="146"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
     </row>
     <row r="22" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="138">
+      <c r="A22" s="92">
         <v>1</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="78">
+      <c r="C22" s="64">
         <v>1</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E22" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="80" t="s">
+      <c r="F22" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="78" t="s">
+      <c r="G22" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="60">
         <v>41300</v>
       </c>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="148">
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="98">
         <f>M17+H22</f>
         <v>192170</v>
       </c>
-      <c r="N22" s="148">
+      <c r="N22" s="98">
         <f>N17-H22</f>
         <v>70760</v>
       </c>
-      <c r="O22" s="146"/>
-      <c r="P22" s="146"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
     </row>
     <row r="23" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="138">
+      <c r="A23" s="92">
         <v>2</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="64">
         <v>1</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="80" t="s">
+      <c r="F23" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="78" t="s">
+      <c r="G23" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="60">
         <v>3640</v>
       </c>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="149">
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="99">
         <v>195810</v>
       </c>
-      <c r="N23" s="149">
+      <c r="N23" s="99">
         <v>67120</v>
       </c>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
     </row>
     <row r="24" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="138">
+      <c r="A24" s="92">
         <v>3</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="64">
         <v>4</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="78" t="s">
+      <c r="G24" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="60">
         <v>17120</v>
       </c>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="149">
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="99">
         <v>178690</v>
       </c>
-      <c r="N24" s="146"/>
-      <c r="O24" s="146"/>
-      <c r="P24" s="149">
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="99">
         <v>337050</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="138">
+      <c r="A25" s="92">
         <v>4</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="78">
+      <c r="C25" s="64">
         <v>1</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="79" t="s">
+      <c r="F25" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="78" t="s">
+      <c r="G25" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="74">
+      <c r="H25" s="60">
         <v>29960</v>
       </c>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="149">
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="99">
         <v>178690</v>
       </c>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
     </row>
     <row r="26" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="138">
+      <c r="A26" s="92">
         <v>5</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="78">
+      <c r="C26" s="64">
         <v>4</v>
       </c>
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="78" t="s">
+      <c r="G26" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="60">
         <v>29960</v>
       </c>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
       <c r="M26" s="33">
         <v>148730</v>
       </c>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
       <c r="P26" s="33">
         <v>307090</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="138">
+      <c r="A27" s="92">
         <v>6</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="64">
         <v>2</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="82" t="s">
+      <c r="F27" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="74">
+      <c r="H27" s="60">
         <v>21400</v>
       </c>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
-      <c r="O27" s="146"/>
-      <c r="P27" s="146"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
     </row>
     <row r="28" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138">
+      <c r="A28" s="92">
         <v>7</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="78">
+      <c r="C28" s="64">
         <v>1</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="G28" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="74">
+      <c r="H28" s="60">
         <v>68480</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
     </row>
     <row r="29" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="138">
+      <c r="A29" s="92">
         <v>8</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="133">
+      <c r="C29" s="87">
         <v>4</v>
       </c>
-      <c r="D29" s="134" t="s">
+      <c r="D29" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="133" t="s">
+      <c r="E29" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="135" t="s">
+      <c r="F29" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="133" t="s">
+      <c r="G29" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="59">
         <v>38520</v>
       </c>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
       <c r="M29" s="33">
         <v>110210</v>
       </c>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
       <c r="P29" s="33">
         <v>268570</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="138">
+      <c r="A30" s="92">
         <v>9</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="78">
+      <c r="C30" s="64">
         <v>4</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="78" t="s">
+      <c r="G30" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="74">
+      <c r="H30" s="60">
         <v>14450</v>
       </c>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
       <c r="M30" s="33">
         <v>95760</v>
       </c>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
       <c r="P30" s="33">
         <v>254120</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="138">
+      <c r="A31" s="92">
         <v>10</v>
       </c>
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="78">
+      <c r="C31" s="64">
         <v>2</v>
       </c>
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="78" t="s">
+      <c r="G31" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="74">
+      <c r="H31" s="60">
         <v>6160</v>
       </c>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
     </row>
     <row r="32" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="138">
+      <c r="A32" s="92">
         <v>11</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="78">
+      <c r="C32" s="64">
         <v>2</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="78" t="s">
+      <c r="G32" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="74">
+      <c r="H32" s="60">
         <v>830</v>
       </c>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
     </row>
     <row r="33" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="138">
+      <c r="A33" s="92">
         <v>12</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="78">
+      <c r="C33" s="64">
         <v>3</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="81" t="s">
+      <c r="F33" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="78" t="s">
+      <c r="G33" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="74">
+      <c r="H33" s="60">
         <v>14980</v>
       </c>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="146"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="96"/>
       <c r="L33" s="33">
         <v>801720</v>
       </c>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
       <c r="P33" s="33">
         <v>269100</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="138">
+      <c r="A34" s="92">
         <v>13</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="137" t="s">
+      <c r="F34" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="151" t="s">
+      <c r="G34" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="74">
+      <c r="H34" s="60">
         <v>13370</v>
       </c>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
       <c r="K34" s="33">
         <v>405740</v>
       </c>
-      <c r="L34" s="146"/>
+      <c r="L34" s="96"/>
       <c r="M34" s="33">
         <v>82390</v>
       </c>
-      <c r="N34" s="146"/>
-      <c r="O34" s="146"/>
-      <c r="P34" s="146"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
     </row>
     <row r="35" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="138">
+      <c r="A35" s="92">
         <v>14</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="78">
+      <c r="C35" s="64">
         <v>3</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="78" t="s">
+      <c r="G35" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="74">
+      <c r="H35" s="60">
         <v>26750</v>
       </c>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
       <c r="M35" s="33">
         <v>109140</v>
       </c>
-      <c r="N35" s="146"/>
-      <c r="O35" s="146"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
       <c r="P35" s="33">
         <v>295850</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="138">
+      <c r="A36" s="92">
         <v>15</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="78">
+      <c r="C36" s="64">
         <v>1</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="78" t="s">
+      <c r="G36" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="74">
+      <c r="H36" s="60">
         <v>64200</v>
       </c>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="146"/>
-      <c r="N36" s="146"/>
-      <c r="O36" s="146"/>
-      <c r="P36" s="146"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
     </row>
     <row r="37" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K37">
@@ -3618,22 +3922,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N20:O20"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3641,32 +3945,2122 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D5"/>
+  <dimension ref="B2:N277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F270" sqref="F270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="72">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="162">
+        <v>101</v>
+      </c>
+      <c r="D4" s="162"/>
+      <c r="E4" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="160"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="157"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="174">
+        <v>28890</v>
+      </c>
+      <c r="D6" s="154"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="33"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="162">
         <v>103</v>
       </c>
-      <c r="D4" s="72"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D15" s="162"/>
+      <c r="E15" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="162">
+        <v>103</v>
+      </c>
+      <c r="L15" s="162"/>
+      <c r="M15" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="160"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="167"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="C5">
+      <c r="C17" s="174">
         <v>199020</v>
       </c>
-    </row>
+      <c r="D17" s="154"/>
+      <c r="E17" s="33"/>
+      <c r="J17" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="174">
+        <v>42800</v>
+      </c>
+      <c r="L17" s="154"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="33"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="33"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="33"/>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="162">
+        <v>104</v>
+      </c>
+      <c r="D26" s="162"/>
+      <c r="E26" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="160"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="167"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="174">
+        <v>69550</v>
+      </c>
+      <c r="D28" s="154"/>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="33"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="162">
+        <v>105</v>
+      </c>
+      <c r="D37" s="162"/>
+      <c r="E37" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="160"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="167"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="174">
+        <v>57780</v>
+      </c>
+      <c r="D39" s="154"/>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="33"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="33"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="33"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="33"/>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="162">
+        <v>106</v>
+      </c>
+      <c r="D48" s="162"/>
+      <c r="E48" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J48" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="K48" s="162">
+        <v>106</v>
+      </c>
+      <c r="L48" s="162"/>
+      <c r="M48" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="N48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="160"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="167"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="158"/>
+      <c r="L49" s="166"/>
+      <c r="M49" s="167"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="174">
+        <v>16050</v>
+      </c>
+      <c r="D50" s="154"/>
+      <c r="E50" s="33"/>
+      <c r="J50" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" s="174">
+        <v>36060</v>
+      </c>
+      <c r="L50" s="154"/>
+      <c r="M50" s="33"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="33"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="33"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="33"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="33"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="33"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="33"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="33"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="33"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="33"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="33"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="155"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="155"/>
+      <c r="E56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="155"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="155"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="155"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+    </row>
+    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="162">
+        <v>109</v>
+      </c>
+      <c r="D59" s="162"/>
+      <c r="E59" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="160"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="166"/>
+      <c r="E60" s="167"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="174">
+        <v>102720</v>
+      </c>
+      <c r="D61" s="154"/>
+      <c r="E61" s="33"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="33"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="33"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="33"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="33"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="33"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="33"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="33"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="154"/>
+      <c r="E65" s="33"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="33"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="154"/>
+      <c r="E66" s="33"/>
+    </row>
+    <row r="70" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="162">
+        <v>112</v>
+      </c>
+      <c r="D70" s="162"/>
+      <c r="E70" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" t="s">
+        <v>131</v>
+      </c>
+      <c r="J70" s="155"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
+    </row>
+    <row r="71" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="160"/>
+      <c r="C71" s="158"/>
+      <c r="D71" s="166"/>
+      <c r="E71" s="167"/>
+      <c r="J71" s="155"/>
+      <c r="K71" s="155"/>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="174">
+        <v>15300</v>
+      </c>
+      <c r="D72" s="154"/>
+      <c r="E72" s="33"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="155"/>
+      <c r="L72" s="155"/>
+      <c r="M72" s="155"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="33"/>
+      <c r="C73" s="156"/>
+      <c r="D73" s="154"/>
+      <c r="E73" s="33"/>
+      <c r="J73" s="155"/>
+      <c r="K73" s="155"/>
+      <c r="L73" s="155"/>
+      <c r="M73" s="155"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="33"/>
+      <c r="C74" s="156"/>
+      <c r="D74" s="154"/>
+      <c r="E74" s="33"/>
+      <c r="J74" s="155"/>
+      <c r="K74" s="155"/>
+      <c r="L74" s="155"/>
+      <c r="M74" s="155"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="33"/>
+      <c r="C75" s="156"/>
+      <c r="D75" s="154"/>
+      <c r="E75" s="33"/>
+      <c r="J75" s="155"/>
+      <c r="K75" s="155"/>
+      <c r="L75" s="155"/>
+      <c r="M75" s="155"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="33"/>
+      <c r="C76" s="156"/>
+      <c r="D76" s="154"/>
+      <c r="E76" s="33"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="33"/>
+      <c r="C77" s="156"/>
+      <c r="D77" s="154"/>
+      <c r="E77" s="33"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="155"/>
+      <c r="C78" s="155"/>
+      <c r="D78" s="155"/>
+      <c r="E78" s="155"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="155"/>
+      <c r="C79" s="155"/>
+      <c r="D79" s="155"/>
+      <c r="E79" s="155"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="155"/>
+      <c r="C80" s="155"/>
+      <c r="D80" s="155"/>
+      <c r="E80" s="155"/>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="162">
+        <v>120</v>
+      </c>
+      <c r="D81" s="162"/>
+      <c r="E81" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="160"/>
+      <c r="C82" s="158"/>
+      <c r="D82" s="166"/>
+      <c r="E82" s="167"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="174">
+        <v>19260</v>
+      </c>
+      <c r="D83" s="154"/>
+      <c r="E83" s="33"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="33"/>
+      <c r="C84" s="156"/>
+      <c r="D84" s="154"/>
+      <c r="E84" s="33"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="33"/>
+      <c r="C85" s="156"/>
+      <c r="D85" s="154"/>
+      <c r="E85" s="33"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="33"/>
+      <c r="C86" s="156"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="33"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="33"/>
+      <c r="C87" s="156"/>
+      <c r="D87" s="154"/>
+      <c r="E87" s="33"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="33"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="154"/>
+      <c r="E88" s="33"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="155"/>
+      <c r="C89" s="155"/>
+      <c r="D89" s="155"/>
+      <c r="E89" s="155"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="155"/>
+      <c r="C90" s="155"/>
+      <c r="D90" s="155"/>
+      <c r="E90" s="155"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+    </row>
+    <row r="92" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="162">
+        <v>130</v>
+      </c>
+      <c r="D92" s="162"/>
+      <c r="E92" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="160"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="166"/>
+      <c r="E93" s="167"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="174">
+        <v>-3210</v>
+      </c>
+      <c r="D94" s="154"/>
+      <c r="E94" s="33"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="33"/>
+      <c r="C95" s="156"/>
+      <c r="D95" s="154"/>
+      <c r="E95" s="33"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="33"/>
+      <c r="C96" s="156"/>
+      <c r="D96" s="154"/>
+      <c r="E96" s="33"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="33"/>
+      <c r="C97" s="156"/>
+      <c r="D97" s="154"/>
+      <c r="E97" s="33"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="33"/>
+      <c r="C98" s="156"/>
+      <c r="D98" s="154"/>
+      <c r="E98" s="33"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="33"/>
+      <c r="C99" s="156"/>
+      <c r="D99" s="154"/>
+      <c r="E99" s="33"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="155"/>
+      <c r="C100" s="155"/>
+      <c r="D100" s="155"/>
+      <c r="E100" s="155"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="155"/>
+      <c r="C101" s="155"/>
+      <c r="D101" s="155"/>
+      <c r="E101" s="155"/>
+    </row>
+    <row r="103" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="170">
+        <v>131</v>
+      </c>
+      <c r="D103" s="171"/>
+      <c r="E103" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="164"/>
+      <c r="C104" s="165"/>
+      <c r="D104" s="168"/>
+      <c r="E104" s="169"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="174">
+        <v>-160500</v>
+      </c>
+      <c r="D105" s="154"/>
+      <c r="E105" s="33"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="33"/>
+      <c r="C106" s="156"/>
+      <c r="D106" s="154"/>
+      <c r="E106" s="33"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="33"/>
+      <c r="C107" s="156"/>
+      <c r="D107" s="154"/>
+      <c r="E107" s="33"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="33"/>
+      <c r="C108" s="156"/>
+      <c r="D108" s="154"/>
+      <c r="E108" s="33"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="33"/>
+      <c r="C109" s="156"/>
+      <c r="D109" s="154"/>
+      <c r="E109" s="33"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="33"/>
+      <c r="C110" s="156"/>
+      <c r="D110" s="154"/>
+      <c r="E110" s="33"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="155"/>
+      <c r="C111" s="155"/>
+      <c r="D111" s="155"/>
+      <c r="E111" s="155"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="155"/>
+      <c r="C112" s="155"/>
+      <c r="D112" s="155"/>
+      <c r="E112" s="155"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+    </row>
+    <row r="114" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="170">
+        <v>132</v>
+      </c>
+      <c r="D114" s="171"/>
+      <c r="E114" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="164"/>
+      <c r="C115" s="165"/>
+      <c r="D115" s="168"/>
+      <c r="E115" s="169"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" s="174">
+        <v>-8560</v>
+      </c>
+      <c r="D116" s="154"/>
+      <c r="E116" s="33"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="33"/>
+      <c r="C117" s="156"/>
+      <c r="D117" s="154"/>
+      <c r="E117" s="33"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="33"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="154"/>
+      <c r="E118" s="33"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="33"/>
+      <c r="C119" s="156"/>
+      <c r="D119" s="154"/>
+      <c r="E119" s="33"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="33"/>
+      <c r="C120" s="156"/>
+      <c r="D120" s="154"/>
+      <c r="E120" s="33"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="33"/>
+      <c r="C121" s="156"/>
+      <c r="D121" s="154"/>
+      <c r="E121" s="33"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="155"/>
+      <c r="C122" s="155"/>
+      <c r="D122" s="155"/>
+      <c r="E122" s="155"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="155"/>
+      <c r="C123" s="155"/>
+      <c r="D123" s="155"/>
+      <c r="E123" s="155"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="155"/>
+      <c r="C124" s="155"/>
+      <c r="D124" s="155"/>
+      <c r="E124" s="155"/>
+    </row>
+    <row r="125" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C125" s="170">
+        <v>163</v>
+      </c>
+      <c r="D125" s="171"/>
+      <c r="E125" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F125" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="164"/>
+      <c r="C126" s="165"/>
+      <c r="D126" s="168"/>
+      <c r="E126" s="169"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" s="173">
+        <v>12840</v>
+      </c>
+      <c r="D127" s="154"/>
+      <c r="E127" s="33"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="33"/>
+      <c r="C128" s="156"/>
+      <c r="D128" s="154"/>
+      <c r="E128" s="33"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="33"/>
+      <c r="C129" s="156"/>
+      <c r="D129" s="154"/>
+      <c r="E129" s="33"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="33"/>
+      <c r="C130" s="156"/>
+      <c r="D130" s="154"/>
+      <c r="E130" s="33"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="33"/>
+      <c r="C131" s="156"/>
+      <c r="D131" s="154"/>
+      <c r="E131" s="33"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="33"/>
+      <c r="C132" s="156"/>
+      <c r="D132" s="154"/>
+      <c r="E132" s="33"/>
+    </row>
+    <row r="136" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C136" s="170">
+        <v>201</v>
+      </c>
+      <c r="D136" s="171"/>
+      <c r="E136" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F136" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="164"/>
+      <c r="C137" s="165"/>
+      <c r="D137" s="168"/>
+      <c r="E137" s="169"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" s="173">
+        <v>235400</v>
+      </c>
+      <c r="D138" s="154"/>
+      <c r="E138" s="33"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="33"/>
+      <c r="C139" s="156"/>
+      <c r="D139" s="154"/>
+      <c r="E139" s="33"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="33"/>
+      <c r="C140" s="156"/>
+      <c r="D140" s="154"/>
+      <c r="E140" s="33"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="33"/>
+      <c r="C141" s="156"/>
+      <c r="D141" s="154"/>
+      <c r="E141" s="33"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="33"/>
+      <c r="C142" s="156"/>
+      <c r="D142" s="154"/>
+      <c r="E142" s="33"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="33"/>
+      <c r="C143" s="156"/>
+      <c r="D143" s="154"/>
+      <c r="E143" s="33"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="155"/>
+      <c r="C144" s="155"/>
+      <c r="D144" s="155"/>
+      <c r="E144" s="155"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="155"/>
+      <c r="C145" s="155"/>
+      <c r="D145" s="155"/>
+      <c r="E145" s="155"/>
+    </row>
+    <row r="147" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147" s="170">
+        <v>203</v>
+      </c>
+      <c r="D147" s="171"/>
+      <c r="E147" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F147" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="164"/>
+      <c r="C148" s="165"/>
+      <c r="D148" s="168"/>
+      <c r="E148" s="169"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149" s="173">
+        <v>84670</v>
+      </c>
+      <c r="D149" s="154"/>
+      <c r="E149" s="33"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="33"/>
+      <c r="C150" s="156"/>
+      <c r="D150" s="154"/>
+      <c r="E150" s="33"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="33"/>
+      <c r="C151" s="156"/>
+      <c r="D151" s="154"/>
+      <c r="E151" s="33"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="33"/>
+      <c r="C152" s="156"/>
+      <c r="D152" s="154"/>
+      <c r="E152" s="33"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="33"/>
+      <c r="C153" s="156"/>
+      <c r="D153" s="154"/>
+      <c r="E153" s="33"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="33"/>
+      <c r="C154" s="156"/>
+      <c r="D154" s="154"/>
+      <c r="E154" s="33"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="155"/>
+      <c r="C156" s="155"/>
+      <c r="D156" s="155"/>
+      <c r="E156" s="155"/>
+    </row>
+    <row r="158" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C158" s="170">
+        <v>204</v>
+      </c>
+      <c r="D158" s="171"/>
+      <c r="E158" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F158" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="164"/>
+      <c r="C159" s="165"/>
+      <c r="D159" s="168"/>
+      <c r="E159" s="169"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C160" s="174">
+        <v>107000</v>
+      </c>
+      <c r="D160" s="154"/>
+      <c r="E160" s="33"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="33"/>
+      <c r="C161" s="156"/>
+      <c r="D161" s="154"/>
+      <c r="E161" s="33"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="33"/>
+      <c r="C162" s="156"/>
+      <c r="D162" s="154"/>
+      <c r="E162" s="33"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="33"/>
+      <c r="C163" s="156"/>
+      <c r="D163" s="154"/>
+      <c r="E163" s="33"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="33"/>
+      <c r="C164" s="156"/>
+      <c r="D164" s="154"/>
+      <c r="E164" s="33"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="33"/>
+      <c r="C165" s="156"/>
+      <c r="D165" s="154"/>
+      <c r="E165" s="33"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="155"/>
+      <c r="C166" s="155"/>
+      <c r="D166" s="155"/>
+      <c r="E166" s="155"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="155"/>
+      <c r="C167" s="155"/>
+      <c r="D167" s="155"/>
+      <c r="E167" s="155"/>
+    </row>
+    <row r="169" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169" s="170">
+        <v>205</v>
+      </c>
+      <c r="D169" s="171"/>
+      <c r="E169" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F169" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="164"/>
+      <c r="C170" s="165"/>
+      <c r="D170" s="168"/>
+      <c r="E170" s="169"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C171" s="173">
+        <v>69550</v>
+      </c>
+      <c r="D171" s="154"/>
+      <c r="E171" s="33"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="33"/>
+      <c r="C172" s="156"/>
+      <c r="D172" s="154"/>
+      <c r="E172" s="33"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="33"/>
+      <c r="C173" s="156"/>
+      <c r="D173" s="154"/>
+      <c r="E173" s="33"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="33"/>
+      <c r="C174" s="156"/>
+      <c r="D174" s="154"/>
+      <c r="E174" s="33"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="33"/>
+      <c r="C175" s="156"/>
+      <c r="D175" s="154"/>
+      <c r="E175" s="33"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="33"/>
+      <c r="C176" s="156"/>
+      <c r="D176" s="154"/>
+      <c r="E176" s="33"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="155"/>
+      <c r="C177" s="155"/>
+      <c r="D177" s="155"/>
+      <c r="E177" s="155"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="155"/>
+      <c r="C178" s="155"/>
+      <c r="D178" s="155"/>
+      <c r="E178" s="155"/>
+    </row>
+    <row r="179" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C179" s="170">
+        <v>207</v>
+      </c>
+      <c r="D179" s="171"/>
+      <c r="E179" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F179" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="164"/>
+      <c r="C180" s="165"/>
+      <c r="D180" s="168"/>
+      <c r="E180" s="169"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C181" s="173">
+        <v>80250</v>
+      </c>
+      <c r="D181" s="154"/>
+      <c r="E181" s="33"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="33"/>
+      <c r="C182" s="156"/>
+      <c r="D182" s="154"/>
+      <c r="E182" s="33"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="33"/>
+      <c r="C183" s="156"/>
+      <c r="D183" s="154"/>
+      <c r="E183" s="33"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="33"/>
+      <c r="C184" s="156"/>
+      <c r="D184" s="154"/>
+      <c r="E184" s="33"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="33"/>
+      <c r="C185" s="156"/>
+      <c r="D185" s="154"/>
+      <c r="E185" s="33"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186" s="33"/>
+      <c r="C186" s="156"/>
+      <c r="D186" s="154"/>
+      <c r="E186" s="33"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="155"/>
+      <c r="C187" s="155"/>
+      <c r="D187" s="155"/>
+      <c r="E187" s="155"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B188" s="155"/>
+      <c r="C188" s="155"/>
+      <c r="D188" s="155"/>
+      <c r="E188" s="155"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B189" s="155"/>
+      <c r="C189" s="155"/>
+      <c r="D189" s="155"/>
+      <c r="E189" s="155"/>
+    </row>
+    <row r="190" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C190" s="170">
+        <v>220</v>
+      </c>
+      <c r="D190" s="171"/>
+      <c r="E190" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F190" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="164"/>
+      <c r="C191" s="165"/>
+      <c r="D191" s="168"/>
+      <c r="E191" s="169"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C192" s="173">
+        <v>23540</v>
+      </c>
+      <c r="D192" s="154"/>
+      <c r="E192" s="33"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="33"/>
+      <c r="C193" s="156"/>
+      <c r="D193" s="154"/>
+      <c r="E193" s="33"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="33"/>
+      <c r="C194" s="156"/>
+      <c r="D194" s="154"/>
+      <c r="E194" s="33"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="33"/>
+      <c r="C195" s="156"/>
+      <c r="D195" s="154"/>
+      <c r="E195" s="33"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="33"/>
+      <c r="C196" s="156"/>
+      <c r="D196" s="154"/>
+      <c r="E196" s="33"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B197" s="33"/>
+      <c r="C197" s="156"/>
+      <c r="D197" s="154"/>
+      <c r="E197" s="33"/>
+    </row>
+    <row r="201" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C201" s="170">
+        <v>230</v>
+      </c>
+      <c r="D201" s="171"/>
+      <c r="E201" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F201" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="164"/>
+      <c r="C202" s="165"/>
+      <c r="D202" s="168"/>
+      <c r="E202" s="169"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C203" s="173">
+        <v>41880</v>
+      </c>
+      <c r="D203" s="154"/>
+      <c r="E203" s="33"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="33"/>
+      <c r="C204" s="156"/>
+      <c r="D204" s="154"/>
+      <c r="E204" s="33"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="33"/>
+      <c r="C205" s="156"/>
+      <c r="D205" s="154"/>
+      <c r="E205" s="33"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="33"/>
+      <c r="C206" s="156"/>
+      <c r="D206" s="154"/>
+      <c r="E206" s="33"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="33"/>
+      <c r="C207" s="156"/>
+      <c r="D207" s="154"/>
+      <c r="E207" s="33"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="33"/>
+      <c r="C208" s="156"/>
+      <c r="D208" s="154"/>
+      <c r="E208" s="33"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B209" s="155"/>
+      <c r="C209" s="155"/>
+      <c r="D209" s="155"/>
+      <c r="E209" s="155"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="155"/>
+      <c r="C210" s="155"/>
+      <c r="D210" s="155"/>
+      <c r="E210" s="155"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="155"/>
+      <c r="C211" s="155"/>
+      <c r="D211" s="155"/>
+      <c r="E211" s="155"/>
+    </row>
+    <row r="212" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C212" s="170">
+        <v>250</v>
+      </c>
+      <c r="D212" s="171"/>
+      <c r="E212" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F212" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="164"/>
+      <c r="C213" s="165"/>
+      <c r="D213" s="168"/>
+      <c r="E213" s="169"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C214" s="173">
+        <v>96300</v>
+      </c>
+      <c r="D214" s="154"/>
+      <c r="E214" s="33"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="33"/>
+      <c r="C215" s="156"/>
+      <c r="D215" s="154"/>
+      <c r="E215" s="33"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B216" s="33"/>
+      <c r="C216" s="156"/>
+      <c r="D216" s="154"/>
+      <c r="E216" s="33"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B217" s="33"/>
+      <c r="C217" s="156"/>
+      <c r="D217" s="154"/>
+      <c r="E217" s="33"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B218" s="33"/>
+      <c r="C218" s="156"/>
+      <c r="D218" s="154"/>
+      <c r="E218" s="33"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="33"/>
+      <c r="C219" s="156"/>
+      <c r="D219" s="154"/>
+      <c r="E219" s="33"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220" s="155"/>
+      <c r="C220" s="155"/>
+      <c r="D220" s="155"/>
+      <c r="E220" s="155"/>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221" s="155"/>
+      <c r="C221" s="155"/>
+      <c r="D221" s="155"/>
+      <c r="E221" s="155"/>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222" s="155"/>
+      <c r="C222" s="155"/>
+      <c r="D222" s="155"/>
+      <c r="E222" s="155"/>
+    </row>
+    <row r="223" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C223" s="170">
+        <v>260</v>
+      </c>
+      <c r="D223" s="171"/>
+      <c r="E223" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F223" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="164"/>
+      <c r="C224" s="165"/>
+      <c r="D224" s="168"/>
+      <c r="E224" s="169"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C225" s="173">
+        <v>155150</v>
+      </c>
+      <c r="D225" s="154"/>
+      <c r="E225" s="33"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="33"/>
+      <c r="C226" s="156"/>
+      <c r="D226" s="154"/>
+      <c r="E226" s="33"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="33"/>
+      <c r="C227" s="156"/>
+      <c r="D227" s="154"/>
+      <c r="E227" s="33"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228" s="33"/>
+      <c r="C228" s="156"/>
+      <c r="D228" s="154"/>
+      <c r="E228" s="33"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229" s="33"/>
+      <c r="C229" s="156"/>
+      <c r="D229" s="154"/>
+      <c r="E229" s="33"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B230" s="33"/>
+      <c r="C230" s="156"/>
+      <c r="D230" s="154"/>
+      <c r="E230" s="33"/>
+    </row>
+    <row r="234" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C234" s="170">
+        <v>301</v>
+      </c>
+      <c r="D234" s="171"/>
+      <c r="E234" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F234" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="164"/>
+      <c r="C235" s="165"/>
+      <c r="D235" s="168"/>
+      <c r="E235" s="169"/>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C236" s="173">
+        <v>1070</v>
+      </c>
+      <c r="D236" s="154"/>
+      <c r="E236" s="33"/>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="33"/>
+      <c r="C237" s="156"/>
+      <c r="D237" s="154"/>
+      <c r="E237" s="33"/>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="33"/>
+      <c r="C238" s="156"/>
+      <c r="D238" s="154"/>
+      <c r="E238" s="33"/>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="33"/>
+      <c r="C239" s="156"/>
+      <c r="D239" s="154"/>
+      <c r="E239" s="33"/>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="33"/>
+      <c r="C240" s="156"/>
+      <c r="D240" s="154"/>
+      <c r="E240" s="33"/>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B241" s="33"/>
+      <c r="C241" s="156"/>
+      <c r="D241" s="154"/>
+      <c r="E241" s="33"/>
+    </row>
+    <row r="245" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C245" s="170">
+        <v>311</v>
+      </c>
+      <c r="D245" s="171"/>
+      <c r="E245" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F245" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="164"/>
+      <c r="C246" s="165"/>
+      <c r="D246" s="168"/>
+      <c r="E246" s="169"/>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B247" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C247" s="173">
+        <v>149800</v>
+      </c>
+      <c r="D247" s="154"/>
+      <c r="E247" s="33"/>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B248" s="33"/>
+      <c r="C248" s="156"/>
+      <c r="D248" s="154"/>
+      <c r="E248" s="33"/>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B249" s="33"/>
+      <c r="C249" s="156"/>
+      <c r="D249" s="154"/>
+      <c r="E249" s="33"/>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B250" s="33"/>
+      <c r="C250" s="156"/>
+      <c r="D250" s="154"/>
+      <c r="E250" s="33"/>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B251" s="33"/>
+      <c r="C251" s="156"/>
+      <c r="D251" s="154"/>
+      <c r="E251" s="33"/>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="33"/>
+      <c r="C252" s="156"/>
+      <c r="D252" s="154"/>
+      <c r="E252" s="33"/>
+    </row>
+    <row r="256" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C256" s="170">
+        <v>611</v>
+      </c>
+      <c r="D256" s="171"/>
+      <c r="E256" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F256" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="164"/>
+      <c r="C257" s="165"/>
+      <c r="D257" s="168"/>
+      <c r="E257" s="169"/>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C258" s="173">
+        <v>99220</v>
+      </c>
+      <c r="D258" s="154"/>
+      <c r="E258" s="33"/>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259" s="33"/>
+      <c r="C259" s="156"/>
+      <c r="D259" s="154"/>
+      <c r="E259" s="33"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B260" s="33"/>
+      <c r="C260" s="156"/>
+      <c r="D260" s="154"/>
+      <c r="E260" s="33"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261" s="33"/>
+      <c r="C261" s="156"/>
+      <c r="D261" s="154"/>
+      <c r="E261" s="33"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B262" s="33"/>
+      <c r="C262" s="156"/>
+      <c r="D262" s="154"/>
+      <c r="E262" s="33"/>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263" s="33"/>
+      <c r="C263" s="156"/>
+      <c r="D263" s="154"/>
+      <c r="E263" s="33"/>
+    </row>
+    <row r="266" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="267" spans="2:5" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B267" s="172" t="s">
+        <v>148</v>
+      </c>
+      <c r="C267" s="172"/>
+      <c r="D267" s="172"/>
+      <c r="E267" s="175">
+        <f>SUM(C6,C17,C28,K17,C39,C50,K50,C72,C83,C94,C105,C116,C127,C138,C149,C160,C171,C181,C192,C203,C214,C225,C236,C247,C258,C61)</f>
+        <v>1571830</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="270" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="163" t="s">
+        <v>150</v>
+      </c>
+      <c r="C270" s="163"/>
+      <c r="D270" s="176">
+        <f>SUM(C17,C28,C105,C61,K17,C6,C50,C39,K50)</f>
+        <v>392370</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="163" t="s">
+        <v>151</v>
+      </c>
+      <c r="C271" s="163"/>
+      <c r="D271" s="176">
+        <f>SUM(C72,C160,C116)</f>
+        <v>113740</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="C272" s="163"/>
+      <c r="D272" s="176">
+        <f>SUM(C83,C94)</f>
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="163" t="s">
+        <v>153</v>
+      </c>
+      <c r="C273" s="163"/>
+      <c r="D273" s="176">
+        <f>SUM(D270:D272)</f>
+        <v>522160</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="177" t="s">
+        <v>154</v>
+      </c>
+      <c r="C274" s="163"/>
+      <c r="D274" s="175">
+        <f>SUM(C149,C192,C203,C225,C181,C171,C214,C138)</f>
+        <v>786740</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="177" t="s">
+        <v>155</v>
+      </c>
+      <c r="C275" s="163"/>
+      <c r="D275" s="175">
+        <f>SUM(C247,C236)</f>
+        <v>150870</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="177" t="s">
+        <v>156</v>
+      </c>
+      <c r="C276" s="163"/>
+      <c r="D276" s="175">
+        <f>SUM(C258,C127)</f>
+        <v>112060</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="50">
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="152" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="162">
+        <v>40</v>
+      </c>
+      <c r="D4" s="162"/>
+      <c r="E4" s="161" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="160"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="157"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="156">
+        <v>199020</v>
+      </c>
+      <c r="D6" s="154"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="33"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="162">
+        <v>103</v>
+      </c>
+      <c r="D15" s="162"/>
+      <c r="E15" s="161" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="160"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="157"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="156">
+        <v>199020</v>
+      </c>
+      <c r="D17" s="154"/>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="33"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Актив" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Операции по счетам" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="Сальдо_начальное" localSheetId="6">'Операции по счетам'!$K$17,'Операции по счетам'!$C$6,'Операции по счетам'!$C$17,'Операции по счетам'!$C$28,'Операции по счетам'!$C$39,'Операции по счетам'!$K$50,'Операции по счетам'!$C$50,'Операции по счетам'!$C$72,'Операции по счетам'!$C$83,'Операции по счетам'!$C$94,'Операции по счетам'!$C$105,'Операции по счетам'!$C$116,'Операции по счетам'!$C$127,'Операции по счетам'!$C$138,'Операции по счетам'!$C$149,'Операции по счетам'!$C$160,'Операции по счетам'!$C$171,'Операции по счетам'!$C$181,'Операции по счетам'!$C$192,'Операции по счетам'!$C$203,'Операции по счетам'!$C$214,'Операции по счетам'!$C$225,'Операции по счетам'!$C$236,'Операции по счетам'!$C$247,'Операции по счетам'!$C$258</definedName>
+    <definedName name="Сальдо_начальное" localSheetId="6">'Операции по счетам'!$K$17,'Операции по счетам'!$C$6,'Операции по счетам'!$C$17,'Операции по счетам'!$C$28,'Операции по счетам'!$C$39,'Операции по счетам'!$K$50,'Операции по счетам'!$C$50,'Операции по счетам'!$C$72,'Операции по счетам'!$C$83,'Операции по счетам'!$C$94,'Операции по счетам'!$C$105,'Операции по счетам'!$C$116,'Операции по счетам'!$C$127,'Операции по счетам'!$C$138,'Операции по счетам'!$C$149,'Операции по счетам'!$C$160,'Операции по счетам'!$C$171,'Операции по счетам'!$C$181,'Операции по счетам'!$C$192,'Операции по счетам'!$C$203,'Операции по счетам'!$C$214,'Операции по счетам'!$C$225,'Операции по счетам'!$C$236,'Операции по счетам'!$C$247,'Операции по счетам'!$C$259</definedName>
     <definedName name="Сальдо_начальное">'Счета актива'!$K$17,'Счета актива'!$C$6,'Счета актива'!$C$17,'Счета актива'!$C$28,'Счета актива'!$C$39,'Счета актива'!$K$50,'Счета актива'!$C$50,'Счета актива'!$C$72,'Счета актива'!$C$83,'Счета актива'!$C$94,'Счета актива'!$C$105,'Счета актива'!$C$116,'Счета актива'!$C$127,'Счета актива'!$C$138,'Счета актива'!$C$149,'Счета актива'!$C$160,'Счета актива'!$C$171,'Счета актива'!$C$181,'Счета актива'!$C$192,'Счета актива'!$C$203,'Счета актива'!$C$214,'Счета актива'!$C$225,'Счета актива'!$C$236,'Счета актива'!$C$247,'Счета актива'!$C$258</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -9920,8 +9920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10069,8 +10069,12 @@
     <row r="18" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="178"/>
       <c r="C18" s="179"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="178"/>
+      <c r="D18" s="178">
+        <v>6</v>
+      </c>
+      <c r="E18" s="179">
+        <v>21400</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="176"/>
@@ -10136,8 +10140,12 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="178"/>
-      <c r="C29" s="179"/>
+      <c r="B29" s="178">
+        <v>6</v>
+      </c>
+      <c r="C29" s="179">
+        <v>21400</v>
+      </c>
       <c r="D29" s="193"/>
       <c r="E29" s="178"/>
     </row>
@@ -10432,8 +10440,12 @@
     <row r="73" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B73" s="178"/>
       <c r="C73" s="179"/>
-      <c r="D73" s="193"/>
-      <c r="E73" s="178"/>
+      <c r="D73" s="176">
+        <v>14</v>
+      </c>
+      <c r="E73" s="163">
+        <v>26750</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="176"/>
@@ -10519,8 +10531,12 @@
     <row r="84" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B84" s="178"/>
       <c r="C84" s="179"/>
-      <c r="D84" s="193"/>
-      <c r="E84" s="178"/>
+      <c r="D84" s="193">
+        <v>12</v>
+      </c>
+      <c r="E84" s="178">
+        <v>14980</v>
+      </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="176"/>
@@ -10650,7 +10666,7 @@
         <v>121</v>
       </c>
       <c r="C103" s="157">
-        <v>643</v>
+        <v>64</v>
       </c>
       <c r="D103" s="157"/>
       <c r="E103" s="156" t="s">
@@ -10685,16 +10701,24 @@
       </c>
     </row>
     <row r="106" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="178"/>
-      <c r="C106" s="179"/>
+      <c r="B106" s="178">
+        <v>3</v>
+      </c>
+      <c r="C106" s="179">
+        <v>17120</v>
+      </c>
       <c r="D106" s="193"/>
       <c r="E106" s="178"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="176"/>
       <c r="C107" s="163"/>
-      <c r="D107" s="177"/>
-      <c r="E107" s="176"/>
+      <c r="D107" s="176">
+        <v>10</v>
+      </c>
+      <c r="E107" s="163">
+        <v>6160</v>
+      </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="176"/>
@@ -10737,7 +10761,7 @@
         <v>121</v>
       </c>
       <c r="C114" s="157">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D114" s="157"/>
       <c r="E114" s="156" t="s">
@@ -10772,16 +10796,24 @@
       </c>
     </row>
     <row r="117" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="178"/>
-      <c r="C117" s="179"/>
+      <c r="B117" s="176">
+        <v>9</v>
+      </c>
+      <c r="C117" s="163">
+        <v>14450</v>
+      </c>
       <c r="D117" s="193"/>
       <c r="E117" s="178"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="176"/>
       <c r="C118" s="163"/>
-      <c r="D118" s="177"/>
-      <c r="E118" s="176"/>
+      <c r="D118" s="176">
+        <v>11</v>
+      </c>
+      <c r="E118" s="163">
+        <v>830</v>
+      </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="176"/>
@@ -10824,7 +10856,7 @@
         <v>121</v>
       </c>
       <c r="C125" s="157">
-        <v>660</v>
+        <v>66</v>
       </c>
       <c r="D125" s="157"/>
       <c r="E125" s="156" t="s">
@@ -10861,24 +10893,40 @@
     <row r="128" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B128" s="178"/>
       <c r="C128" s="179"/>
-      <c r="D128" s="193"/>
-      <c r="E128" s="178"/>
+      <c r="D128" s="193">
+        <v>5</v>
+      </c>
+      <c r="E128" s="163">
+        <v>29960</v>
+      </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="176"/>
-      <c r="C129" s="163"/>
+      <c r="B129" s="176">
+        <v>8</v>
+      </c>
+      <c r="C129" s="163">
+        <v>38520</v>
+      </c>
       <c r="D129" s="177"/>
       <c r="E129" s="176"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="176"/>
-      <c r="C130" s="163"/>
+      <c r="B130" s="176">
+        <v>10</v>
+      </c>
+      <c r="C130" s="163">
+        <v>6160</v>
+      </c>
       <c r="D130" s="177"/>
       <c r="E130" s="176"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="176"/>
-      <c r="C131" s="163"/>
+      <c r="B131" s="176">
+        <v>11</v>
+      </c>
+      <c r="C131" s="163">
+        <v>830</v>
+      </c>
       <c r="D131" s="177"/>
       <c r="E131" s="176"/>
     </row>
@@ -11030,10 +11078,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q278"/>
+  <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257:E257"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253:C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11430,8 +11478,8 @@
       <c r="A18" s="153"/>
       <c r="B18" s="178"/>
       <c r="C18" s="179"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="163"/>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
       <c r="H18" s="153"/>
@@ -11569,8 +11617,6 @@
       <c r="G25" s="153"/>
       <c r="H25" s="153"/>
       <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
       <c r="L25" s="153"/>
       <c r="M25" s="153"/>
       <c r="N25" s="153"/>
@@ -13274,8 +13320,12 @@
       <c r="A106" s="153"/>
       <c r="B106" s="178"/>
       <c r="C106" s="179"/>
-      <c r="D106" s="177"/>
-      <c r="E106" s="176"/>
+      <c r="D106" s="176">
+        <v>13</v>
+      </c>
+      <c r="E106" s="163">
+        <v>13370</v>
+      </c>
       <c r="F106" s="153"/>
       <c r="G106" s="153"/>
       <c r="H106" s="153"/>
@@ -13965,8 +14015,12 @@
       <c r="A139" s="153"/>
       <c r="B139" s="178"/>
       <c r="C139" s="179"/>
-      <c r="D139" s="177"/>
-      <c r="E139" s="176"/>
+      <c r="D139" s="178">
+        <v>7</v>
+      </c>
+      <c r="E139" s="179">
+        <v>68480</v>
+      </c>
       <c r="F139" s="153"/>
       <c r="G139" s="153"/>
       <c r="H139" s="153"/>
@@ -13982,8 +14036,12 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="153"/>
-      <c r="B140" s="176"/>
-      <c r="C140" s="163"/>
+      <c r="B140" s="193">
+        <v>12</v>
+      </c>
+      <c r="C140" s="178">
+        <v>14980</v>
+      </c>
       <c r="D140" s="177"/>
       <c r="E140" s="176"/>
       <c r="F140" s="153"/>
@@ -15318,8 +15376,12 @@
     </row>
     <row r="204" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A204" s="153"/>
-      <c r="B204" s="178"/>
-      <c r="C204" s="179"/>
+      <c r="B204" s="178">
+        <v>7</v>
+      </c>
+      <c r="C204" s="179">
+        <v>68480</v>
+      </c>
       <c r="D204" s="177"/>
       <c r="E204" s="176"/>
       <c r="F204" s="153"/>
@@ -15337,8 +15399,12 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="153"/>
-      <c r="B205" s="176"/>
-      <c r="C205" s="163"/>
+      <c r="B205" s="176">
+        <v>8</v>
+      </c>
+      <c r="C205" s="163">
+        <v>38520</v>
+      </c>
       <c r="D205" s="177"/>
       <c r="E205" s="176"/>
       <c r="F205" s="153"/>
@@ -15356,8 +15422,12 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="153"/>
-      <c r="B206" s="176"/>
-      <c r="C206" s="163"/>
+      <c r="B206" s="176">
+        <v>9</v>
+      </c>
+      <c r="C206" s="163">
+        <v>14450</v>
+      </c>
       <c r="D206" s="177"/>
       <c r="E206" s="176"/>
       <c r="F206" s="153"/>
@@ -15375,8 +15445,12 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="153"/>
-      <c r="B207" s="176"/>
-      <c r="C207" s="163"/>
+      <c r="B207" s="176">
+        <v>13</v>
+      </c>
+      <c r="C207" s="163">
+        <v>13370</v>
+      </c>
       <c r="D207" s="177"/>
       <c r="E207" s="176"/>
       <c r="F207" s="153"/>
@@ -16007,8 +16081,12 @@
       <c r="A237" s="153"/>
       <c r="B237" s="178"/>
       <c r="C237" s="179"/>
-      <c r="D237" s="177"/>
-      <c r="E237" s="176"/>
+      <c r="D237" s="177">
+        <v>4</v>
+      </c>
+      <c r="E237" s="163">
+        <v>29960</v>
+      </c>
       <c r="F237" s="153"/>
       <c r="G237" s="153"/>
       <c r="H237" s="153"/>
@@ -16262,8 +16340,12 @@
       <c r="A250" s="153"/>
       <c r="B250" s="176"/>
       <c r="C250" s="163"/>
-      <c r="D250" s="177"/>
-      <c r="E250" s="176"/>
+      <c r="D250" s="177">
+        <v>3</v>
+      </c>
+      <c r="E250" s="176">
+        <v>17120</v>
+      </c>
       <c r="F250" s="153"/>
       <c r="G250" s="153"/>
       <c r="H250" s="153"/>
@@ -16275,8 +16357,12 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="153"/>
-      <c r="B251" s="176"/>
-      <c r="C251" s="163"/>
+      <c r="B251" s="176">
+        <v>4</v>
+      </c>
+      <c r="C251" s="163">
+        <v>29960</v>
+      </c>
       <c r="D251" s="177"/>
       <c r="E251" s="176"/>
       <c r="F251" s="153"/>
@@ -16290,8 +16376,12 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="153"/>
-      <c r="B252" s="176"/>
-      <c r="C252" s="163"/>
+      <c r="B252" s="176">
+        <v>5</v>
+      </c>
+      <c r="C252" s="163">
+        <v>29960</v>
+      </c>
       <c r="D252" s="177"/>
       <c r="E252" s="176"/>
       <c r="F252" s="153"/>
@@ -16305,10 +16395,14 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="153"/>
-      <c r="B253" s="153"/>
-      <c r="C253" s="153"/>
-      <c r="D253" s="153"/>
-      <c r="E253" s="153"/>
+      <c r="B253" s="176">
+        <v>14</v>
+      </c>
+      <c r="C253" s="163">
+        <v>26750</v>
+      </c>
+      <c r="D253" s="177"/>
+      <c r="E253" s="176"/>
       <c r="F253" s="153"/>
       <c r="G253" s="153"/>
       <c r="H253" s="153"/>
@@ -16317,10 +16411,6 @@
       <c r="K253" s="153"/>
       <c r="L253" s="153"/>
       <c r="M253" s="153"/>
-      <c r="N253" s="153"/>
-      <c r="O253" s="153"/>
-      <c r="P253" s="153"/>
-      <c r="Q253" s="153"/>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="153"/>
@@ -16360,21 +16450,13 @@
       <c r="P255" s="153"/>
       <c r="Q255" s="153"/>
     </row>
-    <row r="256" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="153"/>
-      <c r="B256" s="156" t="s">
-        <v>121</v>
-      </c>
-      <c r="C256" s="168">
-        <v>361</v>
-      </c>
-      <c r="D256" s="169"/>
-      <c r="E256" s="156" t="s">
-        <v>122</v>
-      </c>
-      <c r="F256" s="153" t="s">
-        <v>147</v>
-      </c>
+      <c r="B256" s="153"/>
+      <c r="C256" s="153"/>
+      <c r="D256" s="153"/>
+      <c r="E256" s="153"/>
+      <c r="F256" s="153"/>
       <c r="G256" s="153"/>
       <c r="H256" s="153"/>
       <c r="I256" s="153"/>
@@ -16387,21 +16469,21 @@
       <c r="P256" s="153"/>
       <c r="Q256" s="153"/>
     </row>
-    <row r="257" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="153"/>
-      <c r="B257" s="172" t="s">
-        <v>157</v>
-      </c>
-      <c r="C257" s="171" t="s">
-        <v>158</v>
-      </c>
-      <c r="D257" s="172" t="s">
-        <v>157</v>
-      </c>
-      <c r="E257" s="171" t="s">
-        <v>158</v>
-      </c>
-      <c r="F257" s="153"/>
+      <c r="B257" s="156" t="s">
+        <v>121</v>
+      </c>
+      <c r="C257" s="168">
+        <v>361</v>
+      </c>
+      <c r="D257" s="169"/>
+      <c r="E257" s="156" t="s">
+        <v>122</v>
+      </c>
+      <c r="F257" s="153" t="s">
+        <v>147</v>
+      </c>
       <c r="G257" s="153"/>
       <c r="H257" s="153"/>
       <c r="I257" s="153"/>
@@ -16414,16 +16496,20 @@
       <c r="P257" s="153"/>
       <c r="Q257" s="153"/>
     </row>
-    <row r="258" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A258" s="153"/>
-      <c r="B258" s="180" t="s">
-        <v>118</v>
-      </c>
-      <c r="C258" s="181">
-        <v>99220</v>
-      </c>
-      <c r="D258" s="164"/>
-      <c r="E258" s="176"/>
+      <c r="B258" s="172" t="s">
+        <v>157</v>
+      </c>
+      <c r="C258" s="171" t="s">
+        <v>158</v>
+      </c>
+      <c r="D258" s="172" t="s">
+        <v>157</v>
+      </c>
+      <c r="E258" s="171" t="s">
+        <v>158</v>
+      </c>
       <c r="F258" s="153"/>
       <c r="G258" s="153"/>
       <c r="H258" s="153"/>
@@ -16437,16 +16523,16 @@
       <c r="P258" s="153"/>
       <c r="Q258" s="153"/>
     </row>
-    <row r="259" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="153"/>
-      <c r="B259" s="178"/>
-      <c r="C259" s="179"/>
-      <c r="D259" s="164">
-        <v>1</v>
-      </c>
-      <c r="E259" s="176">
-        <v>41300</v>
-      </c>
+      <c r="B259" s="180" t="s">
+        <v>118</v>
+      </c>
+      <c r="C259" s="181">
+        <v>99220</v>
+      </c>
+      <c r="D259" s="164"/>
+      <c r="E259" s="176"/>
       <c r="F259" s="153"/>
       <c r="G259" s="153"/>
       <c r="H259" s="153"/>
@@ -16460,12 +16546,16 @@
       <c r="P259" s="153"/>
       <c r="Q259" s="153"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A260" s="153"/>
-      <c r="B260" s="176"/>
-      <c r="C260" s="163"/>
-      <c r="D260" s="177"/>
-      <c r="E260" s="176"/>
+      <c r="B260" s="178"/>
+      <c r="C260" s="179"/>
+      <c r="D260" s="164">
+        <v>1</v>
+      </c>
+      <c r="E260" s="176">
+        <v>41300</v>
+      </c>
       <c r="F260" s="153"/>
       <c r="G260" s="153"/>
       <c r="H260" s="153"/>
@@ -16538,10 +16628,10 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="153"/>
-      <c r="B264" s="153"/>
-      <c r="C264" s="153"/>
-      <c r="D264" s="153"/>
-      <c r="E264" s="153"/>
+      <c r="B264" s="176"/>
+      <c r="C264" s="163"/>
+      <c r="D264" s="177"/>
+      <c r="E264" s="176"/>
       <c r="F264" s="153"/>
       <c r="G264" s="153"/>
       <c r="H264" s="153"/>
@@ -16574,7 +16664,7 @@
       <c r="P265" s="153"/>
       <c r="Q265" s="153"/>
     </row>
-    <row r="266" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="153"/>
       <c r="B266" s="153"/>
       <c r="C266" s="153"/>
@@ -16593,25 +16683,16 @@
       <c r="P266" s="153"/>
       <c r="Q266" s="153"/>
     </row>
-    <row r="267" spans="1:17" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="153"/>
-      <c r="B267" s="174" t="s">
-        <v>148</v>
-      </c>
-      <c r="C267" s="174"/>
-      <c r="D267" s="174"/>
-      <c r="E267" s="175">
-        <f>SUM(C6,C17,C28,K17,C39,C50,K50,C72,C83,C94,C105,C116,C127,C138,C149,C160,C171,C181,C192,C203,C214,C225,C236,C247,C258,C61)</f>
-        <v>1571830</v>
-      </c>
+      <c r="B267" s="153"/>
+      <c r="C267" s="153"/>
+      <c r="D267" s="153"/>
+      <c r="E267" s="153"/>
       <c r="F267" s="153"/>
-      <c r="G267" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="H267" s="98"/>
-      <c r="I267" s="98">
-        <v>1571830</v>
-      </c>
+      <c r="G267" s="153"/>
+      <c r="H267" s="153"/>
+      <c r="I267" s="153"/>
       <c r="J267" s="153"/>
       <c r="K267" s="153"/>
       <c r="L267" s="153"/>
@@ -16621,16 +16702,25 @@
       <c r="P267" s="153"/>
       <c r="Q267" s="153"/>
     </row>
-    <row r="268" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="153"/>
-      <c r="B268" s="153"/>
-      <c r="C268" s="153"/>
-      <c r="D268" s="153"/>
-      <c r="E268" s="153"/>
+      <c r="B268" s="174" t="s">
+        <v>148</v>
+      </c>
+      <c r="C268" s="174"/>
+      <c r="D268" s="174"/>
+      <c r="E268" s="175">
+        <f>SUM(C6,C17,C28,K17,C39,C50,K50,C72,C83,C94,C105,C116,C127,C138,C149,C160,C171,C181,C192,C203,C214,C225,C236,C247,C259,C61)</f>
+        <v>1571830</v>
+      </c>
       <c r="F268" s="153"/>
-      <c r="G268" s="153"/>
-      <c r="H268" s="153"/>
-      <c r="I268" s="153"/>
+      <c r="G268" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="H268" s="98"/>
+      <c r="I268" s="98">
+        <v>1571830</v>
+      </c>
       <c r="J268" s="153"/>
       <c r="K268" s="153"/>
       <c r="L268" s="153"/>
@@ -16640,21 +16730,16 @@
       <c r="P268" s="153"/>
       <c r="Q268" s="153"/>
     </row>
-    <row r="269" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A269" s="153"/>
       <c r="B269" s="153"/>
       <c r="C269" s="153"/>
       <c r="D269" s="153"/>
       <c r="E269" s="153"/>
       <c r="F269" s="153"/>
-      <c r="G269" s="187" t="s">
-        <v>160</v>
-      </c>
-      <c r="H269" s="188"/>
-      <c r="I269" s="176">
-        <f>I267-E267</f>
-        <v>0</v>
-      </c>
+      <c r="G269" s="153"/>
+      <c r="H269" s="153"/>
+      <c r="I269" s="153"/>
       <c r="J269" s="153"/>
       <c r="K269" s="153"/>
       <c r="L269" s="153"/>
@@ -16664,21 +16749,21 @@
       <c r="P269" s="153"/>
       <c r="Q269" s="153"/>
     </row>
-    <row r="270" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="153"/>
-      <c r="B270" s="152" t="s">
-        <v>150</v>
-      </c>
-      <c r="C270" s="152"/>
-      <c r="D270" s="175">
-        <f>SUM(C17,C28,C105,C61,K17,C6,C50,C39,K50)</f>
-        <v>392370</v>
-      </c>
+      <c r="B270" s="153"/>
+      <c r="C270" s="153"/>
+      <c r="D270" s="153"/>
       <c r="E270" s="153"/>
       <c r="F270" s="153"/>
-      <c r="G270" s="153"/>
-      <c r="H270" s="153"/>
-      <c r="I270" s="153"/>
+      <c r="G270" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="H270" s="188"/>
+      <c r="I270" s="176">
+        <f>I268-E268</f>
+        <v>0</v>
+      </c>
       <c r="J270" s="153"/>
       <c r="K270" s="153"/>
       <c r="L270" s="153"/>
@@ -16691,12 +16776,12 @@
     <row r="271" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="153"/>
       <c r="B271" s="152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C271" s="152"/>
       <c r="D271" s="175">
-        <f>SUM(C72,C160,C116)</f>
-        <v>113740</v>
+        <f>SUM(C17,C28,C105,C61,K17,C6,C50,C39,K50)</f>
+        <v>392370</v>
       </c>
       <c r="E271" s="153"/>
       <c r="F271" s="153"/>
@@ -16715,12 +16800,12 @@
     <row r="272" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="153"/>
       <c r="B272" s="152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C272" s="152"/>
       <c r="D272" s="175">
-        <f>SUM(C83,C94)</f>
-        <v>16050</v>
+        <f>SUM(C72,C160,C116)</f>
+        <v>113740</v>
       </c>
       <c r="E272" s="153"/>
       <c r="F272" s="153"/>
@@ -16739,12 +16824,12 @@
     <row r="273" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="153"/>
       <c r="B273" s="152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C273" s="152"/>
       <c r="D273" s="175">
-        <f>SUM(D270:D272)</f>
-        <v>522160</v>
+        <f>SUM(C83,C94)</f>
+        <v>16050</v>
       </c>
       <c r="E273" s="153"/>
       <c r="F273" s="153"/>
@@ -16763,12 +16848,12 @@
     <row r="274" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="153"/>
       <c r="B274" s="152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C274" s="152"/>
       <c r="D274" s="175">
-        <f>SUM(C149,C192,C203,C225,C181,C171,C214,C138)</f>
-        <v>786740</v>
+        <f>SUM(D271:D273)</f>
+        <v>522160</v>
       </c>
       <c r="E274" s="153"/>
       <c r="F274" s="153"/>
@@ -16787,12 +16872,12 @@
     <row r="275" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="153"/>
       <c r="B275" s="152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C275" s="152"/>
       <c r="D275" s="175">
-        <f>SUM(C247,C236)</f>
-        <v>150870</v>
+        <f>SUM(C149,C192,C203,C225,C181,C171,C214,C138)</f>
+        <v>786740</v>
       </c>
       <c r="E275" s="153"/>
       <c r="F275" s="153"/>
@@ -16811,12 +16896,12 @@
     <row r="276" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="153"/>
       <c r="B276" s="152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C276" s="152"/>
       <c r="D276" s="175">
-        <f>SUM(C258,C127)</f>
-        <v>112060</v>
+        <f>SUM(C247,C236)</f>
+        <v>150870</v>
       </c>
       <c r="E276" s="153"/>
       <c r="F276" s="153"/>
@@ -16832,11 +16917,16 @@
       <c r="P276" s="153"/>
       <c r="Q276" s="153"/>
     </row>
-    <row r="277" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="153"/>
-      <c r="B277" s="153"/>
-      <c r="C277" s="153"/>
-      <c r="D277" s="153"/>
+      <c r="B277" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C277" s="152"/>
+      <c r="D277" s="175">
+        <f>SUM(C259,C127)</f>
+        <v>112060</v>
+      </c>
       <c r="E277" s="153"/>
       <c r="F277" s="153"/>
       <c r="G277" s="153"/>
@@ -16851,7 +16941,7 @@
       <c r="P277" s="153"/>
       <c r="Q277" s="153"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A278" s="153"/>
       <c r="B278" s="153"/>
       <c r="C278" s="153"/>
@@ -16870,13 +16960,32 @@
       <c r="P278" s="153"/>
       <c r="Q278" s="153"/>
     </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A279" s="153"/>
+      <c r="B279" s="153"/>
+      <c r="C279" s="153"/>
+      <c r="D279" s="153"/>
+      <c r="E279" s="153"/>
+      <c r="F279" s="153"/>
+      <c r="G279" s="153"/>
+      <c r="H279" s="153"/>
+      <c r="I279" s="153"/>
+      <c r="J279" s="153"/>
+      <c r="K279" s="153"/>
+      <c r="L279" s="153"/>
+      <c r="M279" s="153"/>
+      <c r="N279" s="153"/>
+      <c r="O279" s="153"/>
+      <c r="P279" s="153"/>
+      <c r="Q279" s="153"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="C234:D234"/>
     <mergeCell ref="C245:D245"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="G269:H269"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="B268:D268"/>
+    <mergeCell ref="G270:H270"/>
     <mergeCell ref="C169:D169"/>
     <mergeCell ref="C179:D179"/>
     <mergeCell ref="C190:D190"/>

--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Актив" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Счета пассива" sheetId="12" r:id="rId5"/>
     <sheet name="Счета актива" sheetId="13" r:id="rId6"/>
     <sheet name="Счета актива с оборотом" sheetId="14" r:id="rId7"/>
+    <sheet name="Счета пассива с оборотом" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Сальдо_начальное" localSheetId="5">'Счета актива'!$K$15,'Счета актива'!$C$6,'Счета актива'!$C$15,'Счета актива'!$C$24,'Счета актива'!$C$33,'Счета актива'!$K$42,'Счета актива'!$C$42,'Счета актива'!$C$60,'Счета актива'!$C$69,'Счета актива'!$C$78,'Счета актива'!$C$87,'Счета актива'!$C$96,'Счета актива'!$C$105,'Счета актива'!$C$114,'Счета актива'!$C$124,'Счета актива'!$C$133,'Счета актива'!$C$142,'Счета актива'!$C$150,'Счета актива'!$C$159,'Счета актива'!$C$168,'Счета актива'!$C$180,'Счета актива'!$C$189,'Счета актива'!$C$198,'Счета актива'!$C$207,'Счета актива'!$C$221</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="180">
   <si>
     <t>ВСЕГО обязательств</t>
   </si>
@@ -10911,8 +10912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12845,4 +12846,744 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="154"/>
+    <col min="3" max="3" width="9.85546875" style="154" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="154" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="154"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="155" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="158">
+        <v>43</v>
+      </c>
+      <c r="D4" s="158"/>
+      <c r="E4" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="154" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="184"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="174">
+        <v>113420</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="171">
+        <v>6</v>
+      </c>
+      <c r="E7" s="172">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="160">
+        <f>SUM(C6:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="169">
+        <f>SUM(E7:E7)</f>
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="151">
+        <f>E6+E8-C8</f>
+        <v>134820</v>
+      </c>
+      <c r="D9" s="170"/>
+      <c r="E9" s="169"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="158">
+        <v>441</v>
+      </c>
+      <c r="D13" s="158"/>
+      <c r="E13" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="184"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="174">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="171">
+        <v>6</v>
+      </c>
+      <c r="C16" s="172">
+        <v>21400</v>
+      </c>
+      <c r="D16" s="186"/>
+      <c r="E16" s="171"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="160">
+        <f>SUM(C15:C16)</f>
+        <v>21400</v>
+      </c>
+      <c r="D17" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="169">
+        <f>SUM(E16:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="151">
+        <f>E15+E17-C17</f>
+        <v>32100</v>
+      </c>
+      <c r="D18" s="170"/>
+      <c r="E18" s="169"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="158">
+        <v>601</v>
+      </c>
+      <c r="D22" s="158"/>
+      <c r="E22" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="154" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="184"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="174">
+        <v>49220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="169">
+        <v>14</v>
+      </c>
+      <c r="E25" s="160">
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="160">
+        <f>SUM(C24:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="169">
+        <f>SUM(E25:E25)</f>
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="151">
+        <f>E24+E26-C26</f>
+        <v>75970</v>
+      </c>
+      <c r="D27" s="170"/>
+      <c r="E27" s="169"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="158">
+        <v>611</v>
+      </c>
+      <c r="D31" s="158"/>
+      <c r="E31" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="154" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="184"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="174">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="171"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="186">
+        <v>12</v>
+      </c>
+      <c r="E34" s="171">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="160">
+        <f>SUM(C33:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="169">
+        <f>SUM(E34:E34)</f>
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="151">
+        <f>E33+E35-C35</f>
+        <v>132680</v>
+      </c>
+      <c r="D36" s="170"/>
+      <c r="E36" s="169"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="158">
+        <v>64</v>
+      </c>
+      <c r="D40" s="158"/>
+      <c r="E40" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="154" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="184"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="174">
+        <v>102720</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="171">
+        <v>3</v>
+      </c>
+      <c r="C43" s="172">
+        <v>17120</v>
+      </c>
+      <c r="D43" s="186"/>
+      <c r="E43" s="171"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="169"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="169">
+        <v>10</v>
+      </c>
+      <c r="E44" s="160">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="160">
+        <f>SUM(C43:C44)</f>
+        <v>17120</v>
+      </c>
+      <c r="D45" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="169">
+        <f>SUM(E44:E44)</f>
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="151">
+        <f>E42+E45-C45</f>
+        <v>91760</v>
+      </c>
+      <c r="D46" s="170"/>
+      <c r="E46" s="169"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="152"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="152"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="158">
+        <v>650</v>
+      </c>
+      <c r="D50" s="158"/>
+      <c r="E50" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="154" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="184"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="174">
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="169">
+        <v>9</v>
+      </c>
+      <c r="C53" s="160">
+        <v>14450</v>
+      </c>
+      <c r="D53" s="186"/>
+      <c r="E53" s="171"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="169"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="169">
+        <v>11</v>
+      </c>
+      <c r="E54" s="160">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="160">
+        <f>SUM(C53:C54)</f>
+        <v>14450</v>
+      </c>
+      <c r="D55" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="169">
+        <f>SUM(E54:E54)</f>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="151">
+        <f>E52+E55-C55</f>
+        <v>2430</v>
+      </c>
+      <c r="D56" s="170"/>
+      <c r="E56" s="169"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="152"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="152"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="152"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="152"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="158">
+        <v>66</v>
+      </c>
+      <c r="D60" s="158"/>
+      <c r="E60" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="154" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="184"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="174">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="171"/>
+      <c r="C63" s="172"/>
+      <c r="D63" s="186">
+        <v>5</v>
+      </c>
+      <c r="E63" s="160">
+        <v>29960</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="169">
+        <v>8</v>
+      </c>
+      <c r="C64" s="160">
+        <v>38520</v>
+      </c>
+      <c r="D64" s="170"/>
+      <c r="E64" s="169"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="169">
+        <v>10</v>
+      </c>
+      <c r="C65" s="160">
+        <v>6160</v>
+      </c>
+      <c r="D65" s="170"/>
+      <c r="E65" s="169"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="169">
+        <v>11</v>
+      </c>
+      <c r="C66" s="160">
+        <v>830</v>
+      </c>
+      <c r="D66" s="170"/>
+      <c r="E66" s="169"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="160">
+        <f>SUM(C63:C66)</f>
+        <v>45510</v>
+      </c>
+      <c r="D67" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="169">
+        <f>SUM(E63:E66)</f>
+        <v>29960</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="151">
+        <f>E62+E67-C67</f>
+        <v>27250</v>
+      </c>
+      <c r="D68" s="170"/>
+      <c r="E68" s="169"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="189" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="190"/>
+      <c r="D72" s="191"/>
+      <c r="E72" s="168"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:6" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="188"/>
+      <c r="D75" s="195"/>
+    </row>
+    <row r="76" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="193" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="194"/>
+      <c r="D76" s="168"/>
+      <c r="E76" s="196"/>
+    </row>
+    <row r="77" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="192" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="192"/>
+      <c r="D77" s="192"/>
+      <c r="E77" s="168"/>
+      <c r="F77" s="197"/>
+    </row>
+    <row r="78" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Актив" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,13 @@
     <sheet name="баланс 2 (6)" sheetId="10" r:id="rId4"/>
     <sheet name="Счета пассива" sheetId="12" r:id="rId5"/>
     <sheet name="Счета актива" sheetId="13" r:id="rId6"/>
-    <sheet name="Счета актива с оборотом" sheetId="14" r:id="rId7"/>
-    <sheet name="Счета пассива с оборотом" sheetId="15" r:id="rId8"/>
+    <sheet name="Счета пассива с оборотом" sheetId="15" r:id="rId7"/>
+    <sheet name="Счета актива с оборотом" sheetId="14" r:id="rId8"/>
+    <sheet name="оборотная ведомость" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Сальдо_начальное" localSheetId="5">'Счета актива'!$K$15,'Счета актива'!$C$6,'Счета актива'!$C$15,'Счета актива'!$C$24,'Счета актива'!$C$33,'Счета актива'!$K$42,'Счета актива'!$C$42,'Счета актива'!$C$60,'Счета актива'!$C$69,'Счета актива'!$C$78,'Счета актива'!$C$87,'Счета актива'!$C$96,'Счета актива'!$C$105,'Счета актива'!$C$114,'Счета актива'!$C$124,'Счета актива'!$C$133,'Счета актива'!$C$142,'Счета актива'!$C$150,'Счета актива'!$C$159,'Счета актива'!$C$168,'Счета актива'!$C$180,'Счета актива'!$C$189,'Счета актива'!$C$198,'Счета актива'!$C$207,'Счета актива'!$C$221</definedName>
-    <definedName name="Сальдо_начальное" localSheetId="6">'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$6,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$15,'Счета актива с оборотом'!$C$24,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$34,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$46,'Счета актива с оборотом'!$C$55,'Счета актива с оборотом'!$C$69</definedName>
+    <definedName name="Сальдо_начальное" localSheetId="7">'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$6,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$15,'Счета актива с оборотом'!$C$24,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$34,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$56,'Счета актива с оборотом'!$C$65,'Счета актива с оборотом'!$C$79</definedName>
     <definedName name="Сальдо_начальное">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="189">
   <si>
     <t>ВСЕГО обязательств</t>
   </si>
@@ -566,6 +567,33 @@
   </si>
   <si>
     <t>Об =</t>
+  </si>
+  <si>
+    <t>№ счета</t>
+  </si>
+  <si>
+    <t>Название счета</t>
+  </si>
+  <si>
+    <t>Сальдо на начало</t>
+  </si>
+  <si>
+    <t>Оборот за период</t>
+  </si>
+  <si>
+    <t>Сальдо на конец</t>
+  </si>
+  <si>
+    <t>Дт</t>
+  </si>
+  <si>
+    <t>Кт</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Производство</t>
   </si>
 </sst>
 </file>
@@ -819,7 +847,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1335,11 +1363,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1868,6 +1956,102 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5357,8 +5541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q239"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H224" sqref="H224"/>
+    <sheetView topLeftCell="A168" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187:F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10910,10 +11094,736 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="B2:F78"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E18"/>
+    <sheetView topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="154"/>
+    <col min="3" max="3" width="9.85546875" style="154" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="154" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="154"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="155" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="158">
+        <v>43</v>
+      </c>
+      <c r="D4" s="158"/>
+      <c r="E4" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="154" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="184"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="174">
+        <v>113420</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="171">
+        <v>6</v>
+      </c>
+      <c r="C7" s="172">
+        <v>21400</v>
+      </c>
+      <c r="D7" s="171"/>
+      <c r="E7" s="172"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="160">
+        <f>SUM(C6:C7)</f>
+        <v>21400</v>
+      </c>
+      <c r="D8" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="169">
+        <f>SUM(E7:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="151">
+        <f>E6+E8-C8</f>
+        <v>92020</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="158">
+        <v>441</v>
+      </c>
+      <c r="D13" s="158"/>
+      <c r="E13" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="184"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="174">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="171">
+        <v>6</v>
+      </c>
+      <c r="E16" s="172">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="160">
+        <f>SUM(C15:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="169">
+        <f>SUM(E16:E16)</f>
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="151">
+        <f>E15+E17-C17</f>
+        <v>74900</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="158">
+        <v>601</v>
+      </c>
+      <c r="D22" s="158"/>
+      <c r="E22" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="154" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="184"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="174">
+        <v>49220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="169">
+        <v>14</v>
+      </c>
+      <c r="E25" s="160">
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="160">
+        <f>SUM(C24:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="169">
+        <f>SUM(E25:E25)</f>
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="151">
+        <f>E24+E26-C26</f>
+        <v>75970</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="158">
+        <v>611</v>
+      </c>
+      <c r="D31" s="158"/>
+      <c r="E31" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="154" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="184"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="174">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="171"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="186">
+        <v>12</v>
+      </c>
+      <c r="E34" s="171">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="160">
+        <f>SUM(C33:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="169">
+        <f>SUM(E34:E34)</f>
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="151">
+        <f>E33+E35-C35</f>
+        <v>132680</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="158">
+        <v>64</v>
+      </c>
+      <c r="D40" s="158"/>
+      <c r="E40" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="154" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="184"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="174">
+        <v>102720</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="171">
+        <v>3</v>
+      </c>
+      <c r="C43" s="172">
+        <v>17120</v>
+      </c>
+      <c r="D43" s="186"/>
+      <c r="E43" s="171"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="169"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="169">
+        <v>10</v>
+      </c>
+      <c r="E44" s="160">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="160">
+        <f>SUM(C43:C44)</f>
+        <v>17120</v>
+      </c>
+      <c r="D45" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="169">
+        <f>SUM(E44:E44)</f>
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="151">
+        <f>E42+E45-C45</f>
+        <v>91760</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="152"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="152"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="158">
+        <v>650</v>
+      </c>
+      <c r="D50" s="158"/>
+      <c r="E50" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="154" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="184"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="174">
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="169">
+        <v>9</v>
+      </c>
+      <c r="C53" s="160">
+        <v>14450</v>
+      </c>
+      <c r="D53" s="186"/>
+      <c r="E53" s="171"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="169"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="169">
+        <v>11</v>
+      </c>
+      <c r="E54" s="160">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="160">
+        <f>SUM(C53:C54)</f>
+        <v>14450</v>
+      </c>
+      <c r="D55" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="169">
+        <f>SUM(E54:E54)</f>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="151">
+        <f>E52+E55-C55</f>
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="152"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="152"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="152"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="152"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="158">
+        <v>66</v>
+      </c>
+      <c r="D60" s="158"/>
+      <c r="E60" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="154" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="165" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="184"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="174">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="171"/>
+      <c r="C63" s="172"/>
+      <c r="D63" s="186">
+        <v>5</v>
+      </c>
+      <c r="E63" s="160">
+        <v>29960</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="169">
+        <v>8</v>
+      </c>
+      <c r="C64" s="160">
+        <v>38520</v>
+      </c>
+      <c r="D64" s="170"/>
+      <c r="E64" s="169"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="169">
+        <v>10</v>
+      </c>
+      <c r="C65" s="160">
+        <v>6160</v>
+      </c>
+      <c r="D65" s="170"/>
+      <c r="E65" s="169"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="169">
+        <v>11</v>
+      </c>
+      <c r="C66" s="160">
+        <v>830</v>
+      </c>
+      <c r="D66" s="170"/>
+      <c r="E66" s="169"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="160">
+        <f>SUM(C63:C66)</f>
+        <v>45510</v>
+      </c>
+      <c r="D67" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="169">
+        <f>SUM(E63:E66)</f>
+        <v>29960</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="151">
+        <f>E62+E67-C67</f>
+        <v>27250</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="189" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="190"/>
+      <c r="D72" s="191"/>
+      <c r="E72" s="168"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:6" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="188"/>
+      <c r="D75" s="195"/>
+    </row>
+    <row r="76" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="193" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="194"/>
+      <c r="D76" s="168"/>
+      <c r="E76" s="196"/>
+    </row>
+    <row r="77" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="192" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="192"/>
+      <c r="D77" s="192"/>
+      <c r="E77" s="168"/>
+      <c r="F77" s="197"/>
+    </row>
+    <row r="78" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11587,7 +12497,7 @@
         <v>122</v>
       </c>
       <c r="F32" s="154" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="G32" s="154"/>
       <c r="H32" s="154"/>
@@ -11745,19 +12655,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="154"/>
-      <c r="B39" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="160">
-        <f>SUM(C35:C38)</f>
-        <v>134820</v>
-      </c>
-      <c r="D39" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="169">
-        <f>SUM(E37:E38)</f>
-        <v>0</v>
+      <c r="B39" s="169"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="169">
+        <v>15</v>
+      </c>
+      <c r="E39" s="160">
+        <v>64200</v>
       </c>
       <c r="F39" s="154"/>
       <c r="G39" s="154"/>
@@ -11775,14 +12679,18 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="154"/>
       <c r="B40" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="151">
-        <f>C37+C39-E39</f>
-        <v>149270</v>
-      </c>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
+        <v>179</v>
+      </c>
+      <c r="C40" s="160">
+        <f>SUM(C35:C39)</f>
+        <v>134820</v>
+      </c>
+      <c r="D40" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="160">
+        <v>64200</v>
+      </c>
       <c r="F40" s="154"/>
       <c r="G40" s="154"/>
       <c r="H40" s="154"/>
@@ -11798,10 +12706,15 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="154"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
+      <c r="B41" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="151">
+        <f>C37+C40-E40</f>
+        <v>85070</v>
+      </c>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
       <c r="F41" s="154"/>
       <c r="G41" s="154"/>
       <c r="H41" s="154"/>
@@ -11817,10 +12730,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="154"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="152"/>
+      <c r="B42" s="210"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
       <c r="F42" s="154"/>
       <c r="G42" s="154"/>
       <c r="H42" s="154"/>
@@ -11836,10 +12749,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="154"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
       <c r="F43" s="154"/>
       <c r="G43" s="154"/>
       <c r="H43" s="154"/>
@@ -11853,21 +12766,13 @@
       <c r="P43" s="154"/>
       <c r="Q43" s="154"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="154"/>
-      <c r="B44" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="163">
-        <v>301</v>
-      </c>
-      <c r="D44" s="164"/>
-      <c r="E44" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="154" t="s">
-        <v>145</v>
-      </c>
+      <c r="B44" s="210"/>
+      <c r="C44" s="198"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="198"/>
+      <c r="F44" s="154"/>
       <c r="G44" s="154"/>
       <c r="H44" s="154"/>
       <c r="I44" s="154"/>
@@ -11880,21 +12785,21 @@
       <c r="P44" s="154"/>
       <c r="Q44" s="154"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="154"/>
-      <c r="B45" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="F45" s="154"/>
+      <c r="B45" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="163">
+        <v>260</v>
+      </c>
+      <c r="D45" s="164"/>
+      <c r="E45" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="154" t="s">
+        <v>139</v>
+      </c>
       <c r="G45" s="154"/>
       <c r="H45" s="154"/>
       <c r="I45" s="154"/>
@@ -11907,16 +12812,20 @@
       <c r="P45" s="154"/>
       <c r="Q45" s="154"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="154"/>
-      <c r="B46" s="173" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="174">
-        <v>1070</v>
-      </c>
-      <c r="D46" s="161"/>
-      <c r="E46" s="98"/>
+      <c r="B46" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="165" t="s">
+        <v>158</v>
+      </c>
       <c r="F46" s="154"/>
       <c r="G46" s="154"/>
       <c r="H46" s="154"/>
@@ -11930,16 +12839,16 @@
       <c r="P46" s="154"/>
       <c r="Q46" s="154"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="154"/>
-      <c r="B47" s="170">
-        <v>4</v>
-      </c>
-      <c r="C47" s="160">
-        <v>29960</v>
-      </c>
-      <c r="D47" s="170"/>
-      <c r="E47" s="160"/>
+      <c r="B47" s="173" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="174">
+        <v>155150</v>
+      </c>
+      <c r="D47" s="161"/>
+      <c r="E47" s="98"/>
       <c r="F47" s="154"/>
       <c r="G47" s="154"/>
       <c r="H47" s="154"/>
@@ -11953,22 +12862,16 @@
       <c r="P47" s="154"/>
       <c r="Q47" s="154"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="154"/>
-      <c r="B48" s="200" t="s">
-        <v>179</v>
+      <c r="B48" s="169">
+        <v>15</v>
       </c>
       <c r="C48" s="160">
-        <f>SUM(C47)</f>
-        <v>29960</v>
-      </c>
-      <c r="D48" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="169">
-        <f>SUM(E47)</f>
-        <v>0</v>
-      </c>
+        <v>64200</v>
+      </c>
+      <c r="D48" s="169"/>
+      <c r="E48" s="160"/>
       <c r="F48" s="154"/>
       <c r="G48" s="154"/>
       <c r="H48" s="154"/>
@@ -11985,14 +12888,19 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="154"/>
       <c r="B49" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="151">
-        <f>C46+C48-E48</f>
-        <v>31030</v>
-      </c>
-      <c r="D49" s="198"/>
-      <c r="E49" s="198"/>
+        <v>179</v>
+      </c>
+      <c r="C49" s="160">
+        <f>C48</f>
+        <v>64200</v>
+      </c>
+      <c r="D49" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="169">
+        <f>SUM(E47:E48)</f>
+        <v>0</v>
+      </c>
       <c r="F49" s="154"/>
       <c r="G49" s="154"/>
       <c r="H49" s="154"/>
@@ -12008,10 +12916,15 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="154"/>
-      <c r="B50" s="154"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="154"/>
+      <c r="B50" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="151">
+        <f>C47+C49-E49</f>
+        <v>219350</v>
+      </c>
+      <c r="D50" s="198"/>
+      <c r="E50" s="198"/>
       <c r="F50" s="154"/>
       <c r="G50" s="154"/>
       <c r="H50" s="154"/>
@@ -12027,10 +12940,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="154"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
       <c r="F51" s="154"/>
       <c r="G51" s="154"/>
       <c r="H51" s="154"/>
@@ -12046,10 +12959,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="154"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="152"/>
       <c r="F52" s="154"/>
       <c r="G52" s="154"/>
       <c r="H52" s="154"/>
@@ -12063,21 +12976,13 @@
       <c r="P52" s="154"/>
       <c r="Q52" s="154"/>
     </row>
-    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="154"/>
-      <c r="B53" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="163">
-        <v>311</v>
-      </c>
-      <c r="D53" s="164"/>
-      <c r="E53" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="154" t="s">
-        <v>144</v>
-      </c>
+      <c r="B53" s="152"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="152"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="154"/>
       <c r="G53" s="154"/>
       <c r="H53" s="154"/>
       <c r="I53" s="154"/>
@@ -12085,22 +12990,26 @@
       <c r="K53" s="154"/>
       <c r="L53" s="154"/>
       <c r="M53" s="154"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N53" s="154"/>
+      <c r="O53" s="154"/>
+      <c r="P53" s="154"/>
+      <c r="Q53" s="154"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="154"/>
-      <c r="B54" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="F54" s="154"/>
+      <c r="B54" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="163">
+        <v>301</v>
+      </c>
+      <c r="D54" s="164"/>
+      <c r="E54" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="154" t="s">
+        <v>145</v>
+      </c>
       <c r="G54" s="154"/>
       <c r="H54" s="154"/>
       <c r="I54" s="154"/>
@@ -12108,17 +13017,25 @@
       <c r="K54" s="154"/>
       <c r="L54" s="154"/>
       <c r="M54" s="154"/>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N54" s="154"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="154"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="154"/>
-      <c r="B55" s="173" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="174">
-        <v>149800</v>
-      </c>
-      <c r="D55" s="161"/>
-      <c r="E55" s="98"/>
+      <c r="B55" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="165" t="s">
+        <v>158</v>
+      </c>
       <c r="F55" s="154"/>
       <c r="G55" s="154"/>
       <c r="H55" s="154"/>
@@ -12127,17 +13044,21 @@
       <c r="K55" s="154"/>
       <c r="L55" s="154"/>
       <c r="M55" s="154"/>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="179"/>
-      <c r="B56" s="177">
-        <v>1</v>
-      </c>
-      <c r="C56" s="178">
-        <v>41300</v>
-      </c>
-      <c r="D56" s="170"/>
-      <c r="E56" s="169"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="154"/>
+      <c r="P55" s="154"/>
+      <c r="Q55" s="154"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="154"/>
+      <c r="B56" s="173" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="174">
+        <v>1070</v>
+      </c>
+      <c r="D56" s="161"/>
+      <c r="E56" s="98"/>
       <c r="F56" s="154"/>
       <c r="G56" s="154"/>
       <c r="H56" s="154"/>
@@ -12146,17 +13067,21 @@
       <c r="K56" s="154"/>
       <c r="L56" s="154"/>
       <c r="M56" s="154"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N56" s="154"/>
+      <c r="O56" s="154"/>
+      <c r="P56" s="154"/>
+      <c r="Q56" s="154"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" s="154"/>
-      <c r="B57" s="171">
-        <v>2</v>
-      </c>
-      <c r="C57" s="172">
-        <v>3640</v>
+      <c r="B57" s="170">
+        <v>4</v>
+      </c>
+      <c r="C57" s="160">
+        <v>29960</v>
       </c>
       <c r="D57" s="170"/>
-      <c r="E57" s="169"/>
+      <c r="E57" s="160"/>
       <c r="F57" s="154"/>
       <c r="G57" s="154"/>
       <c r="H57" s="154"/>
@@ -12165,16 +13090,26 @@
       <c r="K57" s="154"/>
       <c r="L57" s="154"/>
       <c r="M57" s="154"/>
+      <c r="N57" s="154"/>
+      <c r="O57" s="154"/>
+      <c r="P57" s="154"/>
+      <c r="Q57" s="154"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="154"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="170">
-        <v>3</v>
+      <c r="B58" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="160">
+        <f>SUM(C57)</f>
+        <v>29960</v>
+      </c>
+      <c r="D58" s="200" t="s">
+        <v>179</v>
       </c>
       <c r="E58" s="169">
-        <v>17120</v>
+        <f>SUM(E57)</f>
+        <v>0</v>
       </c>
       <c r="F58" s="154"/>
       <c r="G58" s="154"/>
@@ -12184,17 +13119,22 @@
       <c r="K58" s="154"/>
       <c r="L58" s="154"/>
       <c r="M58" s="154"/>
+      <c r="N58" s="154"/>
+      <c r="O58" s="154"/>
+      <c r="P58" s="154"/>
+      <c r="Q58" s="154"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="154"/>
-      <c r="B59" s="169"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="169">
-        <v>4</v>
-      </c>
-      <c r="E59" s="160">
-        <v>29960</v>
-      </c>
+      <c r="B59" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="151">
+        <f>C56+C58-E58</f>
+        <v>31030</v>
+      </c>
+      <c r="D59" s="198"/>
+      <c r="E59" s="198"/>
       <c r="F59" s="154"/>
       <c r="G59" s="154"/>
       <c r="H59" s="154"/>
@@ -12203,17 +13143,17 @@
       <c r="K59" s="154"/>
       <c r="L59" s="154"/>
       <c r="M59" s="154"/>
+      <c r="N59" s="154"/>
+      <c r="O59" s="154"/>
+      <c r="P59" s="154"/>
+      <c r="Q59" s="154"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="154"/>
-      <c r="B60" s="169">
-        <v>5</v>
-      </c>
-      <c r="C60" s="160">
-        <v>29960</v>
-      </c>
-      <c r="D60" s="170"/>
-      <c r="E60" s="169"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
       <c r="F60" s="154"/>
       <c r="G60" s="154"/>
       <c r="H60" s="154"/>
@@ -12222,17 +13162,17 @@
       <c r="K60" s="154"/>
       <c r="L60" s="154"/>
       <c r="M60" s="154"/>
+      <c r="N60" s="154"/>
+      <c r="O60" s="154"/>
+      <c r="P60" s="154"/>
+      <c r="Q60" s="154"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="154"/>
-      <c r="B61" s="169">
-        <v>14</v>
-      </c>
-      <c r="C61" s="160">
-        <v>26750</v>
-      </c>
-      <c r="D61" s="170"/>
-      <c r="E61" s="169"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
       <c r="F61" s="154"/>
       <c r="G61" s="154"/>
       <c r="H61" s="154"/>
@@ -12241,23 +13181,17 @@
       <c r="K61" s="154"/>
       <c r="L61" s="154"/>
       <c r="M61" s="154"/>
+      <c r="N61" s="154"/>
+      <c r="O61" s="154"/>
+      <c r="P61" s="154"/>
+      <c r="Q61" s="154"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="154"/>
-      <c r="B62" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" s="160">
-        <f>SUM(C56:C61)</f>
-        <v>101650</v>
-      </c>
-      <c r="D62" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="169">
-        <f>SUM(E55:E61)</f>
-        <v>47080</v>
-      </c>
+      <c r="B62" s="154"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
       <c r="F62" s="154"/>
       <c r="G62" s="154"/>
       <c r="H62" s="154"/>
@@ -12266,19 +13200,26 @@
       <c r="K62" s="154"/>
       <c r="L62" s="154"/>
       <c r="M62" s="154"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N62" s="154"/>
+      <c r="O62" s="154"/>
+      <c r="P62" s="154"/>
+      <c r="Q62" s="154"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="154"/>
-      <c r="B63" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" s="151">
-        <f>C60+C62-E62</f>
-        <v>84530</v>
-      </c>
-      <c r="D63" s="198"/>
-      <c r="E63" s="198"/>
-      <c r="F63" s="154"/>
+      <c r="B63" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="163">
+        <v>311</v>
+      </c>
+      <c r="D63" s="164"/>
+      <c r="E63" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="154" t="s">
+        <v>144</v>
+      </c>
       <c r="G63" s="154"/>
       <c r="H63" s="154"/>
       <c r="I63" s="154"/>
@@ -12287,12 +13228,20 @@
       <c r="L63" s="154"/>
       <c r="M63" s="154"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A64" s="154"/>
-      <c r="B64" s="154"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="154"/>
+      <c r="B64" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="165" t="s">
+        <v>158</v>
+      </c>
       <c r="F64" s="154"/>
       <c r="G64" s="154"/>
       <c r="H64" s="154"/>
@@ -12301,17 +13250,17 @@
       <c r="K64" s="154"/>
       <c r="L64" s="154"/>
       <c r="M64" s="154"/>
-      <c r="N64" s="154"/>
-      <c r="O64" s="154"/>
-      <c r="P64" s="154"/>
-      <c r="Q64" s="154"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="154"/>
-      <c r="B65" s="154"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="154"/>
+      <c r="B65" s="173" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="174">
+        <v>149800</v>
+      </c>
+      <c r="D65" s="161"/>
+      <c r="E65" s="98"/>
       <c r="F65" s="154"/>
       <c r="G65" s="154"/>
       <c r="H65" s="154"/>
@@ -12320,17 +13269,17 @@
       <c r="K65" s="154"/>
       <c r="L65" s="154"/>
       <c r="M65" s="154"/>
-      <c r="N65" s="154"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="154"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="154"/>
-      <c r="B66" s="154"/>
-      <c r="C66" s="154"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="179"/>
+      <c r="B66" s="177">
+        <v>1</v>
+      </c>
+      <c r="C66" s="178">
+        <v>41300</v>
+      </c>
+      <c r="D66" s="170"/>
+      <c r="E66" s="169"/>
       <c r="F66" s="154"/>
       <c r="G66" s="154"/>
       <c r="H66" s="154"/>
@@ -12339,26 +13288,18 @@
       <c r="K66" s="154"/>
       <c r="L66" s="154"/>
       <c r="M66" s="154"/>
-      <c r="N66" s="154"/>
-      <c r="O66" s="154"/>
-      <c r="P66" s="154"/>
-      <c r="Q66" s="154"/>
-    </row>
-    <row r="67" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="154"/>
-      <c r="B67" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="163">
-        <v>361</v>
-      </c>
-      <c r="D67" s="164"/>
-      <c r="E67" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F67" s="154" t="s">
-        <v>147</v>
-      </c>
+      <c r="B67" s="171">
+        <v>2</v>
+      </c>
+      <c r="C67" s="172">
+        <v>3640</v>
+      </c>
+      <c r="D67" s="170"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="154"/>
       <c r="G67" s="154"/>
       <c r="H67" s="154"/>
       <c r="I67" s="154"/>
@@ -12366,24 +13307,16 @@
       <c r="K67" s="154"/>
       <c r="L67" s="154"/>
       <c r="M67" s="154"/>
-      <c r="N67" s="154"/>
-      <c r="O67" s="154"/>
-      <c r="P67" s="154"/>
-      <c r="Q67" s="154"/>
-    </row>
-    <row r="68" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="154"/>
-      <c r="B68" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E68" s="165" t="s">
-        <v>158</v>
+      <c r="B68" s="169"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="170">
+        <v>3</v>
+      </c>
+      <c r="E68" s="169">
+        <v>17120</v>
       </c>
       <c r="F68" s="154"/>
       <c r="G68" s="154"/>
@@ -12393,21 +13326,17 @@
       <c r="K68" s="154"/>
       <c r="L68" s="154"/>
       <c r="M68" s="154"/>
-      <c r="N68" s="154"/>
-      <c r="O68" s="154"/>
-      <c r="P68" s="154"/>
-      <c r="Q68" s="154"/>
-    </row>
-    <row r="69" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="154"/>
-      <c r="B69" s="173" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="174">
-        <v>99220</v>
-      </c>
-      <c r="D69" s="161"/>
-      <c r="E69" s="169"/>
+      <c r="B69" s="169"/>
+      <c r="C69" s="160"/>
+      <c r="D69" s="169">
+        <v>4</v>
+      </c>
+      <c r="E69" s="160">
+        <v>29960</v>
+      </c>
       <c r="F69" s="154"/>
       <c r="G69" s="154"/>
       <c r="H69" s="154"/>
@@ -12416,21 +13345,17 @@
       <c r="K69" s="154"/>
       <c r="L69" s="154"/>
       <c r="M69" s="154"/>
-      <c r="N69" s="154"/>
-      <c r="O69" s="154"/>
-      <c r="P69" s="154"/>
-      <c r="Q69" s="154"/>
-    </row>
-    <row r="70" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="154"/>
-      <c r="B70" s="171"/>
-      <c r="C70" s="172"/>
-      <c r="D70" s="161">
-        <v>1</v>
-      </c>
-      <c r="E70" s="169">
-        <v>41300</v>
-      </c>
+      <c r="B70" s="169">
+        <v>5</v>
+      </c>
+      <c r="C70" s="160">
+        <v>29960</v>
+      </c>
+      <c r="D70" s="170"/>
+      <c r="E70" s="169"/>
       <c r="F70" s="154"/>
       <c r="G70" s="154"/>
       <c r="H70" s="154"/>
@@ -12439,26 +13364,17 @@
       <c r="K70" s="154"/>
       <c r="L70" s="154"/>
       <c r="M70" s="154"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="154"/>
-      <c r="P70" s="154"/>
-      <c r="Q70" s="154"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="154"/>
-      <c r="B71" s="200" t="s">
-        <v>179</v>
+      <c r="B71" s="169">
+        <v>14</v>
       </c>
       <c r="C71" s="160">
-        <v>0</v>
-      </c>
-      <c r="D71" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" s="169">
-        <f>SUM(E70)</f>
-        <v>41300</v>
-      </c>
+        <v>26750</v>
+      </c>
+      <c r="D71" s="170"/>
+      <c r="E71" s="169"/>
       <c r="F71" s="154"/>
       <c r="G71" s="154"/>
       <c r="H71" s="154"/>
@@ -12467,22 +13383,23 @@
       <c r="K71" s="154"/>
       <c r="L71" s="154"/>
       <c r="M71" s="154"/>
-      <c r="N71" s="154"/>
-      <c r="O71" s="154"/>
-      <c r="P71" s="154"/>
-      <c r="Q71" s="154"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="154"/>
       <c r="B72" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" s="151">
-        <f>C69+C71-E71</f>
-        <v>57920</v>
-      </c>
-      <c r="D72" s="198"/>
-      <c r="E72" s="198"/>
+        <v>179</v>
+      </c>
+      <c r="C72" s="160">
+        <f>SUM(C66:C71)</f>
+        <v>101650</v>
+      </c>
+      <c r="D72" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" s="169">
+        <f>SUM(E65:E71)</f>
+        <v>47080</v>
+      </c>
       <c r="F72" s="154"/>
       <c r="G72" s="154"/>
       <c r="H72" s="154"/>
@@ -12491,17 +13408,18 @@
       <c r="K72" s="154"/>
       <c r="L72" s="154"/>
       <c r="M72" s="154"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="154"/>
-      <c r="P72" s="154"/>
-      <c r="Q72" s="154"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="154"/>
-      <c r="B73" s="154"/>
-      <c r="C73" s="154"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="154"/>
+      <c r="B73" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="151">
+        <f>C70+C72-E72</f>
+        <v>84530</v>
+      </c>
+      <c r="D73" s="198"/>
+      <c r="E73" s="198"/>
       <c r="F73" s="154"/>
       <c r="G73" s="154"/>
       <c r="H73" s="154"/>
@@ -12510,10 +13428,6 @@
       <c r="K73" s="154"/>
       <c r="L73" s="154"/>
       <c r="M73" s="154"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="154"/>
-      <c r="P73" s="154"/>
-      <c r="Q73" s="154"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="154"/>
@@ -12534,7 +13448,7 @@
       <c r="P74" s="154"/>
       <c r="Q74" s="154"/>
     </row>
-    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="154"/>
       <c r="B75" s="154"/>
       <c r="C75" s="154"/>
@@ -12553,25 +13467,16 @@
       <c r="P75" s="154"/>
       <c r="Q75" s="154"/>
     </row>
-    <row r="76" spans="1:17" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="154"/>
-      <c r="B76" s="167" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
-      <c r="E76" s="168" t="e">
-        <f>SUM(#REF!,C6,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,C15,C24,#REF!,#REF!,#REF!,#REF!,#REF!,C34,#REF!,#REF!,C46,C55,C69,#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B76" s="154"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="154"/>
+      <c r="E76" s="154"/>
       <c r="F76" s="154"/>
-      <c r="G76" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="H76" s="98"/>
-      <c r="I76" s="98">
-        <v>1571830</v>
-      </c>
+      <c r="G76" s="154"/>
+      <c r="H76" s="154"/>
+      <c r="I76" s="154"/>
       <c r="J76" s="154"/>
       <c r="K76" s="154"/>
       <c r="L76" s="154"/>
@@ -12581,13 +13486,21 @@
       <c r="P76" s="154"/>
       <c r="Q76" s="154"/>
     </row>
-    <row r="77" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="154"/>
-      <c r="B77" s="154"/>
-      <c r="C77" s="154"/>
-      <c r="D77" s="154"/>
-      <c r="E77" s="154"/>
-      <c r="F77" s="154"/>
+      <c r="B77" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="163">
+        <v>361</v>
+      </c>
+      <c r="D77" s="164"/>
+      <c r="E77" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="154" t="s">
+        <v>147</v>
+      </c>
       <c r="G77" s="154"/>
       <c r="H77" s="154"/>
       <c r="I77" s="154"/>
@@ -12600,21 +13513,24 @@
       <c r="P77" s="154"/>
       <c r="Q77" s="154"/>
     </row>
-    <row r="78" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="154"/>
-      <c r="B78" s="154"/>
-      <c r="C78" s="154"/>
-      <c r="D78" s="154"/>
-      <c r="E78" s="154"/>
+      <c r="B78" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" s="165" t="s">
+        <v>158</v>
+      </c>
       <c r="F78" s="154"/>
-      <c r="G78" s="180" t="s">
-        <v>160</v>
-      </c>
-      <c r="H78" s="181"/>
-      <c r="I78" s="169" t="e">
-        <f>I76-E76</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G78" s="154"/>
+      <c r="H78" s="154"/>
+      <c r="I78" s="154"/>
       <c r="J78" s="154"/>
       <c r="K78" s="154"/>
       <c r="L78" s="154"/>
@@ -12624,17 +13540,16 @@
       <c r="P78" s="154"/>
       <c r="Q78" s="154"/>
     </row>
-    <row r="79" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="154"/>
-      <c r="B79" s="153" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="153"/>
-      <c r="D79" s="168" t="e">
-        <f>SUM(C6,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E79" s="154"/>
+      <c r="B79" s="173" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="174">
+        <v>99220</v>
+      </c>
+      <c r="D79" s="161"/>
+      <c r="E79" s="169"/>
       <c r="F79" s="154"/>
       <c r="G79" s="154"/>
       <c r="H79" s="154"/>
@@ -12648,17 +13563,16 @@
       <c r="P79" s="154"/>
       <c r="Q79" s="154"/>
     </row>
-    <row r="80" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="154"/>
-      <c r="B80" s="153" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="153"/>
-      <c r="D80" s="168" t="e">
-        <f>SUM(#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E80" s="154"/>
+      <c r="B80" s="171"/>
+      <c r="C80" s="172"/>
+      <c r="D80" s="161">
+        <v>1</v>
+      </c>
+      <c r="E80" s="169">
+        <v>41300</v>
+      </c>
       <c r="F80" s="154"/>
       <c r="G80" s="154"/>
       <c r="H80" s="154"/>
@@ -12672,17 +13586,21 @@
       <c r="P80" s="154"/>
       <c r="Q80" s="154"/>
     </row>
-    <row r="81" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="154"/>
-      <c r="B81" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="153"/>
-      <c r="D81" s="168" t="e">
-        <f>SUM(#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E81" s="154"/>
+      <c r="B81" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="160">
+        <v>0</v>
+      </c>
+      <c r="D81" s="200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" s="169">
+        <f>SUM(E80)</f>
+        <v>41300</v>
+      </c>
       <c r="F81" s="154"/>
       <c r="G81" s="154"/>
       <c r="H81" s="154"/>
@@ -12696,17 +13614,17 @@
       <c r="P81" s="154"/>
       <c r="Q81" s="154"/>
     </row>
-    <row r="82" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="154"/>
-      <c r="B82" s="153" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="153"/>
-      <c r="D82" s="168" t="e">
-        <f>SUM(D79:D81)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E82" s="154"/>
+      <c r="B82" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="151">
+        <f>C79+C81-E81</f>
+        <v>57920</v>
+      </c>
+      <c r="D82" s="198"/>
+      <c r="E82" s="198"/>
       <c r="F82" s="154"/>
       <c r="G82" s="154"/>
       <c r="H82" s="154"/>
@@ -12720,16 +13638,11 @@
       <c r="P82" s="154"/>
       <c r="Q82" s="154"/>
     </row>
-    <row r="83" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="154"/>
-      <c r="B83" s="153" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="153"/>
-      <c r="D83" s="168" t="e">
-        <f>SUM(#REF!,#REF!,C34,#REF!,#REF!,#REF!,#REF!,C24)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B83" s="154"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
       <c r="E83" s="154"/>
       <c r="F83" s="154"/>
       <c r="G83" s="154"/>
@@ -12744,16 +13657,11 @@
       <c r="P83" s="154"/>
       <c r="Q83" s="154"/>
     </row>
-    <row r="84" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="154"/>
-      <c r="B84" s="153" t="s">
-        <v>155</v>
-      </c>
-      <c r="C84" s="153"/>
-      <c r="D84" s="168">
-        <f>SUM(C55,C46)</f>
-        <v>150870</v>
-      </c>
+      <c r="B84" s="154"/>
+      <c r="C84" s="154"/>
+      <c r="D84" s="154"/>
       <c r="E84" s="154"/>
       <c r="F84" s="154"/>
       <c r="G84" s="154"/>
@@ -12768,16 +13676,11 @@
       <c r="P84" s="154"/>
       <c r="Q84" s="154"/>
     </row>
-    <row r="85" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="154"/>
-      <c r="B85" s="153" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="153"/>
-      <c r="D85" s="168">
-        <f>SUM(C69,C15)</f>
-        <v>112060</v>
-      </c>
+      <c r="B85" s="154"/>
+      <c r="C85" s="154"/>
+      <c r="D85" s="154"/>
       <c r="E85" s="154"/>
       <c r="F85" s="154"/>
       <c r="G85" s="154"/>
@@ -12792,16 +13695,25 @@
       <c r="P85" s="154"/>
       <c r="Q85" s="154"/>
     </row>
-    <row r="86" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="154"/>
-      <c r="B86" s="154"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
+      <c r="B86" s="167" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="167"/>
+      <c r="D86" s="167"/>
+      <c r="E86" s="168" t="e">
+        <f>SUM(#REF!,C6,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,C15,C24,#REF!,#REF!,#REF!,#REF!,#REF!,C34,#REF!,#REF!,C56,C65,C79,#REF!)</f>
+        <v>#REF!</v>
+      </c>
       <c r="F86" s="154"/>
-      <c r="G86" s="154"/>
-      <c r="H86" s="154"/>
-      <c r="I86" s="154"/>
+      <c r="G86" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="H86" s="98"/>
+      <c r="I86" s="98">
+        <v>1571830</v>
+      </c>
       <c r="J86" s="154"/>
       <c r="K86" s="154"/>
       <c r="L86" s="154"/>
@@ -12811,7 +13723,7 @@
       <c r="P86" s="154"/>
       <c r="Q86" s="154"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A87" s="154"/>
       <c r="B87" s="154"/>
       <c r="C87" s="154"/>
@@ -12830,13 +13742,244 @@
       <c r="P87" s="154"/>
       <c r="Q87" s="154"/>
     </row>
+    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="154"/>
+      <c r="B88" s="154"/>
+      <c r="C88" s="154"/>
+      <c r="D88" s="154"/>
+      <c r="E88" s="154"/>
+      <c r="F88" s="154"/>
+      <c r="G88" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="H88" s="181"/>
+      <c r="I88" s="169" t="e">
+        <f>I86-E86</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J88" s="154"/>
+      <c r="K88" s="154"/>
+      <c r="L88" s="154"/>
+      <c r="M88" s="154"/>
+      <c r="N88" s="154"/>
+      <c r="O88" s="154"/>
+      <c r="P88" s="154"/>
+      <c r="Q88" s="154"/>
+    </row>
+    <row r="89" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="154"/>
+      <c r="B89" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="153"/>
+      <c r="D89" s="168" t="e">
+        <f>SUM(C6,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E89" s="154"/>
+      <c r="F89" s="154"/>
+      <c r="G89" s="154"/>
+      <c r="H89" s="154"/>
+      <c r="I89" s="154"/>
+      <c r="J89" s="154"/>
+      <c r="K89" s="154"/>
+      <c r="L89" s="154"/>
+      <c r="M89" s="154"/>
+      <c r="N89" s="154"/>
+      <c r="O89" s="154"/>
+      <c r="P89" s="154"/>
+      <c r="Q89" s="154"/>
+    </row>
+    <row r="90" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="154"/>
+      <c r="B90" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="153"/>
+      <c r="D90" s="168" t="e">
+        <f>SUM(#REF!,#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E90" s="154"/>
+      <c r="F90" s="154"/>
+      <c r="G90" s="154"/>
+      <c r="H90" s="154"/>
+      <c r="I90" s="154"/>
+      <c r="J90" s="154"/>
+      <c r="K90" s="154"/>
+      <c r="L90" s="154"/>
+      <c r="M90" s="154"/>
+      <c r="N90" s="154"/>
+      <c r="O90" s="154"/>
+      <c r="P90" s="154"/>
+      <c r="Q90" s="154"/>
+    </row>
+    <row r="91" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="154"/>
+      <c r="B91" s="153" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="153"/>
+      <c r="D91" s="168" t="e">
+        <f>SUM(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E91" s="154"/>
+      <c r="F91" s="154"/>
+      <c r="G91" s="154"/>
+      <c r="H91" s="154"/>
+      <c r="I91" s="154"/>
+      <c r="J91" s="154"/>
+      <c r="K91" s="154"/>
+      <c r="L91" s="154"/>
+      <c r="M91" s="154"/>
+      <c r="N91" s="154"/>
+      <c r="O91" s="154"/>
+      <c r="P91" s="154"/>
+      <c r="Q91" s="154"/>
+    </row>
+    <row r="92" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="154"/>
+      <c r="B92" s="153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" s="153"/>
+      <c r="D92" s="168" t="e">
+        <f>SUM(D89:D91)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E92" s="154"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="154"/>
+      <c r="H92" s="154"/>
+      <c r="I92" s="154"/>
+      <c r="J92" s="154"/>
+      <c r="K92" s="154"/>
+      <c r="L92" s="154"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="154"/>
+      <c r="O92" s="154"/>
+      <c r="P92" s="154"/>
+      <c r="Q92" s="154"/>
+    </row>
+    <row r="93" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="154"/>
+      <c r="B93" s="153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="153"/>
+      <c r="D93" s="168" t="e">
+        <f>SUM(#REF!,#REF!,C34,#REF!,#REF!,#REF!,#REF!,C24)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E93" s="154"/>
+      <c r="F93" s="154"/>
+      <c r="G93" s="154"/>
+      <c r="H93" s="154"/>
+      <c r="I93" s="154"/>
+      <c r="J93" s="154"/>
+      <c r="K93" s="154"/>
+      <c r="L93" s="154"/>
+      <c r="M93" s="154"/>
+      <c r="N93" s="154"/>
+      <c r="O93" s="154"/>
+      <c r="P93" s="154"/>
+      <c r="Q93" s="154"/>
+    </row>
+    <row r="94" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="154"/>
+      <c r="B94" s="153" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94" s="153"/>
+      <c r="D94" s="168">
+        <f>SUM(C65,C56)</f>
+        <v>150870</v>
+      </c>
+      <c r="E94" s="154"/>
+      <c r="F94" s="154"/>
+      <c r="G94" s="154"/>
+      <c r="H94" s="154"/>
+      <c r="I94" s="154"/>
+      <c r="J94" s="154"/>
+      <c r="K94" s="154"/>
+      <c r="L94" s="154"/>
+      <c r="M94" s="154"/>
+      <c r="N94" s="154"/>
+      <c r="O94" s="154"/>
+      <c r="P94" s="154"/>
+      <c r="Q94" s="154"/>
+    </row>
+    <row r="95" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="154"/>
+      <c r="B95" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="153"/>
+      <c r="D95" s="168">
+        <f>SUM(C79,C15)</f>
+        <v>112060</v>
+      </c>
+      <c r="E95" s="154"/>
+      <c r="F95" s="154"/>
+      <c r="G95" s="154"/>
+      <c r="H95" s="154"/>
+      <c r="I95" s="154"/>
+      <c r="J95" s="154"/>
+      <c r="K95" s="154"/>
+      <c r="L95" s="154"/>
+      <c r="M95" s="154"/>
+      <c r="N95" s="154"/>
+      <c r="O95" s="154"/>
+      <c r="P95" s="154"/>
+      <c r="Q95" s="154"/>
+    </row>
+    <row r="96" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="154"/>
+      <c r="B96" s="154"/>
+      <c r="C96" s="154"/>
+      <c r="D96" s="154"/>
+      <c r="E96" s="154"/>
+      <c r="F96" s="154"/>
+      <c r="G96" s="154"/>
+      <c r="H96" s="154"/>
+      <c r="I96" s="154"/>
+      <c r="J96" s="154"/>
+      <c r="K96" s="154"/>
+      <c r="L96" s="154"/>
+      <c r="M96" s="154"/>
+      <c r="N96" s="154"/>
+      <c r="O96" s="154"/>
+      <c r="P96" s="154"/>
+      <c r="Q96" s="154"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="154"/>
+      <c r="B97" s="154"/>
+      <c r="C97" s="154"/>
+      <c r="D97" s="154"/>
+      <c r="E97" s="154"/>
+      <c r="F97" s="154"/>
+      <c r="G97" s="154"/>
+      <c r="H97" s="154"/>
+      <c r="I97" s="154"/>
+      <c r="J97" s="154"/>
+      <c r="K97" s="154"/>
+      <c r="L97" s="154"/>
+      <c r="M97" s="154"/>
+      <c r="N97" s="154"/>
+      <c r="O97" s="154"/>
+      <c r="P97" s="154"/>
+      <c r="Q97" s="154"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="G78:H78"/>
+  <mergeCells count="11">
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C22:D22"/>
@@ -12848,742 +13991,509 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F78"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="154"/>
-    <col min="3" max="3" width="9.85546875" style="154" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="154" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="154"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="155" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="158">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="202" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="145" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="147"/>
+      <c r="G3" s="145" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="147"/>
+      <c r="I3" s="145" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="147"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="206" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="206" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="206" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="206" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="203">
+        <v>1</v>
+      </c>
+      <c r="C6" s="211">
+        <v>2</v>
+      </c>
+      <c r="D6" s="218">
+        <v>3</v>
+      </c>
+      <c r="E6" s="224">
+        <v>4</v>
+      </c>
+      <c r="F6" s="224">
+        <v>5</v>
+      </c>
+      <c r="G6" s="224">
+        <v>6</v>
+      </c>
+      <c r="H6" s="224">
+        <v>7</v>
+      </c>
+      <c r="I6" s="224">
+        <v>8</v>
+      </c>
+      <c r="J6" s="224">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="203">
+        <v>1</v>
+      </c>
+      <c r="C7" s="211">
+        <v>103</v>
+      </c>
+      <c r="D7" s="219" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="231">
+        <v>199020</v>
+      </c>
+      <c r="F7" s="232"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="232">
+        <v>13370</v>
+      </c>
+      <c r="I7" s="231">
+        <v>185650</v>
+      </c>
+      <c r="J7" s="232"/>
+    </row>
+    <row r="8" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="203">
+        <v>2</v>
+      </c>
+      <c r="C8" s="212">
+        <v>163</v>
+      </c>
+      <c r="D8" s="220" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="225">
+        <v>12840</v>
+      </c>
+      <c r="F8" s="229"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="228">
+        <f>SUM(H7:H7)</f>
+        <v>13370</v>
+      </c>
+      <c r="I8" s="227">
+        <v>9200</v>
+      </c>
+      <c r="J8" s="229"/>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="203">
+        <v>3</v>
+      </c>
+      <c r="C9" s="212">
+        <v>201</v>
+      </c>
+      <c r="D9" s="220" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="227">
+        <v>235400</v>
+      </c>
+      <c r="F9" s="229"/>
+      <c r="G9" s="225">
+        <v>14980</v>
+      </c>
+      <c r="H9" s="229">
+        <v>68480</v>
+      </c>
+      <c r="I9" s="227"/>
+      <c r="J9" s="229"/>
+    </row>
+    <row r="10" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="203">
+        <v>4</v>
+      </c>
+      <c r="C10" s="212">
+        <v>230</v>
+      </c>
+      <c r="D10" s="221" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="225">
+        <v>41880</v>
+      </c>
+      <c r="F10" s="229"/>
+      <c r="G10" s="225">
+        <v>134820</v>
+      </c>
+      <c r="H10" s="229">
+        <v>64200</v>
+      </c>
+      <c r="I10" s="227">
+        <v>85070</v>
+      </c>
+      <c r="J10" s="229"/>
+    </row>
+    <row r="11" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="203">
+        <v>5</v>
+      </c>
+      <c r="C11" s="212">
+        <v>260</v>
+      </c>
+      <c r="D11" s="222" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="225">
+        <v>155150</v>
+      </c>
+      <c r="F11" s="229"/>
+      <c r="G11" s="225">
+        <v>64200</v>
+      </c>
+      <c r="H11" s="228"/>
+      <c r="I11" s="227">
+        <v>219350</v>
+      </c>
+      <c r="J11" s="229"/>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="203">
+        <v>6</v>
+      </c>
+      <c r="C12" s="212">
+        <v>301</v>
+      </c>
+      <c r="D12" s="220" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="227">
+        <v>1070</v>
+      </c>
+      <c r="F12" s="229"/>
+      <c r="G12" s="227">
+        <v>29960</v>
+      </c>
+      <c r="H12" s="229"/>
+      <c r="I12" s="227">
+        <v>31030</v>
+      </c>
+      <c r="J12" s="229"/>
+    </row>
+    <row r="13" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="203">
+        <v>7</v>
+      </c>
+      <c r="C13" s="213">
+        <v>311</v>
+      </c>
+      <c r="D13" s="220" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="227">
+        <v>149800</v>
+      </c>
+      <c r="F13" s="229"/>
+      <c r="G13" s="225">
+        <f>SUM(G6:G12)</f>
+        <v>243966</v>
+      </c>
+      <c r="H13" s="229">
+        <v>47080</v>
+      </c>
+      <c r="I13" s="227">
+        <v>84530</v>
+      </c>
+      <c r="J13" s="229"/>
+    </row>
+    <row r="14" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="203">
+        <v>8</v>
+      </c>
+      <c r="C14" s="214">
+        <v>361</v>
+      </c>
+      <c r="D14" s="222" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="227">
+        <v>99220</v>
+      </c>
+      <c r="F14" s="229"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="229">
+        <v>41300</v>
+      </c>
+      <c r="I14" s="227">
+        <v>57920</v>
+      </c>
+      <c r="J14" s="229"/>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="203">
+        <v>9</v>
+      </c>
+      <c r="C15" s="215">
         <v>43</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="154" t="s">
+      <c r="D15" s="223" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="165" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="184"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="174">
+      <c r="E15" s="227"/>
+      <c r="F15" s="229">
         <v>113420</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="171">
-        <v>6</v>
-      </c>
-      <c r="E7" s="172">
+      <c r="G15" s="227">
         <v>21400</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="160">
-        <f>SUM(C6:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="169">
-        <f>SUM(E7:E7)</f>
+      <c r="H15" s="229"/>
+      <c r="I15" s="227"/>
+      <c r="J15" s="229">
+        <v>92020</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="203">
+        <v>10</v>
+      </c>
+      <c r="C16" s="215">
+        <v>441</v>
+      </c>
+      <c r="D16" s="221" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="227"/>
+      <c r="F16" s="229">
+        <v>53500</v>
+      </c>
+      <c r="G16" s="227"/>
+      <c r="H16" s="229">
         <v>21400</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="151">
-        <f>E6+E8-C8</f>
-        <v>134820</v>
-      </c>
-      <c r="D9" s="170"/>
-      <c r="E9" s="169"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="158">
-        <v>441</v>
-      </c>
-      <c r="D13" s="158"/>
-      <c r="E13" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="165" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="184"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="174">
-        <v>53500</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="171">
-        <v>6</v>
-      </c>
-      <c r="C16" s="172">
-        <v>21400</v>
-      </c>
-      <c r="D16" s="186"/>
-      <c r="E16" s="171"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="160">
-        <f>SUM(C15:C16)</f>
-        <v>21400</v>
-      </c>
-      <c r="D17" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="169">
-        <f>SUM(E16:E16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="151">
-        <f>E15+E17-C17</f>
-        <v>32100</v>
-      </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="169"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="158">
+      <c r="I16" s="227"/>
+      <c r="J16" s="229">
+        <v>74900</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="203">
+        <v>11</v>
+      </c>
+      <c r="C17" s="215">
         <v>601</v>
       </c>
-      <c r="D22" s="158"/>
-      <c r="E22" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="154" t="s">
+      <c r="D17" s="221" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="165" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="184"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="174">
+      <c r="E17" s="227"/>
+      <c r="F17" s="229">
         <v>49220</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="171"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="169">
+      <c r="G17" s="227"/>
+      <c r="H17" s="229">
+        <v>26750</v>
+      </c>
+      <c r="I17" s="227"/>
+      <c r="J17" s="229">
+        <v>75970</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="203">
+        <v>12</v>
+      </c>
+      <c r="C18" s="215">
+        <v>611</v>
+      </c>
+      <c r="D18" s="222" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="227"/>
+      <c r="F18" s="229">
+        <v>117700</v>
+      </c>
+      <c r="G18" s="227"/>
+      <c r="H18" s="229">
+        <v>14980</v>
+      </c>
+      <c r="I18" s="227"/>
+      <c r="J18" s="229">
+        <v>132680</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="203">
+        <v>13</v>
+      </c>
+      <c r="C19" s="215">
+        <v>64</v>
+      </c>
+      <c r="D19" s="222" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="227"/>
+      <c r="F19" s="229">
+        <v>102720</v>
+      </c>
+      <c r="G19" s="227">
+        <v>17120</v>
+      </c>
+      <c r="H19" s="229">
+        <v>6160</v>
+      </c>
+      <c r="I19" s="227"/>
+      <c r="J19" s="229">
+        <v>91760</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="203">
         <v>14</v>
       </c>
-      <c r="E25" s="160">
-        <v>26750</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="160">
-        <f>SUM(C24:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="169">
-        <f>SUM(E25:E25)</f>
-        <v>26750</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="151">
-        <f>E24+E26-C26</f>
-        <v>75970</v>
-      </c>
-      <c r="D27" s="170"/>
-      <c r="E27" s="169"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="158">
-        <v>611</v>
-      </c>
-      <c r="D31" s="158"/>
-      <c r="E31" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="154" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="165" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="184"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="174">
-        <v>117700</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="171"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="186">
-        <v>12</v>
-      </c>
-      <c r="E34" s="171">
-        <v>14980</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="160">
-        <f>SUM(C33:C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" s="169">
-        <f>SUM(E34:E34)</f>
-        <v>14980</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="151">
-        <f>E33+E35-C35</f>
-        <v>132680</v>
-      </c>
-      <c r="D36" s="170"/>
-      <c r="E36" s="169"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="152"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="158">
-        <v>64</v>
-      </c>
-      <c r="D40" s="158"/>
-      <c r="E40" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="165" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="184"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="174">
-        <v>102720</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="171">
-        <v>3</v>
-      </c>
-      <c r="C43" s="172">
-        <v>17120</v>
-      </c>
-      <c r="D43" s="186"/>
-      <c r="E43" s="171"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="169"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="169">
-        <v>10</v>
-      </c>
-      <c r="E44" s="160">
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="160">
-        <f>SUM(C43:C44)</f>
-        <v>17120</v>
-      </c>
-      <c r="D45" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="169">
-        <f>SUM(E44:E44)</f>
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="151">
-        <f>E42+E45-C45</f>
-        <v>91760</v>
-      </c>
-      <c r="D46" s="170"/>
-      <c r="E46" s="169"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="152"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="152"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="158">
+      <c r="C20" s="215">
         <v>650</v>
       </c>
-      <c r="D50" s="158"/>
-      <c r="E50" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="154" t="s">
+      <c r="D20" s="222" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="165" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="184"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" s="174">
+      <c r="E20" s="227"/>
+      <c r="F20" s="229">
         <v>16050</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="169">
-        <v>9</v>
-      </c>
-      <c r="C53" s="160">
+      <c r="G20" s="227">
         <v>14450</v>
       </c>
-      <c r="D53" s="186"/>
-      <c r="E53" s="171"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="169"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="169">
-        <v>11</v>
-      </c>
-      <c r="E54" s="160">
+      <c r="H20" s="229">
         <v>830</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="160">
-        <f>SUM(C53:C54)</f>
-        <v>14450</v>
-      </c>
-      <c r="D55" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="169">
-        <f>SUM(E54:E54)</f>
-        <v>830</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C56" s="151">
-        <f>E52+E55-C55</f>
+      <c r="I20" s="227"/>
+      <c r="J20" s="229">
         <v>2430</v>
       </c>
-      <c r="D56" s="170"/>
-      <c r="E56" s="169"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="152"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="152"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="152"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="152"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="152"/>
-      <c r="C59" s="152"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="152"/>
-    </row>
-    <row r="60" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="158">
+    </row>
+    <row r="21" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="203">
+        <v>15</v>
+      </c>
+      <c r="C21" s="215">
         <v>66</v>
       </c>
-      <c r="D60" s="158"/>
-      <c r="E60" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="154" t="s">
+      <c r="D21" s="222" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="166" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="165" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="184"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" s="174">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="171"/>
-      <c r="C63" s="172"/>
-      <c r="D63" s="186">
-        <v>5</v>
-      </c>
-      <c r="E63" s="160">
+      <c r="E21" s="227"/>
+      <c r="F21" s="229"/>
+      <c r="G21" s="227">
+        <v>45510</v>
+      </c>
+      <c r="H21" s="229">
         <v>29960</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="169">
-        <v>8</v>
-      </c>
-      <c r="C64" s="160">
-        <v>38520</v>
-      </c>
-      <c r="D64" s="170"/>
-      <c r="E64" s="169"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="169">
-        <v>10</v>
-      </c>
-      <c r="C65" s="160">
-        <v>6160</v>
-      </c>
-      <c r="D65" s="170"/>
-      <c r="E65" s="169"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="169">
-        <v>11</v>
-      </c>
-      <c r="C66" s="160">
-        <v>830</v>
-      </c>
-      <c r="D66" s="170"/>
-      <c r="E66" s="169"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="160">
-        <f>SUM(C63:C66)</f>
-        <v>45510</v>
-      </c>
-      <c r="D67" s="200" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" s="169">
-        <f>SUM(E63:E66)</f>
-        <v>29960</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" s="151">
-        <f>E62+E67-C67</f>
+      <c r="I21" s="227"/>
+      <c r="J21" s="229">
         <v>27250</v>
       </c>
-      <c r="D68" s="170"/>
-      <c r="E68" s="169"/>
-    </row>
-    <row r="71" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="189" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" s="190"/>
-      <c r="D72" s="191"/>
-      <c r="E72" s="168"/>
-    </row>
-    <row r="73" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:6" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="187" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="188"/>
-      <c r="D75" s="195"/>
-    </row>
-    <row r="76" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="193" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="194"/>
-      <c r="D76" s="168"/>
-      <c r="E76" s="196"/>
-    </row>
-    <row r="77" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="192" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="192"/>
-      <c r="D77" s="192"/>
-      <c r="E77" s="168"/>
-      <c r="F77" s="197"/>
-    </row>
-    <row r="78" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="204"/>
+      <c r="C22" s="207" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="207"/>
+      <c r="E22" s="217">
+        <f>SUM(E7:E21)</f>
+        <v>894380</v>
+      </c>
+      <c r="F22" s="208">
+        <f>SUM(F7:F21)</f>
+        <v>452610</v>
+      </c>
+      <c r="G22" s="230">
+        <f>SUM(G7:G21)</f>
+        <v>586406</v>
+      </c>
+      <c r="H22" s="209">
+        <f>SUM(H7:H21)</f>
+        <v>347880</v>
+      </c>
+      <c r="I22" s="217">
+        <f>SUM(I7:I21)</f>
+        <v>672750</v>
+      </c>
+      <c r="J22" s="208">
+        <f>SUM(J7:J21)</f>
+        <v>497010</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:D77"/>
+  <mergeCells count="13">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -12,13 +12,15 @@
     <sheet name="укрп баланс" sheetId="3" r:id="rId3"/>
     <sheet name="баланс 2 (6)" sheetId="10" r:id="rId4"/>
     <sheet name="Счета актива с оборотом" sheetId="14" r:id="rId5"/>
-    <sheet name="Счета актива" sheetId="13" r:id="rId6"/>
-    <sheet name="Счета пассива" sheetId="12" r:id="rId7"/>
-    <sheet name="Счета пассива с оборотом" sheetId="15" r:id="rId8"/>
+    <sheet name="Счета пассива с оборотом" sheetId="15" r:id="rId6"/>
+    <sheet name="Счета актива" sheetId="13" r:id="rId7"/>
+    <sheet name="Счета пассива" sheetId="12" r:id="rId8"/>
     <sheet name="оборотная ведомость" sheetId="16" r:id="rId9"/>
+    <sheet name="шахматная ведомость" sheetId="17" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="Сальдо_начальное" localSheetId="5">'Счета актива'!$C$24,'Счета актива'!$C$6,'Счета актива'!$C$15,'Счета актива'!$C$42,'Счета актива'!$C$56,'Счета актива'!$C$74,'Счета актива'!$C$65,'Счета актива'!$C$83,'Счета актива'!$C$92,'Счета актива'!$C$104,'Счета актива'!$C$113,'Счета актива'!$C$122,'Счета актива'!$C$131,'Счета актива'!$C$140,'Счета актива'!$C$154,'Счета актива'!$C$163,'Счета актива'!$C$172,'Счета актива'!$C$180,'Счета актива'!$C$189,'Счета актива'!$C$204,'Счета актива'!$C$216,'Счета актива'!$C$226,'Счета актива'!$C$234,'Счета актива'!$C$254,'Счета актива'!$C$268</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'шахматная ведомость'!$A$1:$S$19</definedName>
+    <definedName name="Сальдо_начальное" localSheetId="6">'Счета актива'!$C$24,'Счета актива'!$C$6,'Счета актива'!$C$15,'Счета актива'!$C$42,'Счета актива'!$C$56,'Счета актива'!$C$74,'Счета актива'!$C$65,'Счета актива'!$C$83,'Счета актива'!$C$92,'Счета актива'!$C$104,'Счета актива'!$C$113,'Счета актива'!$C$122,'Счета актива'!$C$131,'Счета актива'!$C$140,'Счета актива'!$C$154,'Счета актива'!$C$163,'Счета актива'!$C$172,'Счета актива'!$C$180,'Счета актива'!$C$189,'Счета актива'!$C$204,'Счета актива'!$C$216,'Счета актива'!$C$226,'Счета актива'!$C$234,'Счета актива'!$C$254,'Счета актива'!$C$268</definedName>
     <definedName name="Сальдо_начальное" localSheetId="4">'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$6,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$15,'Счета актива с оборотом'!$C$24,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$34,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!#REF!,'Счета актива с оборотом'!$C$56,'Счета актива с оборотом'!$C$65,'Счета актива с оборотом'!$C$79</definedName>
     <definedName name="Сальдо_начальное">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
   </definedNames>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="197">
   <si>
     <t>ВСЕГО обязательств</t>
   </si>
@@ -606,13 +608,25 @@
   </si>
   <si>
     <t>Всего Обк</t>
+  </si>
+  <si>
+    <t>разница</t>
+  </si>
+  <si>
+    <t>номер счета</t>
+  </si>
+  <si>
+    <t>дебет</t>
+  </si>
+  <si>
+    <t>кредит</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +810,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -877,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1484,6 +1507,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1630,11 +1666,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1984,228 +2044,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="12" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2220,18 +2061,6 @@
     </xf>
     <xf numFmtId="3" fontId="11" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2255,15 +2084,6 @@
     <xf numFmtId="3" fontId="11" fillId="13" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2273,7 +2093,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2282,57 +2102,39 @@
     <xf numFmtId="3" fontId="10" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2341,23 +2143,309 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="12" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="12" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="12" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2675,16 +2763,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="215" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
     </row>
     <row r="3" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="19">
@@ -2786,26 +2874,26 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="148"/>
+      <c r="I12" s="212"/>
       <c r="J12" s="18">
         <f>SUM(J3:J11)</f>
         <v>392370</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="214"/>
     </row>
     <row r="16" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="19">
@@ -2830,26 +2918,26 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H18" s="148" t="s">
+      <c r="H18" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="148"/>
+      <c r="I18" s="212"/>
       <c r="J18" s="3">
         <f>SUM(J16:J17)</f>
         <v>6740</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="214"/>
     </row>
     <row r="22" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H22" s="19">
@@ -2874,47 +2962,47 @@
       </c>
     </row>
     <row r="24" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H24" s="147" t="s">
+      <c r="H24" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="147"/>
+      <c r="I24" s="211"/>
       <c r="J24" s="3">
         <f>SUM(J22:J23)</f>
         <v>16050</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="144"/>
+      <c r="D28" s="208"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="209"/>
       <c r="J28" s="18">
         <f>J24+J18+J12</f>
         <v>415160</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="150" t="s">
+      <c r="C31" s="214" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="214"/>
     </row>
     <row r="32" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H32" s="19">
         <v>6</v>
       </c>
-      <c r="I32" s="254" t="s">
+      <c r="I32" s="169" t="s">
         <v>7</v>
       </c>
       <c r="J32" s="1">
@@ -2925,7 +3013,7 @@
       <c r="H33" s="19">
         <v>8</v>
       </c>
-      <c r="I33" s="254" t="s">
+      <c r="I33" s="169" t="s">
         <v>9</v>
       </c>
       <c r="J33" s="1">
@@ -2936,7 +3024,7 @@
       <c r="H34" s="19">
         <v>13</v>
       </c>
-      <c r="I34" s="254" t="s">
+      <c r="I34" s="169" t="s">
         <v>14</v>
       </c>
       <c r="J34" s="1">
@@ -2947,7 +3035,7 @@
       <c r="H35" s="19">
         <v>20</v>
       </c>
-      <c r="I35" s="254" t="s">
+      <c r="I35" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="1">
@@ -2958,10 +3046,10 @@
       <c r="H36" s="19">
         <v>25</v>
       </c>
-      <c r="I36" s="254" t="s">
+      <c r="I36" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="255">
+      <c r="J36" s="170">
         <v>107000</v>
       </c>
     </row>
@@ -2969,7 +3057,7 @@
       <c r="H37" s="19">
         <v>30</v>
       </c>
-      <c r="I37" s="254" t="s">
+      <c r="I37" s="169" t="s">
         <v>31</v>
       </c>
       <c r="J37" s="1">
@@ -2980,7 +3068,7 @@
       <c r="H38" s="19">
         <v>32</v>
       </c>
-      <c r="I38" s="254" t="s">
+      <c r="I38" s="169" t="s">
         <v>33</v>
       </c>
       <c r="J38" s="1">
@@ -2991,7 +3079,7 @@
       <c r="H39" s="19">
         <v>33</v>
       </c>
-      <c r="I39" s="254" t="s">
+      <c r="I39" s="169" t="s">
         <v>34</v>
       </c>
       <c r="J39" s="1">
@@ -3002,7 +3090,7 @@
       <c r="H40" s="19">
         <v>38</v>
       </c>
-      <c r="I40" s="254" t="s">
+      <c r="I40" s="169" t="s">
         <v>39</v>
       </c>
       <c r="J40" s="1">
@@ -3010,26 +3098,26 @@
       </c>
     </row>
     <row r="41" spans="3:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H41" s="256" t="s">
+      <c r="H41" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="256"/>
-      <c r="J41" s="257">
+      <c r="I41" s="210"/>
+      <c r="J41" s="171">
         <f>SUM(J32:J40)</f>
         <v>893740</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="149" t="s">
+      <c r="C44" s="213" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
+      <c r="D44" s="213"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="213"/>
+      <c r="J44" s="213"/>
     </row>
     <row r="45" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H45" s="19">
@@ -3054,26 +3142,26 @@
       </c>
     </row>
     <row r="47" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H47" s="145" t="s">
+      <c r="H47" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="146"/>
+      <c r="I47" s="217"/>
       <c r="J47" s="34">
         <f>SUM(J45:J46)</f>
         <v>150870</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="150" t="s">
+      <c r="C49" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="150"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="150"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="150"/>
+      <c r="D49" s="214"/>
+      <c r="E49" s="214"/>
+      <c r="F49" s="214"/>
+      <c r="G49" s="214"/>
+      <c r="H49" s="214"/>
+      <c r="I49" s="214"/>
+      <c r="J49" s="214"/>
     </row>
     <row r="50" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H50" s="19">
@@ -3098,40 +3186,40 @@
       </c>
     </row>
     <row r="52" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H52" s="145" t="s">
+      <c r="H52" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="I52" s="146"/>
+      <c r="I52" s="217"/>
       <c r="J52" s="34">
         <f>SUM(J50:J51)</f>
         <v>112060</v>
       </c>
     </row>
     <row r="56" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C56" s="152" t="s">
+      <c r="C56" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="152"/>
-      <c r="E56" s="152"/>
-      <c r="F56" s="152"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="152"/>
+      <c r="D56" s="218"/>
+      <c r="E56" s="218"/>
+      <c r="F56" s="218"/>
+      <c r="G56" s="218"/>
+      <c r="H56" s="218"/>
+      <c r="I56" s="218"/>
       <c r="J56" s="18">
         <f>J52+J47+J41</f>
         <v>1156670</v>
       </c>
     </row>
     <row r="58" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C58" s="141" t="s">
+      <c r="C58" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
-      <c r="G58" s="141"/>
-      <c r="H58" s="141"/>
-      <c r="I58" s="141"/>
+      <c r="D58" s="206"/>
+      <c r="E58" s="206"/>
+      <c r="F58" s="206"/>
+      <c r="G58" s="206"/>
+      <c r="H58" s="206"/>
+      <c r="I58" s="206"/>
       <c r="J58" s="18">
         <f>J56+J28</f>
         <v>1571830</v>
@@ -3160,6 +3248,974 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="195" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="72">
+        <v>103</v>
+      </c>
+      <c r="D2" s="72">
+        <v>163</v>
+      </c>
+      <c r="E2" s="72">
+        <v>201</v>
+      </c>
+      <c r="F2" s="72">
+        <v>23</v>
+      </c>
+      <c r="G2" s="72">
+        <v>26</v>
+      </c>
+      <c r="H2" s="72">
+        <v>301</v>
+      </c>
+      <c r="I2" s="72">
+        <v>311</v>
+      </c>
+      <c r="J2" s="72">
+        <v>361</v>
+      </c>
+      <c r="K2" s="72">
+        <v>43</v>
+      </c>
+      <c r="L2" s="72">
+        <v>441</v>
+      </c>
+      <c r="M2" s="72">
+        <v>601</v>
+      </c>
+      <c r="N2" s="72">
+        <v>611</v>
+      </c>
+      <c r="O2" s="72">
+        <v>64</v>
+      </c>
+      <c r="P2" s="72">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="72">
+        <v>661</v>
+      </c>
+      <c r="R2" s="205" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="72">
+        <v>103</v>
+      </c>
+      <c r="C3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="203" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="72">
+        <v>163</v>
+      </c>
+      <c r="C4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="203" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="72">
+        <v>201</v>
+      </c>
+      <c r="C5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="196">
+        <v>14980</v>
+      </c>
+      <c r="O5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="202">
+        <f t="shared" ref="R5:R17" si="0">SUM(C5:Q5)</f>
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="72">
+        <v>23</v>
+      </c>
+      <c r="C6" s="196">
+        <v>13370</v>
+      </c>
+      <c r="D6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="196">
+        <v>68480</v>
+      </c>
+      <c r="F6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="196">
+        <v>14450</v>
+      </c>
+      <c r="Q6" s="196">
+        <v>38520</v>
+      </c>
+      <c r="R6" s="202">
+        <f t="shared" si="0"/>
+        <v>134820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="72">
+        <v>26</v>
+      </c>
+      <c r="C7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="196">
+        <v>64200</v>
+      </c>
+      <c r="G7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="202">
+        <f t="shared" si="0"/>
+        <v>64200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="72">
+        <v>301</v>
+      </c>
+      <c r="C8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="196">
+        <v>29960</v>
+      </c>
+      <c r="J8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="202">
+        <f t="shared" si="0"/>
+        <v>29960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="72">
+        <v>311</v>
+      </c>
+      <c r="C9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="196">
+        <v>3640</v>
+      </c>
+      <c r="E9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="196">
+        <v>41300</v>
+      </c>
+      <c r="K9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="196">
+        <v>26750</v>
+      </c>
+      <c r="N9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="196">
+        <v>29960</v>
+      </c>
+      <c r="R9" s="202">
+        <f t="shared" si="0"/>
+        <v>101650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="72">
+        <v>361</v>
+      </c>
+      <c r="C10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="203" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="72">
+        <v>43</v>
+      </c>
+      <c r="C11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="196">
+        <v>21400</v>
+      </c>
+      <c r="M11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="202">
+        <f t="shared" si="0"/>
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="72">
+        <v>441</v>
+      </c>
+      <c r="C12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="203" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="72">
+        <v>601</v>
+      </c>
+      <c r="C13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="203" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="72">
+        <v>611</v>
+      </c>
+      <c r="C14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="203" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="72">
+        <v>641</v>
+      </c>
+      <c r="C15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="196">
+        <v>17120</v>
+      </c>
+      <c r="J15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="202">
+        <f t="shared" si="0"/>
+        <v>17120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="72">
+        <v>65</v>
+      </c>
+      <c r="C16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="203" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="72">
+        <v>661</v>
+      </c>
+      <c r="C17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="196">
+        <v>6160</v>
+      </c>
+      <c r="P17" s="196">
+        <v>830</v>
+      </c>
+      <c r="Q17" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="202">
+        <f t="shared" si="0"/>
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="205" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="202">
+        <f>SUM(C3:C17)</f>
+        <v>13370</v>
+      </c>
+      <c r="D18" s="202">
+        <f t="shared" ref="D18:Q18" si="1">SUM(D3:D17)</f>
+        <v>3640</v>
+      </c>
+      <c r="E18" s="202">
+        <f t="shared" si="1"/>
+        <v>68480</v>
+      </c>
+      <c r="F18" s="202">
+        <f t="shared" si="1"/>
+        <v>64200</v>
+      </c>
+      <c r="G18" s="202">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="202">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="202">
+        <f t="shared" si="1"/>
+        <v>47080</v>
+      </c>
+      <c r="J18" s="202">
+        <f t="shared" si="1"/>
+        <v>41300</v>
+      </c>
+      <c r="K18" s="202">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="202">
+        <f t="shared" si="1"/>
+        <v>21400</v>
+      </c>
+      <c r="M18" s="202">
+        <f t="shared" si="1"/>
+        <v>26750</v>
+      </c>
+      <c r="N18" s="202">
+        <f t="shared" si="1"/>
+        <v>14980</v>
+      </c>
+      <c r="O18" s="202">
+        <f t="shared" si="1"/>
+        <v>6160</v>
+      </c>
+      <c r="P18" s="202">
+        <f t="shared" si="1"/>
+        <v>15280</v>
+      </c>
+      <c r="Q18" s="202">
+        <f t="shared" si="1"/>
+        <v>68480</v>
+      </c>
+      <c r="R18" s="204">
+        <f>SUM(R3:R17)</f>
+        <v>391120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G46"/>
@@ -3179,14 +4235,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="36">
@@ -3299,23 +4355,23 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D14" s="148" t="s">
+      <c r="D14" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="148"/>
+      <c r="E14" s="212"/>
       <c r="F14" s="34">
         <f>SUM(F4:F13)</f>
         <v>883820</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="215"/>
     </row>
     <row r="19" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="47" t="s">
@@ -3332,10 +4388,10 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="148"/>
+      <c r="E20" s="212"/>
       <c r="F20" s="33">
         <f>SUM(F19)</f>
         <v>288900</v>
@@ -3423,10 +4479,10 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D31" s="148" t="s">
+      <c r="D31" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="148"/>
+      <c r="E31" s="212"/>
       <c r="F31" s="34">
         <f>SUM(F24:F30)</f>
         <v>354170</v>
@@ -3448,22 +4504,22 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D36" s="148" t="s">
+      <c r="D36" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="145"/>
+      <c r="E36" s="216"/>
       <c r="F36" s="33">
         <f>SUM(F35)</f>
         <v>44940</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B38" s="153" t="s">
+      <c r="B38" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
       <c r="F38" s="4">
         <f>F36+F31+F20</f>
         <v>688010</v>
@@ -3636,16 +4692,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74"/>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="158" t="s">
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="159"/>
-      <c r="G1" s="160"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
     </row>
     <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="75">
@@ -3770,11 +4826,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="226"/>
       <c r="D7" s="81">
         <v>522160</v>
       </c>
@@ -3846,11 +4902,11 @@
       <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="224" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="160"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="226"/>
       <c r="D11" s="82">
         <v>1049670</v>
       </c>
@@ -3876,53 +4932,53 @@
       <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="227" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="162"/>
-      <c r="C13" s="163"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
       <c r="D13" s="83">
         <f>SUM(D4:D6,D8:D10)</f>
         <v>1571830</v>
       </c>
-      <c r="E13" s="164">
+      <c r="E13" s="230">
         <f>SUM(G4:G8)</f>
         <v>1571830</v>
       </c>
-      <c r="F13" s="165"/>
-      <c r="G13" s="166"/>
+      <c r="F13" s="231"/>
+      <c r="G13" s="232"/>
     </row>
     <row r="16" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="173" t="s">
+      <c r="J16" s="239" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="176"/>
+      <c r="K16" s="242"/>
       <c r="L16" s="32">
         <f>SUM(K17,D5,D6,L17,M17,N17)</f>
         <v>1571830</v>
       </c>
-      <c r="N16" s="173" t="s">
+      <c r="N16" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="176"/>
+      <c r="O16" s="242"/>
       <c r="P16" s="32">
         <f>SUM(O17,G5,G6,P17)</f>
         <v>1571830</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="177" t="s">
+      <c r="A17" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="178"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="183" t="s">
+      <c r="B17" s="244"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="249" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="189" t="s">
+      <c r="E17" s="250"/>
+      <c r="F17" s="250"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="255" t="s">
         <v>43</v>
       </c>
       <c r="J17" s="72" t="s">
@@ -3954,14 +5010,14 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="180"/>
-      <c r="B18" s="181"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="190"/>
+      <c r="A18" s="246"/>
+      <c r="B18" s="247"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="252"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="253"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="256"/>
       <c r="J18" s="73"/>
       <c r="K18" s="91" t="s">
         <v>93</v>
@@ -3986,10 +5042,10 @@
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="167" t="s">
+      <c r="B19" s="233" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="170" t="s">
+      <c r="C19" s="236" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="59" t="s">
@@ -4004,7 +5060,7 @@
       <c r="G19" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="168"/>
+      <c r="H19" s="234"/>
       <c r="J19" s="72" t="s">
         <v>106</v>
       </c>
@@ -4036,8 +5092,8 @@
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="168"/>
-      <c r="C20" s="171"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="237"/>
       <c r="D20" s="59" t="s">
         <v>50</v>
       </c>
@@ -4050,23 +5106,23 @@
       <c r="G20" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="168"/>
+      <c r="H20" s="234"/>
       <c r="I20" s="98" t="str">
         <f>IF(L20=P20,"верно","!!!!!!!!!!!!!")</f>
         <v>верно</v>
       </c>
-      <c r="J20" s="173" t="s">
+      <c r="J20" s="239" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="174"/>
+      <c r="K20" s="240"/>
       <c r="L20" s="93">
         <f>SUM(K19,D5,D6,L19,M19,N19)</f>
         <v>1513510</v>
       </c>
-      <c r="N20" s="175" t="s">
+      <c r="N20" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="O20" s="174"/>
+      <c r="O20" s="240"/>
       <c r="P20" s="93">
         <f>SUM(O19,G5,G6,P19)</f>
         <v>1513510</v>
@@ -4076,13 +5132,13 @@
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="169"/>
-      <c r="C21" s="172"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
-      <c r="H21" s="169"/>
+      <c r="H21" s="235"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
       <c r="K21" s="94"/>
@@ -4699,12 +5755,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="259" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="107"/>
@@ -4716,10 +5772,10 @@
       <c r="B4" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="260">
         <v>103</v>
       </c>
-      <c r="D4" s="199"/>
+      <c r="D4" s="260"/>
       <c r="E4" s="108" t="s">
         <v>122</v>
       </c>
@@ -4792,10 +5848,10 @@
       <c r="B13" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="201">
+      <c r="C13" s="257">
         <v>163</v>
       </c>
-      <c r="D13" s="202"/>
+      <c r="D13" s="258"/>
       <c r="E13" s="108" t="s">
         <v>122</v>
       </c>
@@ -4867,10 +5923,10 @@
       <c r="B22" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="201">
+      <c r="C22" s="257">
         <v>201</v>
       </c>
-      <c r="D22" s="202"/>
+      <c r="D22" s="258"/>
       <c r="E22" s="108" t="s">
         <v>122</v>
       </c>
@@ -4965,10 +6021,10 @@
       <c r="B32" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="201">
+      <c r="C32" s="257">
         <v>23</v>
       </c>
-      <c r="D32" s="202"/>
+      <c r="D32" s="258"/>
       <c r="E32" s="108" t="s">
         <v>122</v>
       </c>
@@ -5098,10 +6154,10 @@
       <c r="B45" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="201">
+      <c r="C45" s="257">
         <v>260</v>
       </c>
-      <c r="D45" s="202"/>
+      <c r="D45" s="258"/>
       <c r="E45" s="108" t="s">
         <v>122</v>
       </c>
@@ -5192,10 +6248,10 @@
       <c r="B54" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="201">
+      <c r="C54" s="257">
         <v>301</v>
       </c>
-      <c r="D54" s="202"/>
+      <c r="D54" s="258"/>
       <c r="E54" s="108" t="s">
         <v>122</v>
       </c>
@@ -5268,10 +6324,10 @@
       <c r="B63" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="201">
+      <c r="C63" s="257">
         <v>311</v>
       </c>
-      <c r="D63" s="202"/>
+      <c r="D63" s="258"/>
       <c r="E63" s="108" t="s">
         <v>122</v>
       </c>
@@ -5395,10 +6451,10 @@
       <c r="B77" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="201">
+      <c r="C77" s="257">
         <v>361</v>
       </c>
-      <c r="D77" s="202"/>
+      <c r="D77" s="258"/>
       <c r="E77" s="108" t="s">
         <v>122</v>
       </c>
@@ -5470,7 +6526,7 @@
       <c r="A86" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="227">
+      <c r="B86" s="150">
         <f>SUM(C6,C15,C24,C34,C47,C56,C65,C79)</f>
         <v>894380</v>
       </c>
@@ -5479,7 +6535,7 @@
       <c r="A87" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="B87" s="227">
+      <c r="B87" s="150">
         <f>SUM(C9,C18,C28,C41,C50,C59,C73,C82)</f>
         <v>854650</v>
       </c>
@@ -5488,7 +6544,7 @@
       <c r="A88" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="B88" s="227">
+      <c r="B88" s="150">
         <f>SUM(C8,C17,C27,C40,C49,C58,C72,C81)</f>
         <v>345610</v>
       </c>
@@ -5497,15 +6553,13 @@
       <c r="A89" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B89" s="227">
+      <c r="B89" s="150">
         <f>SUM(E8,E17,E27,E39,E49,E58,E72,E81)</f>
         <v>238070</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="B2:E2"/>
@@ -5513,6 +6567,8 @@
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5521,9 +6577,735 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="106"/>
+    <col min="3" max="3" width="9.85546875" style="106" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="106"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="259" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="260">
+        <v>43</v>
+      </c>
+      <c r="D4" s="260"/>
+      <c r="E4" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="127"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="119">
+        <v>113420</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="116">
+        <v>6</v>
+      </c>
+      <c r="C7" s="117">
+        <v>21400</v>
+      </c>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="109">
+        <f>SUM(C6:C7)</f>
+        <v>21400</v>
+      </c>
+      <c r="D8" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="114">
+        <f>SUM(E7:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="109">
+        <f>E6+E8-C8</f>
+        <v>92020</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="260">
+        <v>441</v>
+      </c>
+      <c r="D13" s="260"/>
+      <c r="E13" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="127"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="119">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="116">
+        <v>6</v>
+      </c>
+      <c r="E16" s="117">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="109">
+        <f>SUM(C15:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="114">
+        <f>SUM(E16:E16)</f>
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="109">
+        <f>E15+E17-C17</f>
+        <v>74900</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="260">
+        <v>601</v>
+      </c>
+      <c r="D22" s="260"/>
+      <c r="E22" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="127"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="119">
+        <v>49220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="114">
+        <v>14</v>
+      </c>
+      <c r="E25" s="109">
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="109">
+        <f>SUM(C24:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="114">
+        <f>SUM(E25:E25)</f>
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="109">
+        <f>E24+E26-C26</f>
+        <v>75970</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="260">
+        <v>611</v>
+      </c>
+      <c r="D31" s="260"/>
+      <c r="E31" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="127"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="119">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="129">
+        <v>12</v>
+      </c>
+      <c r="E34" s="116">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="109">
+        <f>SUM(C33:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="114">
+        <f>SUM(E34:E34)</f>
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="109">
+        <f>E33+E35-C35</f>
+        <v>132680</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="260">
+        <v>641</v>
+      </c>
+      <c r="D40" s="260"/>
+      <c r="E40" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="127"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="119">
+        <v>102720</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="116">
+        <v>3</v>
+      </c>
+      <c r="C43" s="117">
+        <v>17120</v>
+      </c>
+      <c r="D43" s="129"/>
+      <c r="E43" s="116"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="114"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="114">
+        <v>10</v>
+      </c>
+      <c r="E44" s="109">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="109">
+        <f>SUM(C43:C44)</f>
+        <v>17120</v>
+      </c>
+      <c r="D45" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="114">
+        <f>SUM(E44:E44)</f>
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="109">
+        <f>E42+E45-C45</f>
+        <v>91760</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="260">
+        <v>650</v>
+      </c>
+      <c r="D50" s="260"/>
+      <c r="E50" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="106" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="127"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="119">
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="114"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="129">
+        <v>9</v>
+      </c>
+      <c r="E53" s="116">
+        <v>14450</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="114"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="114">
+        <v>11</v>
+      </c>
+      <c r="E54" s="109">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="109">
+        <f>SUM(C53:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="114">
+        <f>SUM(E53:E54)</f>
+        <v>15280</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="197">
+        <f>E52+E55-C55</f>
+        <v>31330</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="260">
+        <v>661</v>
+      </c>
+      <c r="D60" s="260"/>
+      <c r="E60" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="127"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="119">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="116"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="129">
+        <v>5</v>
+      </c>
+      <c r="E63" s="109">
+        <v>29960</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="114"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="114">
+        <v>8</v>
+      </c>
+      <c r="E64" s="109">
+        <v>38520</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="114">
+        <v>10</v>
+      </c>
+      <c r="C65" s="109">
+        <v>6160</v>
+      </c>
+      <c r="D65" s="115"/>
+      <c r="E65" s="114"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="114">
+        <v>11</v>
+      </c>
+      <c r="C66" s="109">
+        <v>830</v>
+      </c>
+      <c r="D66" s="115"/>
+      <c r="E66" s="114"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="109">
+        <f>SUM(C63:C66)</f>
+        <v>6990</v>
+      </c>
+      <c r="D67" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="114">
+        <f>SUM(E63:E66)</f>
+        <v>68480</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="109">
+        <f>E62+E67-C67</f>
+        <v>104290</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="269" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="270"/>
+      <c r="D72" s="271"/>
+      <c r="E72" s="113"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:6" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="267" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="268"/>
+      <c r="D75" s="130"/>
+    </row>
+    <row r="76" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="264" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="265"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="131"/>
+    </row>
+    <row r="77" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="266" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="266"/>
+      <c r="D77" s="266"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="132"/>
+    </row>
+    <row r="78" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:D77"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q286"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A186" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:E9"/>
     </sheetView>
   </sheetViews>
@@ -5554,12 +7336,12 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="106"/>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="259" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
       <c r="F2" s="106"/>
       <c r="G2" s="106"/>
       <c r="H2" s="106"/>
@@ -5597,10 +7379,10 @@
       <c r="B4" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="260">
         <v>101</v>
       </c>
-      <c r="D4" s="199"/>
+      <c r="D4" s="260"/>
       <c r="E4" s="108" t="s">
         <v>122</v>
       </c>
@@ -5654,8 +7436,8 @@
       <c r="C6" s="119">
         <v>28890</v>
       </c>
-      <c r="D6" s="260"/>
-      <c r="E6" s="261"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="175"/>
       <c r="F6" s="106"/>
       <c r="G6" s="106"/>
       <c r="H6" s="106"/>
@@ -5802,10 +7584,10 @@
       <c r="B13" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="260">
         <v>103</v>
       </c>
-      <c r="D13" s="199"/>
+      <c r="D13" s="260"/>
       <c r="E13" s="108" t="s">
         <v>122</v>
       </c>
@@ -5842,15 +7624,15 @@
       <c r="Q14" s="106"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="263"/>
-      <c r="B15" s="262" t="s">
+      <c r="A15" s="177"/>
+      <c r="B15" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="119">
         <v>199020</v>
       </c>
-      <c r="D15" s="260"/>
-      <c r="E15" s="264"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="178"/>
       <c r="F15" s="132"/>
       <c r="G15" s="106"/>
       <c r="H15" s="106"/>
@@ -5866,10 +7648,10 @@
       <c r="D16" s="116">
         <v>13</v>
       </c>
-      <c r="E16" s="266">
+      <c r="E16" s="180">
         <v>13370</v>
       </c>
-      <c r="F16" s="270"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="106"/>
       <c r="H16" s="106"/>
       <c r="I16" s="106"/>
@@ -5982,10 +7764,10 @@
       <c r="B22" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="199">
+      <c r="C22" s="260">
         <v>103</v>
       </c>
-      <c r="D22" s="199"/>
+      <c r="D22" s="260"/>
       <c r="E22" s="108" t="s">
         <v>122</v>
       </c>
@@ -6022,15 +7804,15 @@
       <c r="Q23" s="106"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="263"/>
-      <c r="B24" s="262" t="s">
+      <c r="A24" s="177"/>
+      <c r="B24" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="119">
         <v>42800</v>
       </c>
-      <c r="D24" s="265"/>
-      <c r="E24" s="261"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="175"/>
       <c r="F24" s="106"/>
       <c r="G24" s="106"/>
       <c r="H24" s="106"/>
@@ -6157,10 +7939,10 @@
       <c r="B31" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="199">
+      <c r="C31" s="260">
         <v>103</v>
       </c>
-      <c r="D31" s="199"/>
+      <c r="D31" s="260"/>
       <c r="E31" s="108" t="s">
         <v>122</v>
       </c>
@@ -6214,8 +7996,8 @@
       <c r="C33" s="119">
         <v>102720</v>
       </c>
-      <c r="D33" s="260"/>
-      <c r="E33" s="264"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="178"/>
       <c r="F33" s="132"/>
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
@@ -6360,10 +8142,10 @@
       <c r="B40" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="199">
+      <c r="C40" s="260">
         <v>104</v>
       </c>
-      <c r="D40" s="199"/>
+      <c r="D40" s="260"/>
       <c r="E40" s="108" t="s">
         <v>122</v>
       </c>
@@ -6410,15 +8192,15 @@
       <c r="Q41" s="106"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="263"/>
-      <c r="B42" s="262" t="s">
+      <c r="A42" s="177"/>
+      <c r="B42" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="119">
         <v>69550</v>
       </c>
-      <c r="D42" s="260"/>
-      <c r="E42" s="264"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="178"/>
       <c r="F42" s="132"/>
       <c r="G42" s="106"/>
       <c r="H42" s="106"/>
@@ -6660,10 +8442,10 @@
       <c r="B54" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="199">
+      <c r="C54" s="260">
         <v>105</v>
       </c>
-      <c r="D54" s="199"/>
+      <c r="D54" s="260"/>
       <c r="E54" s="108" t="s">
         <v>122</v>
       </c>
@@ -6717,8 +8499,8 @@
       <c r="C56" s="119">
         <v>57780</v>
       </c>
-      <c r="D56" s="260"/>
-      <c r="E56" s="264"/>
+      <c r="D56" s="174"/>
+      <c r="E56" s="178"/>
       <c r="F56" s="132"/>
       <c r="G56" s="106"/>
       <c r="H56" s="106"/>
@@ -6865,10 +8647,10 @@
       <c r="B63" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="199">
+      <c r="C63" s="260">
         <v>106</v>
       </c>
-      <c r="D63" s="199"/>
+      <c r="D63" s="260"/>
       <c r="E63" s="108" t="s">
         <v>122</v>
       </c>
@@ -6905,15 +8687,15 @@
       <c r="Q64" s="106"/>
     </row>
     <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="263"/>
-      <c r="B65" s="262" t="s">
+      <c r="A65" s="177"/>
+      <c r="B65" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C65" s="119">
         <v>16050</v>
       </c>
-      <c r="D65" s="260"/>
-      <c r="E65" s="264"/>
+      <c r="D65" s="174"/>
+      <c r="E65" s="178"/>
       <c r="F65" s="132"/>
       <c r="G65" s="106"/>
       <c r="H65" s="106"/>
@@ -7040,10 +8822,10 @@
       <c r="B72" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="199">
+      <c r="C72" s="260">
         <v>106</v>
       </c>
-      <c r="D72" s="199"/>
+      <c r="D72" s="260"/>
       <c r="E72" s="108" t="s">
         <v>122</v>
       </c>
@@ -7097,8 +8879,8 @@
       <c r="C74" s="119">
         <v>36060</v>
       </c>
-      <c r="D74" s="265"/>
-      <c r="E74" s="264"/>
+      <c r="D74" s="179"/>
+      <c r="E74" s="178"/>
       <c r="F74" s="132"/>
       <c r="G74" s="106"/>
       <c r="H74" s="106"/>
@@ -7245,10 +9027,10 @@
       <c r="B81" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="199">
+      <c r="C81" s="260">
         <v>112</v>
       </c>
-      <c r="D81" s="199"/>
+      <c r="D81" s="260"/>
       <c r="E81" s="108" t="s">
         <v>122</v>
       </c>
@@ -7295,15 +9077,15 @@
       <c r="Q82" s="106"/>
     </row>
     <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="263"/>
-      <c r="B83" s="262" t="s">
+      <c r="A83" s="177"/>
+      <c r="B83" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C83" s="119">
         <v>15300</v>
       </c>
-      <c r="D83" s="265"/>
-      <c r="E83" s="261"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="175"/>
       <c r="F83" s="106"/>
       <c r="G83" s="106"/>
       <c r="H83" s="106"/>
@@ -7450,10 +9232,10 @@
       <c r="B90" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="199">
+      <c r="C90" s="260">
         <v>120</v>
       </c>
-      <c r="D90" s="199"/>
+      <c r="D90" s="260"/>
       <c r="E90" s="108" t="s">
         <v>122</v>
       </c>
@@ -7507,8 +9289,8 @@
       <c r="C92" s="119">
         <v>19260</v>
       </c>
-      <c r="D92" s="260"/>
-      <c r="E92" s="264"/>
+      <c r="D92" s="174"/>
+      <c r="E92" s="178"/>
       <c r="F92" s="132"/>
       <c r="G92" s="106"/>
       <c r="H92" s="106"/>
@@ -7712,10 +9494,10 @@
       <c r="B102" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C102" s="199">
+      <c r="C102" s="260">
         <v>130</v>
       </c>
-      <c r="D102" s="199"/>
+      <c r="D102" s="260"/>
       <c r="E102" s="108" t="s">
         <v>122</v>
       </c>
@@ -7762,15 +9544,15 @@
       <c r="Q103" s="106"/>
     </row>
     <row r="104" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="263"/>
-      <c r="B104" s="262" t="s">
+      <c r="A104" s="177"/>
+      <c r="B104" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C104" s="119">
         <v>-3210</v>
       </c>
-      <c r="D104" s="260"/>
-      <c r="E104" s="264"/>
+      <c r="D104" s="174"/>
+      <c r="E104" s="178"/>
       <c r="F104" s="132"/>
       <c r="G104" s="106"/>
       <c r="H104" s="106"/>
@@ -7917,10 +9699,10 @@
       <c r="B111" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C111" s="201">
+      <c r="C111" s="257">
         <v>131</v>
       </c>
-      <c r="D111" s="202"/>
+      <c r="D111" s="258"/>
       <c r="E111" s="108" t="s">
         <v>122</v>
       </c>
@@ -7974,8 +9756,8 @@
       <c r="C113" s="119">
         <v>-160500</v>
       </c>
-      <c r="D113" s="260"/>
-      <c r="E113" s="264"/>
+      <c r="D113" s="174"/>
+      <c r="E113" s="178"/>
       <c r="F113" s="132"/>
       <c r="G113" s="106"/>
       <c r="H113" s="106"/>
@@ -7996,10 +9778,10 @@
       <c r="D114" s="116">
         <v>13</v>
       </c>
-      <c r="E114" s="266">
+      <c r="E114" s="180">
         <v>13370</v>
       </c>
-      <c r="F114" s="270"/>
+      <c r="F114" s="184"/>
       <c r="G114" s="106"/>
       <c r="H114" s="106"/>
       <c r="I114" s="106"/>
@@ -8126,10 +9908,10 @@
       <c r="B120" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="201">
+      <c r="C120" s="257">
         <v>132</v>
       </c>
-      <c r="D120" s="202"/>
+      <c r="D120" s="258"/>
       <c r="E120" s="108" t="s">
         <v>122</v>
       </c>
@@ -8183,8 +9965,8 @@
       <c r="C122" s="119">
         <v>-8560</v>
       </c>
-      <c r="D122" s="260"/>
-      <c r="E122" s="264"/>
+      <c r="D122" s="174"/>
+      <c r="E122" s="178"/>
       <c r="F122" s="132"/>
       <c r="G122" s="106"/>
       <c r="H122" s="106"/>
@@ -8331,10 +10113,10 @@
       <c r="B129" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C129" s="201">
+      <c r="C129" s="257">
         <v>163</v>
       </c>
-      <c r="D129" s="202"/>
+      <c r="D129" s="258"/>
       <c r="E129" s="108" t="s">
         <v>122</v>
       </c>
@@ -8381,15 +10163,15 @@
       <c r="Q130" s="106"/>
     </row>
     <row r="131" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="263"/>
-      <c r="B131" s="262" t="s">
+      <c r="A131" s="177"/>
+      <c r="B131" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C131" s="119">
         <v>12840</v>
       </c>
-      <c r="D131" s="260"/>
-      <c r="E131" s="261"/>
+      <c r="D131" s="174"/>
+      <c r="E131" s="175"/>
       <c r="F131" s="106"/>
       <c r="G131" s="106"/>
       <c r="H131" s="106"/>
@@ -8540,10 +10322,10 @@
       <c r="B138" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C138" s="201">
+      <c r="C138" s="257">
         <v>201</v>
       </c>
-      <c r="D138" s="202"/>
+      <c r="D138" s="258"/>
       <c r="E138" s="108" t="s">
         <v>122</v>
       </c>
@@ -8597,8 +10379,8 @@
       <c r="C140" s="119">
         <v>235400</v>
       </c>
-      <c r="D140" s="260"/>
-      <c r="E140" s="261"/>
+      <c r="D140" s="174"/>
+      <c r="E140" s="175"/>
       <c r="F140" s="106"/>
       <c r="G140" s="106"/>
       <c r="H140" s="106"/>
@@ -8640,10 +10422,10 @@
       <c r="B142" s="129">
         <v>12</v>
       </c>
-      <c r="C142" s="266">
+      <c r="C142" s="180">
         <v>14980</v>
       </c>
-      <c r="D142" s="267"/>
+      <c r="D142" s="181"/>
       <c r="E142" s="114"/>
       <c r="F142" s="106"/>
       <c r="G142" s="106"/>
@@ -8849,10 +10631,10 @@
       <c r="B152" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C152" s="201">
+      <c r="C152" s="257">
         <v>203</v>
       </c>
-      <c r="D152" s="202"/>
+      <c r="D152" s="258"/>
       <c r="E152" s="108" t="s">
         <v>122</v>
       </c>
@@ -8906,8 +10688,8 @@
       <c r="C154" s="119">
         <v>84670</v>
       </c>
-      <c r="D154" s="260"/>
-      <c r="E154" s="264"/>
+      <c r="D154" s="174"/>
+      <c r="E154" s="178"/>
       <c r="F154" s="132"/>
       <c r="G154" s="106"/>
       <c r="H154" s="106"/>
@@ -9055,10 +10837,10 @@
       <c r="B161" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C161" s="201">
+      <c r="C161" s="257">
         <v>204</v>
       </c>
-      <c r="D161" s="202"/>
+      <c r="D161" s="258"/>
       <c r="E161" s="108" t="s">
         <v>122</v>
       </c>
@@ -9105,15 +10887,15 @@
       <c r="Q162" s="106"/>
     </row>
     <row r="163" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="263"/>
-      <c r="B163" s="262" t="s">
+      <c r="A163" s="177"/>
+      <c r="B163" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C163" s="119">
         <v>107000</v>
       </c>
-      <c r="D163" s="260"/>
-      <c r="E163" s="264"/>
+      <c r="D163" s="174"/>
+      <c r="E163" s="178"/>
       <c r="F163" s="132"/>
       <c r="G163" s="106"/>
       <c r="H163" s="106"/>
@@ -9261,10 +11043,10 @@
       <c r="B170" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C170" s="201">
+      <c r="C170" s="257">
         <v>205</v>
       </c>
-      <c r="D170" s="202"/>
+      <c r="D170" s="258"/>
       <c r="E170" s="108" t="s">
         <v>122</v>
       </c>
@@ -9318,8 +11100,8 @@
       <c r="C172" s="119">
         <v>69550</v>
       </c>
-      <c r="D172" s="260"/>
-      <c r="E172" s="261"/>
+      <c r="D172" s="174"/>
+      <c r="E172" s="175"/>
       <c r="F172" s="106"/>
       <c r="G172" s="106"/>
       <c r="H172" s="106"/>
@@ -9448,10 +11230,10 @@
       <c r="B178" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C178" s="201">
+      <c r="C178" s="257">
         <v>207</v>
       </c>
-      <c r="D178" s="202"/>
+      <c r="D178" s="258"/>
       <c r="E178" s="108" t="s">
         <v>122</v>
       </c>
@@ -9498,15 +11280,15 @@
       <c r="Q179" s="106"/>
     </row>
     <row r="180" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="263"/>
+      <c r="A180" s="177"/>
       <c r="B180" s="126" t="s">
         <v>118</v>
       </c>
       <c r="C180" s="119">
         <v>80250</v>
       </c>
-      <c r="D180" s="265"/>
-      <c r="E180" s="261"/>
+      <c r="D180" s="179"/>
+      <c r="E180" s="175"/>
       <c r="F180" s="106"/>
       <c r="G180" s="106"/>
       <c r="H180" s="106"/>
@@ -9654,10 +11436,10 @@
       <c r="B187" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C187" s="201">
+      <c r="C187" s="257">
         <v>220</v>
       </c>
-      <c r="D187" s="202"/>
+      <c r="D187" s="258"/>
       <c r="E187" s="108" t="s">
         <v>122</v>
       </c>
@@ -9704,15 +11486,15 @@
       <c r="Q188" s="106"/>
     </row>
     <row r="189" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="263"/>
+      <c r="A189" s="177"/>
       <c r="B189" s="126" t="s">
         <v>118</v>
       </c>
       <c r="C189" s="119">
         <v>23540</v>
       </c>
-      <c r="D189" s="260"/>
-      <c r="E189" s="264"/>
+      <c r="D189" s="174"/>
+      <c r="E189" s="178"/>
       <c r="F189" s="132"/>
       <c r="G189" s="106"/>
       <c r="H189" s="106"/>
@@ -9974,10 +11756,10 @@
       <c r="B202" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C202" s="201">
+      <c r="C202" s="257">
         <v>230</v>
       </c>
-      <c r="D202" s="202"/>
+      <c r="D202" s="258"/>
       <c r="E202" s="108" t="s">
         <v>122</v>
       </c>
@@ -10031,8 +11813,8 @@
       <c r="C204" s="119">
         <v>41880</v>
       </c>
-      <c r="D204" s="260"/>
-      <c r="E204" s="264"/>
+      <c r="D204" s="174"/>
+      <c r="E204" s="178"/>
       <c r="F204" s="132"/>
       <c r="G204" s="106"/>
       <c r="H204" s="106"/>
@@ -10256,10 +12038,10 @@
       <c r="B214" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C214" s="201">
+      <c r="C214" s="257">
         <v>250</v>
       </c>
-      <c r="D214" s="202"/>
+      <c r="D214" s="258"/>
       <c r="E214" s="108" t="s">
         <v>122</v>
       </c>
@@ -10306,15 +12088,15 @@
       <c r="Q215" s="106"/>
     </row>
     <row r="216" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="263"/>
-      <c r="B216" s="262" t="s">
+      <c r="A216" s="177"/>
+      <c r="B216" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C216" s="119">
         <v>96300</v>
       </c>
-      <c r="D216" s="260"/>
-      <c r="E216" s="261"/>
+      <c r="D216" s="174"/>
+      <c r="E216" s="175"/>
       <c r="F216" s="106"/>
       <c r="G216" s="106"/>
       <c r="H216" s="106"/>
@@ -10462,10 +12244,10 @@
       <c r="B223" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C223" s="201">
+      <c r="C223" s="257">
         <v>260</v>
       </c>
-      <c r="D223" s="202"/>
+      <c r="D223" s="258"/>
       <c r="E223" s="108" t="s">
         <v>122</v>
       </c>
@@ -10512,15 +12294,15 @@
       <c r="Q224" s="106"/>
     </row>
     <row r="225" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="263"/>
-      <c r="B225" s="262" t="s">
+      <c r="A225" s="177"/>
+      <c r="B225" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C225" s="119">
         <v>155150</v>
       </c>
-      <c r="D225" s="268"/>
-      <c r="E225" s="269"/>
+      <c r="D225" s="182"/>
+      <c r="E225" s="183"/>
       <c r="F225" s="106"/>
       <c r="G225" s="106"/>
       <c r="H225" s="106"/>
@@ -10672,10 +12454,10 @@
       <c r="B232" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C232" s="201">
+      <c r="C232" s="257">
         <v>301</v>
       </c>
-      <c r="D232" s="202"/>
+      <c r="D232" s="258"/>
       <c r="E232" s="108" t="s">
         <v>122</v>
       </c>
@@ -10729,8 +12511,8 @@
       <c r="C234" s="119">
         <v>1070</v>
       </c>
-      <c r="D234" s="260"/>
-      <c r="E234" s="261"/>
+      <c r="D234" s="174"/>
+      <c r="E234" s="175"/>
       <c r="F234" s="132"/>
       <c r="G234" s="106"/>
       <c r="H234" s="106"/>
@@ -10746,7 +12528,7 @@
     </row>
     <row r="235" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A235" s="106"/>
-      <c r="B235" s="258">
+      <c r="B235" s="172">
         <v>4</v>
       </c>
       <c r="C235" s="109">
@@ -11091,10 +12873,10 @@
       <c r="B252" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C252" s="201">
+      <c r="C252" s="257">
         <v>311</v>
       </c>
-      <c r="D252" s="202"/>
+      <c r="D252" s="258"/>
       <c r="E252" s="108" t="s">
         <v>122</v>
       </c>
@@ -11140,8 +12922,8 @@
       <c r="C254" s="119">
         <v>149800</v>
       </c>
-      <c r="D254" s="260"/>
-      <c r="E254" s="264"/>
+      <c r="D254" s="174"/>
+      <c r="E254" s="178"/>
       <c r="F254" s="132"/>
       <c r="G254" s="106"/>
       <c r="H254" s="106"/>
@@ -11372,10 +13154,10 @@
       <c r="B266" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C266" s="201">
+      <c r="C266" s="257">
         <v>361</v>
       </c>
-      <c r="D266" s="202"/>
+      <c r="D266" s="258"/>
       <c r="E266" s="108" t="s">
         <v>122</v>
       </c>
@@ -11429,7 +13211,7 @@
       <c r="C268" s="119">
         <v>99220</v>
       </c>
-      <c r="D268" s="260"/>
+      <c r="D268" s="174"/>
       <c r="E268" s="119"/>
       <c r="F268" s="106"/>
       <c r="G268" s="106"/>
@@ -11540,10 +13322,10 @@
       <c r="B273" s="106"/>
       <c r="C273" s="106"/>
       <c r="D273" s="106"/>
-      <c r="E273" s="204" t="s">
+      <c r="E273" s="262" t="s">
         <v>160</v>
       </c>
-      <c r="F273" s="205"/>
+      <c r="F273" s="263"/>
       <c r="G273" s="114">
         <f>I275-E275</f>
         <v>0</v>
@@ -11580,11 +13362,11 @@
     </row>
     <row r="275" spans="1:17" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="106"/>
-      <c r="B275" s="203" t="s">
+      <c r="B275" s="261" t="s">
         <v>148</v>
       </c>
-      <c r="C275" s="203"/>
-      <c r="D275" s="203"/>
+      <c r="C275" s="261"/>
+      <c r="D275" s="261"/>
       <c r="E275" s="113">
         <f>SUM(C6,C15,C42,C24,C56,C65,C74,C83,C92,C104,C113,C122,C131,C140,C154,C163,C172,C180,C189,C204,C216,C225,C234,C254,C268,C33)</f>
         <v>1571830</v>
@@ -11696,7 +13478,7 @@
         <v>16050</v>
       </c>
       <c r="E280" s="106"/>
-      <c r="F280" s="227"/>
+      <c r="F280" s="150"/>
       <c r="G280" s="106"/>
       <c r="H280" s="106"/>
       <c r="I280" s="106"/>
@@ -11845,8 +13627,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C13:D13"/>
@@ -11857,6 +13637,8 @@
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C223:D223"/>
     <mergeCell ref="C111:D111"/>
     <mergeCell ref="C120:D120"/>
@@ -11880,12 +13662,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F137"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96:E97"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11897,12 +13679,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="259" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="107"/>
@@ -11914,10 +13696,10 @@
       <c r="B4" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="260">
         <v>40</v>
       </c>
-      <c r="D4" s="199"/>
+      <c r="D4" s="260"/>
       <c r="E4" s="108" t="s">
         <v>122</v>
       </c>
@@ -11976,11 +13758,11 @@
       <c r="D9" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="271">
+      <c r="E9" s="185">
         <f>E6+E8-G8</f>
         <v>695500</v>
       </c>
-      <c r="F9" s="270"/>
+      <c r="F9" s="184"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="107"/>
@@ -11998,10 +13780,10 @@
       <c r="B13" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="260">
         <v>43</v>
       </c>
-      <c r="D13" s="199"/>
+      <c r="D13" s="260"/>
       <c r="E13" s="108" t="s">
         <v>122</v>
       </c>
@@ -12041,7 +13823,7 @@
         <v>21400</v>
       </c>
       <c r="D16" s="116"/>
-      <c r="E16" s="258"/>
+      <c r="E16" s="172"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="135" t="s">
@@ -12069,16 +13851,16 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="259"/>
+      <c r="E19" s="173"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="199">
+      <c r="C22" s="260">
         <v>441</v>
       </c>
-      <c r="D22" s="199"/>
+      <c r="D22" s="260"/>
       <c r="E22" s="108" t="s">
         <v>122</v>
       </c>
@@ -12116,7 +13898,7 @@
       <c r="D25" s="116">
         <v>6</v>
       </c>
-      <c r="E25" s="258">
+      <c r="E25" s="172">
         <v>21400</v>
       </c>
     </row>
@@ -12149,10 +13931,10 @@
       <c r="B31" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="199">
+      <c r="C31" s="260">
         <v>443</v>
       </c>
-      <c r="D31" s="199"/>
+      <c r="D31" s="260"/>
       <c r="E31" s="108" t="s">
         <v>122</v>
       </c>
@@ -12211,7 +13993,7 @@
       <c r="D36" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="E36" s="271">
+      <c r="E36" s="185">
         <f>E33+E35-G35</f>
         <v>21400</v>
       </c>
@@ -12220,10 +14002,10 @@
       <c r="B40" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="199">
+      <c r="C40" s="260">
         <v>470</v>
       </c>
-      <c r="D40" s="199"/>
+      <c r="D40" s="260"/>
       <c r="E40" s="108" t="s">
         <v>122</v>
       </c>
@@ -12282,7 +14064,7 @@
       <c r="D45" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="271">
+      <c r="E45" s="185">
         <f>E42+E44-G44</f>
         <v>44940</v>
       </c>
@@ -12327,10 +14109,10 @@
       <c r="B52" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="199">
+      <c r="C52" s="260">
         <v>501</v>
       </c>
-      <c r="D52" s="199"/>
+      <c r="D52" s="260"/>
       <c r="E52" s="108" t="s">
         <v>122</v>
       </c>
@@ -12389,7 +14171,7 @@
       <c r="D57" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="271">
+      <c r="E57" s="185">
         <f>E54+E56-G56</f>
         <v>288900</v>
       </c>
@@ -12398,10 +14180,10 @@
       <c r="B61" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="199">
+      <c r="C61" s="260">
         <v>601</v>
       </c>
-      <c r="D61" s="199"/>
+      <c r="D61" s="260"/>
       <c r="E61" s="108" t="s">
         <v>122</v>
       </c>
@@ -12439,7 +14221,7 @@
       <c r="D64" s="114">
         <v>14</v>
       </c>
-      <c r="E64" s="258">
+      <c r="E64" s="172">
         <v>26750</v>
       </c>
     </row>
@@ -12490,10 +14272,10 @@
       <c r="B70" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="199">
+      <c r="C70" s="260">
         <v>611</v>
       </c>
-      <c r="D70" s="199"/>
+      <c r="D70" s="260"/>
       <c r="E70" s="108" t="s">
         <v>122</v>
       </c>
@@ -12531,7 +14313,7 @@
       <c r="D73" s="129">
         <v>12</v>
       </c>
-      <c r="E73" s="258">
+      <c r="E73" s="172">
         <v>14980</v>
       </c>
     </row>
@@ -12582,10 +14364,10 @@
       <c r="B79" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C79" s="199">
+      <c r="C79" s="260">
         <v>620</v>
       </c>
-      <c r="D79" s="199"/>
+      <c r="D79" s="260"/>
       <c r="E79" s="108" t="s">
         <v>122</v>
       </c>
@@ -12644,7 +14426,7 @@
       <c r="D84" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="E84" s="271">
+      <c r="E84" s="185">
         <f>E81+E83-G83</f>
         <v>10700</v>
       </c>
@@ -12665,10 +14447,10 @@
       <c r="B88" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C88" s="199">
+      <c r="C88" s="260">
         <v>641</v>
       </c>
-      <c r="D88" s="199"/>
+      <c r="D88" s="260"/>
       <c r="E88" s="108" t="s">
         <v>122</v>
       </c>
@@ -12791,10 +14573,10 @@
       <c r="B102" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C102" s="199">
+      <c r="C102" s="260">
         <v>650</v>
       </c>
-      <c r="D102" s="199"/>
+      <c r="D102" s="260"/>
       <c r="E102" s="108" t="s">
         <v>122</v>
       </c>
@@ -12827,14 +14609,14 @@
       </c>
     </row>
     <row r="105" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="114">
+      <c r="B105" s="114"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="129">
         <v>9</v>
       </c>
-      <c r="C105" s="109">
+      <c r="E105" s="116">
         <v>14450</v>
       </c>
-      <c r="D105" s="129"/>
-      <c r="E105" s="116"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="114"/>
@@ -12852,14 +14634,14 @@
       </c>
       <c r="C107" s="109">
         <f>SUM(C105:C106)</f>
-        <v>14450</v>
+        <v>0</v>
       </c>
       <c r="D107" s="135" t="s">
         <v>179</v>
       </c>
       <c r="E107" s="114">
-        <f>SUM(E106:E106)</f>
-        <v>830</v>
+        <f>SUM(E105:E106)</f>
+        <v>15280</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
@@ -12868,7 +14650,7 @@
       </c>
       <c r="E108" s="114">
         <f>E104+E107-C107</f>
-        <v>2430</v>
+        <v>31330</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
@@ -12893,10 +14675,10 @@
       <c r="B112" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C112" s="199">
+      <c r="C112" s="260">
         <v>661</v>
       </c>
-      <c r="D112" s="199"/>
+      <c r="D112" s="260"/>
       <c r="E112" s="108" t="s">
         <v>122</v>
       </c>
@@ -12934,7 +14716,7 @@
       <c r="D115" s="129">
         <v>5</v>
       </c>
-      <c r="E115" s="258">
+      <c r="E115" s="172">
         <v>29960</v>
       </c>
     </row>
@@ -13005,10 +14787,10 @@
       <c r="B124" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="199">
+      <c r="C124" s="260">
         <v>685</v>
       </c>
-      <c r="D124" s="199"/>
+      <c r="D124" s="260"/>
       <c r="E124" s="108" t="s">
         <v>122</v>
       </c>
@@ -13067,27 +14849,27 @@
       <c r="D129" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="E129" s="271">
+      <c r="E129" s="185">
         <f>E126+E128-G128</f>
         <v>14980</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="2:6" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B134" s="197" t="s">
+      <c r="B134" s="267" t="s">
         <v>161</v>
       </c>
-      <c r="C134" s="198"/>
+      <c r="C134" s="268"/>
       <c r="D134" s="130">
         <f>SUM(E6,E15,E24,E33)</f>
         <v>883820</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="191" t="s">
+      <c r="B135" s="264" t="s">
         <v>167</v>
       </c>
-      <c r="C135" s="192"/>
+      <c r="C135" s="265"/>
       <c r="D135" s="113">
         <f>SUM(E126,E114,E104,E90,E81,E72,E63,E54,E42)</f>
         <v>688010</v>
@@ -13095,11 +14877,11 @@
       <c r="E135" s="131"/>
     </row>
     <row r="136" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="193" t="s">
+      <c r="B136" s="266" t="s">
         <v>177</v>
       </c>
-      <c r="C136" s="193"/>
-      <c r="D136" s="193"/>
+      <c r="C136" s="266"/>
+      <c r="D136" s="266"/>
       <c r="E136" s="113">
         <f>D134+D135</f>
         <v>1571830</v>
@@ -13132,738 +14914,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F78"/>
-  <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:E68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="106"/>
-    <col min="3" max="3" width="9.85546875" style="106" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="106"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="200" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="199">
-        <v>43</v>
-      </c>
-      <c r="D4" s="199"/>
-      <c r="E4" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="127"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="119">
-        <v>113420</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="116">
-        <v>6</v>
-      </c>
-      <c r="C7" s="117">
-        <v>21400</v>
-      </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="109">
-        <f>SUM(C6:C7)</f>
-        <v>21400</v>
-      </c>
-      <c r="D8" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="114">
-        <f>SUM(E7:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="109">
-        <f>E6+E8-C8</f>
-        <v>92020</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="199">
-        <v>441</v>
-      </c>
-      <c r="D13" s="199"/>
-      <c r="E13" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="106" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="127"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="119">
-        <v>53500</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="116">
-        <v>6</v>
-      </c>
-      <c r="E16" s="117">
-        <v>21400</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="109">
-        <f>SUM(C15:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="114">
-        <f>SUM(E16:E16)</f>
-        <v>21400</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="109">
-        <f>E15+E17-C17</f>
-        <v>74900</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="199">
-        <v>601</v>
-      </c>
-      <c r="D22" s="199"/>
-      <c r="E22" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="106" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="127"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="119">
-        <v>49220</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="114">
-        <v>14</v>
-      </c>
-      <c r="E25" s="109">
-        <v>26750</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="109">
-        <f>SUM(C24:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="114">
-        <f>SUM(E25:E25)</f>
-        <v>26750</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="109">
-        <f>E24+E26-C26</f>
-        <v>75970</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="199">
-        <v>611</v>
-      </c>
-      <c r="D31" s="199"/>
-      <c r="E31" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="106" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="127"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="119">
-        <v>117700</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="129">
-        <v>12</v>
-      </c>
-      <c r="E34" s="116">
-        <v>14980</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="109">
-        <f>SUM(C33:C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" s="114">
-        <f>SUM(E34:E34)</f>
-        <v>14980</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="E36" s="109">
-        <f>E33+E35-C35</f>
-        <v>132680</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="199">
-        <v>641</v>
-      </c>
-      <c r="D40" s="199"/>
-      <c r="E40" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="106" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="127"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="119">
-        <v>102720</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="116">
-        <v>3</v>
-      </c>
-      <c r="C43" s="117">
-        <v>17120</v>
-      </c>
-      <c r="D43" s="129"/>
-      <c r="E43" s="116"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="114">
-        <v>10</v>
-      </c>
-      <c r="E44" s="109">
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="109">
-        <f>SUM(C43:C44)</f>
-        <v>17120</v>
-      </c>
-      <c r="D45" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="114">
-        <f>SUM(E44:E44)</f>
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="E46" s="109">
-        <f>E42+E45-C45</f>
-        <v>91760</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="199">
-        <v>650</v>
-      </c>
-      <c r="D50" s="199"/>
-      <c r="E50" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="106" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="127"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" s="119">
-        <v>16050</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="114">
-        <v>9</v>
-      </c>
-      <c r="C53" s="109">
-        <v>14450</v>
-      </c>
-      <c r="D53" s="129"/>
-      <c r="E53" s="116"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="114"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="114">
-        <v>11</v>
-      </c>
-      <c r="E54" s="109">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="109">
-        <f>SUM(C53:C54)</f>
-        <v>14450</v>
-      </c>
-      <c r="D55" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="114">
-        <f>SUM(E54:E54)</f>
-        <v>830</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="E56" s="109">
-        <f>E52+E55-C55</f>
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="104"/>
-    </row>
-    <row r="60" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="199">
-        <v>661</v>
-      </c>
-      <c r="D60" s="199"/>
-      <c r="E60" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="106" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="127"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" s="119">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="116"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="129">
-        <v>5</v>
-      </c>
-      <c r="E63" s="109">
-        <v>29960</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="114"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="114">
-        <v>8</v>
-      </c>
-      <c r="E64" s="109">
-        <v>38520</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="114">
-        <v>10</v>
-      </c>
-      <c r="C65" s="109">
-        <v>6160</v>
-      </c>
-      <c r="D65" s="115"/>
-      <c r="E65" s="114"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="114">
-        <v>11</v>
-      </c>
-      <c r="C66" s="109">
-        <v>830</v>
-      </c>
-      <c r="D66" s="115"/>
-      <c r="E66" s="114"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="109">
-        <f>SUM(C63:C66)</f>
-        <v>6990</v>
-      </c>
-      <c r="D67" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" s="114">
-        <f>SUM(E63:E66)</f>
-        <v>68480</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D68" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="E68" s="109">
-        <f>E62+E67-C67</f>
-        <v>104290</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="194" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" s="195"/>
-      <c r="D72" s="196"/>
-      <c r="E72" s="113"/>
-    </row>
-    <row r="73" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:6" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="197" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="198"/>
-      <c r="D75" s="130"/>
-    </row>
-    <row r="76" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="191" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="192"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="131"/>
-    </row>
-    <row r="77" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="193" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="193"/>
-      <c r="D77" s="193"/>
-      <c r="E77" s="113"/>
-      <c r="F77" s="132"/>
-    </row>
-    <row r="78" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:D77"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13883,79 +14939,79 @@
       <c r="D3" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="208" t="s">
+      <c r="E3" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="209"/>
-      <c r="G3" s="212" t="s">
+      <c r="F3" s="277"/>
+      <c r="G3" s="278" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="213"/>
-      <c r="I3" s="220" t="s">
+      <c r="H3" s="279"/>
+      <c r="I3" s="280" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="221"/>
+      <c r="J3" s="281"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="241" t="s">
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="286" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="210" t="s">
+      <c r="F4" s="288" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="282" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="214" t="s">
+      <c r="H4" s="282" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="222" t="s">
+      <c r="I4" s="272" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="222" t="s">
+      <c r="J4" s="272" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="233"/>
-      <c r="H5" s="233"/>
-      <c r="I5" s="234"/>
-      <c r="J5" s="234"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="283"/>
+      <c r="H5" s="284"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="274"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="137">
         <v>1</v>
       </c>
-      <c r="C6" s="235">
+      <c r="C6" s="155">
         <v>2</v>
       </c>
-      <c r="D6" s="235">
+      <c r="D6" s="155">
         <v>3</v>
       </c>
-      <c r="E6" s="249">
+      <c r="E6" s="167">
         <v>4</v>
       </c>
-      <c r="F6" s="250">
+      <c r="F6" s="168">
         <v>5</v>
       </c>
-      <c r="G6" s="251">
+      <c r="G6" s="191">
         <v>6</v>
       </c>
-      <c r="H6" s="251">
+      <c r="H6" s="194">
         <v>7</v>
       </c>
-      <c r="I6" s="252">
+      <c r="I6" s="193">
         <v>8</v>
       </c>
-      <c r="J6" s="253">
+      <c r="J6" s="192">
         <v>9</v>
       </c>
     </row>
@@ -13966,21 +15022,21 @@
       <c r="C7" s="137">
         <v>103</v>
       </c>
-      <c r="D7" s="243" t="s">
+      <c r="D7" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="238">
+      <c r="E7" s="158">
         <v>199020</v>
       </c>
-      <c r="F7" s="274"/>
-      <c r="G7" s="272"/>
-      <c r="H7" s="273">
+      <c r="F7" s="187"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="189">
         <v>13370</v>
       </c>
-      <c r="I7" s="223">
+      <c r="I7" s="190">
         <v>185650</v>
       </c>
-      <c r="J7" s="275"/>
+      <c r="J7" s="188"/>
     </row>
     <row r="8" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="137">
@@ -13989,22 +15045,21 @@
       <c r="C8" s="101">
         <v>163</v>
       </c>
-      <c r="D8" s="244" t="s">
+      <c r="D8" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="239">
+      <c r="E8" s="159">
         <v>12840</v>
       </c>
-      <c r="F8" s="211"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="216">
-        <f>SUM(H7:H7)</f>
-        <v>13370</v>
-      </c>
-      <c r="I8" s="224">
+      <c r="F8" s="141"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143">
+        <v>3640</v>
+      </c>
+      <c r="I8" s="147">
         <v>9200</v>
       </c>
-      <c r="J8" s="225"/>
+      <c r="J8" s="148"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="137">
@@ -14013,23 +15068,23 @@
       <c r="C9" s="101">
         <v>201</v>
       </c>
-      <c r="D9" s="244" t="s">
+      <c r="D9" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="240">
+      <c r="E9" s="160">
         <v>235400</v>
       </c>
-      <c r="F9" s="211"/>
-      <c r="G9" s="217">
+      <c r="F9" s="141"/>
+      <c r="G9" s="144">
         <v>14980</v>
       </c>
-      <c r="H9" s="218">
+      <c r="H9" s="145">
         <v>68480</v>
       </c>
-      <c r="I9" s="224">
+      <c r="I9" s="147">
         <v>181900</v>
       </c>
-      <c r="J9" s="225"/>
+      <c r="J9" s="148"/>
     </row>
     <row r="10" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="137">
@@ -14038,23 +15093,23 @@
       <c r="C10" s="101">
         <v>230</v>
       </c>
-      <c r="D10" s="245" t="s">
+      <c r="D10" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="239">
-        <v>41880</v>
-      </c>
-      <c r="F10" s="211"/>
-      <c r="G10" s="217">
+      <c r="E10" s="159">
+        <v>41800</v>
+      </c>
+      <c r="F10" s="141"/>
+      <c r="G10" s="144">
         <v>134820</v>
       </c>
-      <c r="H10" s="218">
+      <c r="H10" s="145">
         <v>64200</v>
       </c>
-      <c r="I10" s="224">
+      <c r="I10" s="147">
         <v>85070</v>
       </c>
-      <c r="J10" s="225"/>
+      <c r="J10" s="148"/>
     </row>
     <row r="11" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="137">
@@ -14063,21 +15118,21 @@
       <c r="C11" s="101">
         <v>260</v>
       </c>
-      <c r="D11" s="246" t="s">
+      <c r="D11" s="164" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="239">
+      <c r="E11" s="159">
         <v>155150</v>
       </c>
-      <c r="F11" s="211"/>
-      <c r="G11" s="217">
+      <c r="F11" s="141"/>
+      <c r="G11" s="144">
         <v>64200</v>
       </c>
-      <c r="H11" s="216"/>
-      <c r="I11" s="224">
+      <c r="H11" s="143"/>
+      <c r="I11" s="147">
         <v>219350</v>
       </c>
-      <c r="J11" s="225"/>
+      <c r="J11" s="148"/>
     </row>
     <row r="12" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="137">
@@ -14086,21 +15141,21 @@
       <c r="C12" s="101">
         <v>301</v>
       </c>
-      <c r="D12" s="244" t="s">
+      <c r="D12" s="162" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="240">
+      <c r="E12" s="160">
         <v>1070</v>
       </c>
-      <c r="F12" s="211"/>
-      <c r="G12" s="215">
+      <c r="F12" s="141"/>
+      <c r="G12" s="142">
         <v>29960</v>
       </c>
-      <c r="H12" s="218"/>
-      <c r="I12" s="224">
+      <c r="H12" s="145"/>
+      <c r="I12" s="147">
         <v>31030</v>
       </c>
-      <c r="J12" s="225"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="137">
@@ -14109,68 +15164,67 @@
       <c r="C13" s="100">
         <v>311</v>
       </c>
-      <c r="D13" s="244" t="s">
+      <c r="D13" s="162" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="240">
+      <c r="E13" s="160">
         <v>149800</v>
       </c>
-      <c r="F13" s="211"/>
-      <c r="G13" s="217">
-        <f>SUM(G6:G12)</f>
-        <v>243966</v>
-      </c>
-      <c r="H13" s="218">
+      <c r="F13" s="141"/>
+      <c r="G13" s="144">
+        <v>101650</v>
+      </c>
+      <c r="H13" s="145">
         <v>47080</v>
       </c>
-      <c r="I13" s="224">
+      <c r="I13" s="147">
         <v>84530</v>
       </c>
-      <c r="J13" s="225"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="137">
         <v>8</v>
       </c>
-      <c r="C14" s="236">
+      <c r="C14" s="156">
         <v>361</v>
       </c>
-      <c r="D14" s="246" t="s">
+      <c r="D14" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="240">
+      <c r="E14" s="160">
         <v>99220</v>
       </c>
-      <c r="F14" s="211"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="218">
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="145">
         <v>41300</v>
       </c>
-      <c r="I14" s="224">
+      <c r="I14" s="147">
         <v>57920</v>
       </c>
-      <c r="J14" s="225"/>
+      <c r="J14" s="148"/>
     </row>
     <row r="15" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="137">
         <v>9</v>
       </c>
-      <c r="C15" s="237">
+      <c r="C15" s="157">
         <v>43</v>
       </c>
-      <c r="D15" s="247" t="s">
+      <c r="D15" s="165" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="240"/>
-      <c r="F15" s="211">
+      <c r="E15" s="160"/>
+      <c r="F15" s="141">
         <v>113420</v>
       </c>
-      <c r="G15" s="215">
+      <c r="G15" s="142">
         <v>21400</v>
       </c>
-      <c r="H15" s="218"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="225">
+      <c r="H15" s="145"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="148">
         <v>92020</v>
       </c>
     </row>
@@ -14178,181 +15232,208 @@
       <c r="B16" s="137">
         <v>10</v>
       </c>
-      <c r="C16" s="237">
+      <c r="C16" s="157">
         <v>441</v>
       </c>
-      <c r="D16" s="245" t="s">
+      <c r="D16" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="240"/>
-      <c r="F16" s="211">
+      <c r="E16" s="160"/>
+      <c r="F16" s="141">
         <v>53500</v>
       </c>
-      <c r="G16" s="215"/>
-      <c r="H16" s="218">
+      <c r="G16" s="142"/>
+      <c r="H16" s="145">
         <v>21400</v>
       </c>
-      <c r="I16" s="224"/>
-      <c r="J16" s="225">
+      <c r="I16" s="147"/>
+      <c r="J16" s="148">
         <v>74900</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="137">
         <v>11</v>
       </c>
-      <c r="C17" s="237">
+      <c r="C17" s="157">
         <v>601</v>
       </c>
-      <c r="D17" s="245" t="s">
+      <c r="D17" s="163" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="240"/>
-      <c r="F17" s="211">
+      <c r="E17" s="160"/>
+      <c r="F17" s="141">
         <v>49220</v>
       </c>
-      <c r="G17" s="215"/>
-      <c r="H17" s="218">
+      <c r="G17" s="142"/>
+      <c r="H17" s="145">
         <v>26750</v>
       </c>
-      <c r="I17" s="224"/>
-      <c r="J17" s="225">
+      <c r="I17" s="147"/>
+      <c r="J17" s="148">
         <v>75970</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="137">
         <v>12</v>
       </c>
-      <c r="C18" s="237">
+      <c r="C18" s="157">
         <v>611</v>
       </c>
-      <c r="D18" s="246" t="s">
+      <c r="D18" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="240"/>
-      <c r="F18" s="211">
+      <c r="E18" s="160"/>
+      <c r="F18" s="141">
         <v>117700</v>
       </c>
-      <c r="G18" s="215"/>
-      <c r="H18" s="218">
+      <c r="G18" s="142"/>
+      <c r="H18" s="145">
         <v>14980</v>
       </c>
-      <c r="I18" s="224"/>
-      <c r="J18" s="225">
+      <c r="I18" s="147"/>
+      <c r="J18" s="148">
         <v>132680</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="137">
         <v>13</v>
       </c>
-      <c r="C19" s="237">
-        <v>64</v>
-      </c>
-      <c r="D19" s="246" t="s">
+      <c r="C19" s="157">
+        <v>641</v>
+      </c>
+      <c r="D19" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="240"/>
-      <c r="F19" s="211">
+      <c r="E19" s="160"/>
+      <c r="F19" s="141">
         <v>102720</v>
       </c>
-      <c r="G19" s="215">
+      <c r="G19" s="142">
         <v>17120</v>
       </c>
-      <c r="H19" s="218">
+      <c r="H19" s="145">
         <v>6160</v>
       </c>
-      <c r="I19" s="224"/>
-      <c r="J19" s="225">
+      <c r="I19" s="147"/>
+      <c r="J19" s="148">
         <v>91760</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="137">
         <v>14</v>
       </c>
-      <c r="C20" s="237">
+      <c r="C20" s="157">
         <v>650</v>
       </c>
-      <c r="D20" s="246" t="s">
+      <c r="D20" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="240"/>
-      <c r="F20" s="211">
+      <c r="E20" s="160"/>
+      <c r="F20" s="141">
         <v>16050</v>
       </c>
-      <c r="G20" s="215">
-        <v>14450</v>
-      </c>
-      <c r="H20" s="218">
-        <v>830</v>
-      </c>
-      <c r="I20" s="224"/>
-      <c r="J20" s="225">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="142"/>
+      <c r="H20" s="145">
+        <v>15280</v>
+      </c>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148">
+        <v>31330</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="137">
         <v>15</v>
       </c>
-      <c r="C21" s="237">
+      <c r="C21" s="157">
         <v>661</v>
       </c>
-      <c r="D21" s="248" t="s">
+      <c r="D21" s="166" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="240"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="215">
-        <v>45510</v>
-      </c>
-      <c r="H21" s="218">
+      <c r="E21" s="160"/>
+      <c r="F21" s="141">
+        <v>42800</v>
+      </c>
+      <c r="G21" s="142">
+        <v>6990</v>
+      </c>
+      <c r="H21" s="145">
         <v>68480</v>
       </c>
-      <c r="I21" s="224"/>
-      <c r="J21" s="225">
+      <c r="I21" s="147"/>
+      <c r="J21" s="148">
         <v>104290</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="138"/>
-      <c r="C22" s="206" t="s">
+      <c r="C22" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="206"/>
-      <c r="E22" s="228">
+      <c r="D22" s="275"/>
+      <c r="E22" s="151">
         <f t="shared" ref="E22:J22" si="0">SUM(E7:E21)</f>
-        <v>894380</v>
-      </c>
-      <c r="F22" s="229">
+        <v>894300</v>
+      </c>
+      <c r="F22" s="152">
         <f t="shared" si="0"/>
-        <v>452610</v>
-      </c>
-      <c r="G22" s="230">
+        <v>495410</v>
+      </c>
+      <c r="G22" s="153">
         <f t="shared" si="0"/>
-        <v>586406</v>
-      </c>
-      <c r="H22" s="219">
+        <v>391120</v>
+      </c>
+      <c r="H22" s="146">
         <f t="shared" si="0"/>
-        <v>386400</v>
-      </c>
-      <c r="I22" s="231">
+        <v>391120</v>
+      </c>
+      <c r="I22" s="154">
         <f t="shared" si="0"/>
         <v>854650</v>
       </c>
-      <c r="J22" s="226">
+      <c r="J22" s="149">
         <f t="shared" si="0"/>
-        <v>574050</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="103">
+        <v>602950</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="198"/>
+    </row>
+    <row r="24" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="200" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="199">
+        <f>E22-F22</f>
+        <v>398890</v>
+      </c>
+      <c r="G24" s="200" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="199">
         <f>G22-H22</f>
-        <v>200006</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+      <c r="I24" s="200" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" s="199">
+        <f>I22-J22</f>
+        <v>251700</v>
+      </c>
+      <c r="K24" s="201"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B4:B5"/>
@@ -14370,5 +15451,6 @@
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Актив" sheetId="1" r:id="rId1"/>
@@ -2195,6 +2195,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2213,33 +2231,87 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
@@ -2276,78 +2348,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2360,6 +2360,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2369,29 +2393,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2430,21 +2445,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2763,16 +2763,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="215" t="s">
+      <c r="C2" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
     </row>
     <row r="3" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="19">
@@ -2874,26 +2874,26 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H12" s="212" t="s">
+      <c r="H12" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="212"/>
+      <c r="I12" s="211"/>
       <c r="J12" s="18">
         <f>SUM(J3:J11)</f>
         <v>392370</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="214" t="s">
+      <c r="C15" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="214"/>
-      <c r="J15" s="214"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
     </row>
     <row r="16" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="19">
@@ -2918,26 +2918,26 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H18" s="212" t="s">
+      <c r="H18" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="212"/>
+      <c r="I18" s="211"/>
       <c r="J18" s="3">
         <f>SUM(J16:J17)</f>
         <v>6740</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="214" t="s">
+      <c r="C21" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="214"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="209"/>
     </row>
     <row r="22" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H22" s="19">
@@ -2962,41 +2962,41 @@
       </c>
     </row>
     <row r="24" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H24" s="211" t="s">
+      <c r="H24" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="211"/>
+      <c r="I24" s="217"/>
       <c r="J24" s="3">
         <f>SUM(J22:J23)</f>
         <v>16050</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C28" s="207" t="s">
+      <c r="C28" s="213" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="208"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="209"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="215"/>
       <c r="J28" s="18">
         <f>J24+J18+J12</f>
         <v>415160</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="214" t="s">
+      <c r="C31" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="214"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="209"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="209"/>
     </row>
     <row r="32" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H32" s="19">
@@ -3098,26 +3098,26 @@
       </c>
     </row>
     <row r="41" spans="3:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H41" s="210" t="s">
+      <c r="H41" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="210"/>
+      <c r="I41" s="216"/>
       <c r="J41" s="171">
         <f>SUM(J32:J40)</f>
         <v>893740</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="213" t="s">
+      <c r="C44" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="213"/>
-      <c r="E44" s="213"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="213"/>
-      <c r="H44" s="213"/>
-      <c r="I44" s="213"/>
-      <c r="J44" s="213"/>
+      <c r="D44" s="218"/>
+      <c r="E44" s="218"/>
+      <c r="F44" s="218"/>
+      <c r="G44" s="218"/>
+      <c r="H44" s="218"/>
+      <c r="I44" s="218"/>
+      <c r="J44" s="218"/>
     </row>
     <row r="45" spans="3:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H45" s="19">
@@ -3142,26 +3142,26 @@
       </c>
     </row>
     <row r="47" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H47" s="216" t="s">
+      <c r="H47" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="217"/>
+      <c r="I47" s="208"/>
       <c r="J47" s="34">
         <f>SUM(J45:J46)</f>
         <v>150870</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="214" t="s">
+      <c r="C49" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="214"/>
-      <c r="E49" s="214"/>
-      <c r="F49" s="214"/>
-      <c r="G49" s="214"/>
-      <c r="H49" s="214"/>
-      <c r="I49" s="214"/>
-      <c r="J49" s="214"/>
+      <c r="D49" s="209"/>
+      <c r="E49" s="209"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="209"/>
+      <c r="H49" s="209"/>
+      <c r="I49" s="209"/>
+      <c r="J49" s="209"/>
     </row>
     <row r="50" spans="3:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H50" s="19">
@@ -3186,40 +3186,40 @@
       </c>
     </row>
     <row r="52" spans="3:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="H52" s="216" t="s">
+      <c r="H52" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="I52" s="217"/>
+      <c r="I52" s="208"/>
       <c r="J52" s="34">
         <f>SUM(J50:J51)</f>
         <v>112060</v>
       </c>
     </row>
     <row r="56" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C56" s="218" t="s">
+      <c r="C56" s="210" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="218"/>
-      <c r="E56" s="218"/>
-      <c r="F56" s="218"/>
-      <c r="G56" s="218"/>
-      <c r="H56" s="218"/>
-      <c r="I56" s="218"/>
+      <c r="D56" s="210"/>
+      <c r="E56" s="210"/>
+      <c r="F56" s="210"/>
+      <c r="G56" s="210"/>
+      <c r="H56" s="210"/>
+      <c r="I56" s="210"/>
       <c r="J56" s="18">
         <f>J52+J47+J41</f>
         <v>1156670</v>
       </c>
     </row>
     <row r="58" spans="3:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C58" s="206" t="s">
+      <c r="C58" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="206"/>
-      <c r="E58" s="206"/>
-      <c r="F58" s="206"/>
-      <c r="G58" s="206"/>
-      <c r="H58" s="206"/>
-      <c r="I58" s="206"/>
+      <c r="D58" s="212"/>
+      <c r="E58" s="212"/>
+      <c r="F58" s="212"/>
+      <c r="G58" s="212"/>
+      <c r="H58" s="212"/>
+      <c r="I58" s="212"/>
       <c r="J58" s="18">
         <f>J56+J28</f>
         <v>1571830</v>
@@ -3227,13 +3227,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C15:J15"/>
     <mergeCell ref="C58:I58"/>
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="H41:I41"/>
@@ -3242,6 +3235,13 @@
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
@@ -3252,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4355,23 +4355,23 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D14" s="212" t="s">
+      <c r="D14" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="212"/>
+      <c r="E14" s="211"/>
       <c r="F14" s="34">
         <f>SUM(F4:F13)</f>
         <v>883820</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="215" t="s">
+      <c r="B18" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="215"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
     </row>
     <row r="19" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="47" t="s">
@@ -4388,10 +4388,10 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D20" s="212" t="s">
+      <c r="D20" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="212"/>
+      <c r="E20" s="211"/>
       <c r="F20" s="33">
         <f>SUM(F19)</f>
         <v>288900</v>
@@ -4479,10 +4479,10 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D31" s="212" t="s">
+      <c r="D31" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="212"/>
+      <c r="E31" s="211"/>
       <c r="F31" s="34">
         <f>SUM(F24:F30)</f>
         <v>354170</v>
@@ -4504,10 +4504,10 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D36" s="212" t="s">
+      <c r="D36" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="216"/>
+      <c r="E36" s="207"/>
       <c r="F36" s="33">
         <f>SUM(F35)</f>
         <v>44940</v>
@@ -4692,16 +4692,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74"/>
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="245" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="224" t="s">
+      <c r="C1" s="246"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="248" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="225"/>
-      <c r="G1" s="226"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
     </row>
     <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="75">
@@ -4826,11 +4826,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="224" t="s">
+      <c r="A7" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="225"/>
-      <c r="C7" s="226"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="250"/>
       <c r="D7" s="81">
         <v>522160</v>
       </c>
@@ -4902,11 +4902,11 @@
       <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="226"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="250"/>
       <c r="D11" s="82">
         <v>1049670</v>
       </c>
@@ -4932,53 +4932,53 @@
       <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="227" t="s">
+      <c r="A13" s="251" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="228"/>
-      <c r="C13" s="229"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="253"/>
       <c r="D13" s="83">
         <f>SUM(D4:D6,D8:D10)</f>
         <v>1571830</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="254">
         <f>SUM(G4:G8)</f>
         <v>1571830</v>
       </c>
-      <c r="F13" s="231"/>
-      <c r="G13" s="232"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="256"/>
     </row>
     <row r="16" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="239" t="s">
+      <c r="J16" s="221" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="242"/>
+      <c r="K16" s="222"/>
       <c r="L16" s="32">
         <f>SUM(K17,D5,D6,L17,M17,N17)</f>
         <v>1571830</v>
       </c>
-      <c r="N16" s="239" t="s">
+      <c r="N16" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="242"/>
+      <c r="O16" s="222"/>
       <c r="P16" s="32">
         <f>SUM(O17,G5,G6,P17)</f>
         <v>1571830</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="243" t="s">
+      <c r="A17" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="244"/>
-      <c r="C17" s="245"/>
-      <c r="D17" s="249" t="s">
+      <c r="B17" s="224"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="255" t="s">
+      <c r="E17" s="230"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="235" t="s">
         <v>43</v>
       </c>
       <c r="J17" s="72" t="s">
@@ -5010,14 +5010,14 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="246"/>
-      <c r="B18" s="247"/>
-      <c r="C18" s="248"/>
-      <c r="D18" s="252"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="253"/>
-      <c r="G18" s="254"/>
-      <c r="H18" s="256"/>
+      <c r="A18" s="226"/>
+      <c r="B18" s="227"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="236"/>
       <c r="J18" s="73"/>
       <c r="K18" s="91" t="s">
         <v>93</v>
@@ -5042,10 +5042,10 @@
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="233" t="s">
+      <c r="B19" s="237" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="236" t="s">
+      <c r="C19" s="240" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="59" t="s">
@@ -5060,7 +5060,7 @@
       <c r="G19" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="234"/>
+      <c r="H19" s="238"/>
       <c r="J19" s="72" t="s">
         <v>106</v>
       </c>
@@ -5092,8 +5092,8 @@
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="237"/>
+      <c r="B20" s="238"/>
+      <c r="C20" s="241"/>
       <c r="D20" s="59" t="s">
         <v>50</v>
       </c>
@@ -5106,23 +5106,23 @@
       <c r="G20" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="234"/>
+      <c r="H20" s="238"/>
       <c r="I20" s="98" t="str">
         <f>IF(L20=P20,"верно","!!!!!!!!!!!!!")</f>
         <v>верно</v>
       </c>
-      <c r="J20" s="239" t="s">
+      <c r="J20" s="221" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="240"/>
+      <c r="K20" s="243"/>
       <c r="L20" s="93">
         <f>SUM(K19,D5,D6,L19,M19,N19)</f>
         <v>1513510</v>
       </c>
-      <c r="N20" s="241" t="s">
+      <c r="N20" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="O20" s="240"/>
+      <c r="O20" s="243"/>
       <c r="P20" s="93">
         <f>SUM(O19,G5,G6,P19)</f>
         <v>1513510</v>
@@ -5132,13 +5132,13 @@
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="235"/>
-      <c r="C21" s="238"/>
+      <c r="B21" s="239"/>
+      <c r="C21" s="242"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
-      <c r="H21" s="235"/>
+      <c r="H21" s="239"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
       <c r="K21" s="94"/>
@@ -5718,22 +5718,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N20:O20"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6560,15 +6560,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7247,42 +7247,47 @@
     </row>
     <row r="71" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="269" t="s">
+      <c r="B72" s="261" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="270"/>
-      <c r="D72" s="271"/>
+      <c r="C72" s="262"/>
+      <c r="D72" s="263"/>
       <c r="E72" s="113"/>
     </row>
     <row r="73" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="2:6" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="267" t="s">
+      <c r="B75" s="264" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="268"/>
+      <c r="C75" s="265"/>
       <c r="D75" s="130"/>
     </row>
     <row r="76" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="264" t="s">
+      <c r="B76" s="266" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="265"/>
+      <c r="C76" s="267"/>
       <c r="D76" s="113"/>
       <c r="E76" s="131"/>
     </row>
     <row r="77" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="266" t="s">
+      <c r="B77" s="268" t="s">
         <v>177</v>
       </c>
-      <c r="C77" s="266"/>
-      <c r="D77" s="266"/>
+      <c r="C77" s="268"/>
+      <c r="D77" s="268"/>
       <c r="E77" s="113"/>
       <c r="F77" s="132"/>
     </row>
     <row r="78" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:D77"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C40:D40"/>
@@ -7290,11 +7295,6 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:D77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
@@ -13322,10 +13322,10 @@
       <c r="B273" s="106"/>
       <c r="C273" s="106"/>
       <c r="D273" s="106"/>
-      <c r="E273" s="262" t="s">
+      <c r="E273" s="270" t="s">
         <v>160</v>
       </c>
-      <c r="F273" s="263"/>
+      <c r="F273" s="271"/>
       <c r="G273" s="114">
         <f>I275-E275</f>
         <v>0</v>
@@ -13362,11 +13362,11 @@
     </row>
     <row r="275" spans="1:17" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="106"/>
-      <c r="B275" s="261" t="s">
+      <c r="B275" s="269" t="s">
         <v>148</v>
       </c>
-      <c r="C275" s="261"/>
-      <c r="D275" s="261"/>
+      <c r="C275" s="269"/>
+      <c r="D275" s="269"/>
       <c r="E275" s="113">
         <f>SUM(C6,C15,C42,C24,C56,C65,C74,C83,C92,C104,C113,C122,C131,C140,C154,C163,C172,C180,C189,C204,C216,C225,C234,C254,C268,C33)</f>
         <v>1571830</v>
@@ -13627,18 +13627,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C266:D266"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="E273:F273"/>
     <mergeCell ref="C223:D223"/>
     <mergeCell ref="C111:D111"/>
     <mergeCell ref="C120:D120"/>
@@ -13651,11 +13644,18 @@
     <mergeCell ref="C187:D187"/>
     <mergeCell ref="C202:D202"/>
     <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="C266:D266"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C90:D90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -14856,20 +14856,20 @@
     </row>
     <row r="133" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="2:6" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B134" s="267" t="s">
+      <c r="B134" s="264" t="s">
         <v>161</v>
       </c>
-      <c r="C134" s="268"/>
+      <c r="C134" s="265"/>
       <c r="D134" s="130">
         <f>SUM(E6,E15,E24,E33)</f>
         <v>883820</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="264" t="s">
+      <c r="B135" s="266" t="s">
         <v>167</v>
       </c>
-      <c r="C135" s="265"/>
+      <c r="C135" s="267"/>
       <c r="D135" s="113">
         <f>SUM(E126,E114,E104,E90,E81,E72,E63,E54,E42)</f>
         <v>688010</v>
@@ -14877,11 +14877,11 @@
       <c r="E135" s="131"/>
     </row>
     <row r="136" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="266" t="s">
+      <c r="B136" s="268" t="s">
         <v>177</v>
       </c>
-      <c r="C136" s="266"/>
-      <c r="D136" s="266"/>
+      <c r="C136" s="268"/>
+      <c r="D136" s="268"/>
       <c r="E136" s="113">
         <f>D134+D135</f>
         <v>1571830</v>
@@ -14891,16 +14891,6 @@
     <row r="137" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="B135:C135"/>
     <mergeCell ref="B136:D136"/>
     <mergeCell ref="B134:C134"/>
@@ -14908,6 +14898,16 @@
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C112:D112"/>
     <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>
@@ -14918,8 +14918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="F11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14939,52 +14939,52 @@
       <c r="D3" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="276" t="s">
+      <c r="E3" s="281" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="277"/>
-      <c r="G3" s="278" t="s">
+      <c r="F3" s="282"/>
+      <c r="G3" s="283" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="279"/>
-      <c r="I3" s="280" t="s">
+      <c r="H3" s="284"/>
+      <c r="I3" s="285" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="281"/>
+      <c r="J3" s="286"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="286" t="s">
+      <c r="B4" s="236"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="273" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="288" t="s">
+      <c r="F4" s="275" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="282" t="s">
+      <c r="G4" s="287" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="282" t="s">
+      <c r="H4" s="287" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="272" t="s">
+      <c r="I4" s="277" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="272" t="s">
+      <c r="J4" s="277" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="283"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="274"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="288"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="279"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="137">
@@ -15372,10 +15372,10 @@
     </row>
     <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="138"/>
-      <c r="C22" s="275" t="s">
+      <c r="C22" s="280" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="275"/>
+      <c r="D22" s="280"/>
       <c r="E22" s="151">
         <f t="shared" ref="E22:J22" si="0">SUM(E7:E21)</f>
         <v>894300</v>
@@ -15436,11 +15436,6 @@
     <row r="25" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="C22:D22"/>
@@ -15449,6 +15444,11 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" copies="0" r:id="rId1"/>

--- a/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
+++ b/Контрольные на 4-й семестр/Финансовый учет/Контрольная/расчте.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'шахматная ведомость'!$A$1:$S$19</definedName>
-    <definedName name="Сальдо_начальное" localSheetId="4">'Счета актива'!$C$24,'Счета актива'!$C$6,'Счета актива'!$C$15,'Счета актива'!$C$42,'Счета актива'!$C$56,'Счета актива'!$C$74,'Счета актива'!$C$65,'Счета актива'!$C$83,'Счета актива'!$C$92,'Счета актива'!$C$122,'Счета актива'!$C$104,'Счета актива'!$C$113,'Счета актива'!$C$253,'Счета актива'!$C$131,'Счета актива'!$C$141,'Счета актива'!$C$154,'Счета актива'!$C$163,'Счета актива'!$C$172,'Счета актива'!$C$181,'Счета актива'!$C$190,'Счета актива'!$C$204,'Счета актива'!$C$214,'Счета актива'!$C$222,'Счета актива'!$C$231,'Счета актива'!$C$245</definedName>
+    <definedName name="Сальдо_начальное" localSheetId="4">'Счета актива'!$C$24,'Счета актива'!$C$6,'Счета актива'!$C$15,'Счета актива'!$C$42,'Счета актива'!$C$56,'Счета актива'!$C$74,'Счета актива'!$C$65,'Счета актива'!$C$83,'Счета актива'!$C$92,'Счета актива'!$C$122,'Счета актива'!$C$104,'Счета актива'!$C$113,'Счета актива'!$C$253,'Счета актива'!$C$131,'Счета актива'!$C$141,'Счета актива'!$C$154,'Счета актива'!$C$163,'Счета актива'!$C$172,'Счета актива'!$C$181,'Счета актива'!$C$190,'Счета актива'!$C$204,'Счета актива'!$C$214,'Счета актива'!$C$222,'Счета актива'!$C$232,'Счета актива'!$C$245</definedName>
     <definedName name="Сальдо_начальное">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -4889,8 +4889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8522,7 +8522,7 @@
         <v>121</v>
       </c>
       <c r="C188" s="213">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="D188" s="214"/>
       <c r="E188" s="104" t="s">
@@ -9174,19 +9174,13 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="102"/>
-      <c r="B224" s="130" t="s">
-        <v>176</v>
-      </c>
-      <c r="C224" s="105">
-        <f>SUM(C223)</f>
+      <c r="B224" s="111"/>
+      <c r="C224" s="105"/>
+      <c r="D224" s="124">
+        <v>5</v>
+      </c>
+      <c r="E224" s="145">
         <v>29960</v>
-      </c>
-      <c r="D224" s="130" t="s">
-        <v>176</v>
-      </c>
-      <c r="E224" s="109">
-        <f>SUM(E223)</f>
-        <v>0</v>
       </c>
       <c r="F224" s="102"/>
       <c r="G224" s="102"/>
@@ -9199,14 +9193,19 @@
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="102"/>
       <c r="B225" s="130" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C225" s="105">
-        <f>C222+C224-E224</f>
-        <v>31030</v>
-      </c>
-      <c r="D225" s="128"/>
-      <c r="E225" s="128"/>
+        <f>SUM(C223)</f>
+        <v>29960</v>
+      </c>
+      <c r="D225" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="E225" s="109">
+        <f>SUM(E223:E224)</f>
+        <v>29960</v>
+      </c>
       <c r="F225" s="102"/>
       <c r="G225" s="102"/>
       <c r="H225" s="102"/>
@@ -9217,8 +9216,13 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="102"/>
-      <c r="B226" s="133"/>
-      <c r="C226" s="128"/>
+      <c r="B226" s="130" t="s">
+        <v>175</v>
+      </c>
+      <c r="C226" s="105">
+        <f>C222+C225-E225</f>
+        <v>1070</v>
+      </c>
       <c r="D226" s="128"/>
       <c r="E226" s="128"/>
       <c r="F226" s="102"/>
@@ -9257,44 +9261,35 @@
       <c r="P228" s="102"/>
       <c r="Q228" s="102"/>
     </row>
-    <row r="229" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="102"/>
-      <c r="B229" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="C229" s="213">
-        <v>311</v>
-      </c>
-      <c r="D229" s="214"/>
-      <c r="E229" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="F229" s="102" t="s">
-        <v>144</v>
-      </c>
+      <c r="B229" s="133"/>
+      <c r="C229" s="128"/>
+      <c r="D229" s="128"/>
+      <c r="E229" s="128"/>
+      <c r="F229" s="102"/>
       <c r="G229" s="102"/>
       <c r="H229" s="102"/>
       <c r="I229" s="102"/>
-      <c r="J229" s="102"/>
-      <c r="K229" s="102"/>
-      <c r="L229" s="102"/>
-      <c r="M229" s="102"/>
-    </row>
-    <row r="230" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O229" s="102"/>
+      <c r="P229" s="102"/>
+      <c r="Q229" s="102"/>
+    </row>
+    <row r="230" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="102"/>
-      <c r="B230" s="107" t="s">
-        <v>156</v>
-      </c>
-      <c r="C230" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="D230" s="107" t="s">
-        <v>156</v>
-      </c>
-      <c r="E230" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="F230" s="102"/>
+      <c r="B230" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="C230" s="213">
+        <v>311</v>
+      </c>
+      <c r="D230" s="214"/>
+      <c r="E230" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="F230" s="102" t="s">
+        <v>144</v>
+      </c>
       <c r="G230" s="102"/>
       <c r="H230" s="102"/>
       <c r="I230" s="102"/>
@@ -9303,17 +9298,21 @@
       <c r="L230" s="102"/>
       <c r="M230" s="102"/>
     </row>
-    <row r="231" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A231" s="102"/>
-      <c r="B231" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="C231" s="114">
-        <v>149800</v>
-      </c>
-      <c r="D231" s="139"/>
-      <c r="E231" s="143"/>
-      <c r="F231" s="127"/>
+      <c r="B231" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C231" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D231" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="E231" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="F231" s="102"/>
       <c r="G231" s="102"/>
       <c r="H231" s="102"/>
       <c r="I231" s="102"/>
@@ -9322,17 +9321,17 @@
       <c r="L231" s="102"/>
       <c r="M231" s="102"/>
     </row>
-    <row r="232" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="119"/>
-      <c r="B232" s="117">
-        <v>1</v>
-      </c>
-      <c r="C232" s="118">
-        <v>41300</v>
-      </c>
-      <c r="D232" s="124"/>
-      <c r="E232" s="111"/>
-      <c r="F232" s="102"/>
+    <row r="232" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="102"/>
+      <c r="B232" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="C232" s="114">
+        <v>149800</v>
+      </c>
+      <c r="D232" s="139"/>
+      <c r="E232" s="143"/>
+      <c r="F232" s="127"/>
       <c r="G232" s="102"/>
       <c r="H232" s="102"/>
       <c r="I232" s="102"/>
@@ -9341,16 +9340,16 @@
       <c r="L232" s="102"/>
       <c r="M232" s="102"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A233" s="102"/>
-      <c r="B233" s="111">
-        <v>2</v>
-      </c>
-      <c r="C233" s="112">
-        <v>3640</v>
-      </c>
-      <c r="D233" s="110"/>
-      <c r="E233" s="109"/>
+    <row r="233" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="119"/>
+      <c r="B233" s="117">
+        <v>1</v>
+      </c>
+      <c r="C233" s="118">
+        <v>41300</v>
+      </c>
+      <c r="D233" s="124"/>
+      <c r="E233" s="111"/>
       <c r="F233" s="102"/>
       <c r="G233" s="102"/>
       <c r="H233" s="102"/>
@@ -9362,14 +9361,14 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="102"/>
-      <c r="B234" s="109"/>
-      <c r="C234" s="105"/>
-      <c r="D234" s="110">
-        <v>3</v>
-      </c>
-      <c r="E234" s="109">
-        <v>17120</v>
-      </c>
+      <c r="B234" s="111">
+        <v>2</v>
+      </c>
+      <c r="C234" s="112">
+        <v>3640</v>
+      </c>
+      <c r="D234" s="110"/>
+      <c r="E234" s="109"/>
       <c r="F234" s="102"/>
       <c r="G234" s="102"/>
       <c r="H234" s="102"/>
@@ -9383,11 +9382,11 @@
       <c r="A235" s="102"/>
       <c r="B235" s="109"/>
       <c r="C235" s="105"/>
-      <c r="D235" s="109">
-        <v>4</v>
+      <c r="D235" s="110">
+        <v>3</v>
       </c>
       <c r="E235" s="109">
-        <v>29960</v>
+        <v>17120</v>
       </c>
       <c r="F235" s="102"/>
       <c r="G235" s="102"/>
@@ -9400,14 +9399,14 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="102"/>
-      <c r="B236" s="109">
-        <v>5</v>
-      </c>
-      <c r="C236" s="105">
+      <c r="B236" s="109"/>
+      <c r="C236" s="105"/>
+      <c r="D236" s="109">
+        <v>4</v>
+      </c>
+      <c r="E236" s="109">
         <v>29960</v>
       </c>
-      <c r="D236" s="110"/>
-      <c r="E236" s="109"/>
       <c r="F236" s="102"/>
       <c r="G236" s="102"/>
       <c r="H236" s="102"/>
@@ -9442,14 +9441,14 @@
         <v>176</v>
       </c>
       <c r="C238" s="105">
-        <f>SUM(C232:C237)</f>
-        <v>101650</v>
+        <f>SUM(C233:C237)</f>
+        <v>71690</v>
       </c>
       <c r="D238" s="130" t="s">
         <v>176</v>
       </c>
       <c r="E238" s="109">
-        <f>SUM(E231:E237)</f>
+        <f>SUM(E232:E237)</f>
         <v>47080</v>
       </c>
       <c r="F238" s="102"/>
@@ -9467,8 +9466,8 @@
         <v>175</v>
       </c>
       <c r="C239" s="105">
-        <f>C236+C238-E238</f>
-        <v>84530</v>
+        <f>C232+C238-E238</f>
+        <v>174410</v>
       </c>
       <c r="D239" s="128"/>
       <c r="E239" s="128"/>
@@ -10001,7 +10000,7 @@
       </c>
       <c r="C265" s="101"/>
       <c r="D265" s="108">
-        <f>SUM(C231,C222)</f>
+        <f>SUM(C232,C222)</f>
         <v>150870</v>
       </c>
       <c r="E265" s="102"/>
@@ -10107,7 +10106,7 @@
     <mergeCell ref="C188:D188"/>
     <mergeCell ref="C202:D202"/>
     <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="C230:D230"/>
     <mergeCell ref="C243:D243"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10117,10 +10116,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F137"/>
+  <dimension ref="B2:M137"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10726,14 +10725,14 @@
         <v>121</v>
       </c>
       <c r="C70" s="216">
-        <v>611</v>
+        <v>62</v>
       </c>
       <c r="D70" s="216"/>
       <c r="E70" s="104" t="s">
         <v>122</v>
       </c>
       <c r="F70" s="102" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10757,75 +10756,54 @@
         <v>118</v>
       </c>
       <c r="E72" s="114">
-        <v>117700</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B73" s="111"/>
       <c r="C73" s="112"/>
-      <c r="D73" s="124">
-        <v>12</v>
-      </c>
-      <c r="E73" s="137">
-        <v>14980</v>
-      </c>
+      <c r="D73" s="124"/>
+      <c r="E73" s="111"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="130" t="s">
         <v>176</v>
       </c>
       <c r="C74" s="105">
-        <f>SUM(C72:C73)</f>
+        <f>SUM(C73)</f>
         <v>0</v>
       </c>
       <c r="D74" s="130" t="s">
         <v>176</v>
       </c>
       <c r="E74" s="109">
-        <f>SUM(E73:E73)</f>
-        <v>14980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="130"/>
+      <c r="C75" s="105"/>
       <c r="D75" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="E75" s="109">
-        <f>E72+E74-C74</f>
-        <v>132680</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="100"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="100"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="100"/>
-      <c r="C78" s="100"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="100"/>
+      <c r="E75" s="150">
+        <f>E72+E74-G83</f>
+        <v>10700</v>
+      </c>
     </row>
     <row r="79" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="104" t="s">
         <v>121</v>
       </c>
       <c r="C79" s="216">
-        <v>620</v>
+        <v>63</v>
       </c>
       <c r="D79" s="216"/>
       <c r="E79" s="104" t="s">
         <v>122</v>
       </c>
       <c r="F79" s="102" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10842,61 +10820,78 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="122"/>
       <c r="C81" s="114"/>
       <c r="D81" s="123" t="s">
         <v>118</v>
       </c>
       <c r="E81" s="114">
-        <v>10700</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>117700</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B82" s="111"/>
       <c r="C82" s="112"/>
-      <c r="D82" s="124"/>
-      <c r="E82" s="111"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="124">
+        <v>12</v>
+      </c>
+      <c r="E82" s="137">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="130" t="s">
         <v>176</v>
       </c>
       <c r="C83" s="105">
-        <f>SUM(C82)</f>
+        <f>SUM(C81:C82)</f>
         <v>0</v>
       </c>
       <c r="D83" s="130" t="s">
         <v>176</v>
       </c>
       <c r="E83" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="130"/>
-      <c r="C84" s="105"/>
+        <f>SUM(E82:E82)</f>
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D84" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="E84" s="150">
-        <f>E81+E83-G83</f>
-        <v>10700</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="109">
+        <f>E81+E83-C83</f>
+        <v>132680</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="100"/>
       <c r="C85" s="100"/>
       <c r="D85" s="100"/>
       <c r="E85" s="100"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J85" s="100"/>
+      <c r="K85" s="100"/>
+      <c r="L85" s="100"/>
+      <c r="M85" s="100"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="100"/>
       <c r="C86" s="100"/>
       <c r="D86" s="100"/>
       <c r="E86" s="100"/>
-    </row>
-    <row r="88" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J86" s="100"/>
+      <c r="K86" s="100"/>
+      <c r="L86" s="100"/>
+      <c r="M86" s="100"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J87" s="100"/>
+      <c r="K87" s="100"/>
+      <c r="L87" s="100"/>
+      <c r="M87" s="100"/>
+    </row>
+    <row r="88" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="104" t="s">
         <v>121</v>
       </c>
@@ -10911,7 +10906,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B89" s="107" t="s">
         <v>156</v>
       </c>
@@ -10925,7 +10920,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="122"/>
       <c r="C90" s="114"/>
       <c r="D90" s="123" t="s">
@@ -10935,7 +10930,7 @@
         <v>102720</v>
       </c>
     </row>
-    <row r="91" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B91" s="111">
         <v>3</v>
       </c>
@@ -10945,7 +10940,7 @@
       <c r="D91" s="124"/>
       <c r="E91" s="111"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="109"/>
       <c r="C92" s="105"/>
       <c r="D92" s="109">
@@ -10955,7 +10950,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="130" t="s">
         <v>176</v>
       </c>
@@ -10971,7 +10966,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D94" s="130" t="s">
         <v>175</v>
       </c>
@@ -10980,13 +10975,13 @@
         <v>91760</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="100"/>
       <c r="C95" s="100"/>
       <c r="D95" s="100"/>
       <c r="E95" s="100"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="100"/>
       <c r="C96" s="100"/>
       <c r="D96" s="100"/>
@@ -11027,7 +11022,7 @@
         <v>121</v>
       </c>
       <c r="C102" s="216">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="D102" s="216"/>
       <c r="E102" s="104" t="s">
@@ -11164,14 +11159,14 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="111"/>
-      <c r="C115" s="112"/>
-      <c r="D115" s="124">
+      <c r="B115" s="111">
         <v>5</v>
       </c>
-      <c r="E115" s="137">
+      <c r="C115" s="112">
         <v>29960</v>
       </c>
+      <c r="D115" s="124"/>
+      <c r="E115" s="137"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="109"/>
@@ -11209,14 +11204,14 @@
       </c>
       <c r="C119" s="105">
         <f>SUM(C115:C118)</f>
-        <v>6990</v>
+        <v>36950</v>
       </c>
       <c r="D119" s="130" t="s">
         <v>176</v>
       </c>
       <c r="E119" s="109">
         <f>SUM(E115:E118)</f>
-        <v>68480</v>
+        <v>38520</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
@@ -11225,7 +11220,7 @@
       </c>
       <c r="E120" s="109">
         <f>E114+E119-C119</f>
-        <v>104290</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
@@ -11324,7 +11319,7 @@
       </c>
       <c r="C135" s="220"/>
       <c r="D135" s="108">
-        <f>SUM(E126,E114,E104,E90,E81,E72,E63,E54,E42)</f>
+        <f>SUM(E126,E114,E104,E90,E72,E81,E63,E54,E42)</f>
         <v>688010</v>
       </c>
       <c r="E135" s="126"/>
@@ -11349,8 +11344,8 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C79:D79"/>
     <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C79:D79"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C40:D40"/>
